--- a/docs/テスト種別&観点カタログガイド.xlsx
+++ b/docs/テスト種別&観点カタログガイド.xlsx
@@ -3478,16 +3478,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="3"/>
   </si>
@@ -3554,6 +3544,16 @@
   </si>
   <si>
     <t>Fintan『Nablarch開発標準』</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト種別&amp;観点カタログ©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="3" eb="5">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンテン</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -8628,8 +8628,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="4827081" y="4697512"/>
-          <a:ext cx="1378862" cy="4124599"/>
+          <a:off x="4747289" y="5202500"/>
+          <a:ext cx="1356492" cy="4568736"/>
           <a:chOff x="1223082" y="3963508"/>
           <a:chExt cx="1425662" cy="2596557"/>
         </a:xfrm>
@@ -8944,8 +8944,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1123406" y="1719943"/>
-          <a:ext cx="6349156" cy="593671"/>
+          <a:off x="1104900" y="1905000"/>
+          <a:ext cx="6245089" cy="657189"/>
           <a:chOff x="244031" y="848544"/>
           <a:chExt cx="6245089" cy="657189"/>
         </a:xfrm>
@@ -9487,8 +9487,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1528376" y="4975740"/>
-          <a:ext cx="1646819" cy="649105"/>
+          <a:off x="1504101" y="5509902"/>
+          <a:ext cx="1619060" cy="720080"/>
           <a:chOff x="244031" y="5410937"/>
           <a:chExt cx="1620000" cy="720080"/>
         </a:xfrm>
@@ -10023,8 +10023,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1527444" y="3331839"/>
-          <a:ext cx="1646394" cy="574034"/>
+          <a:off x="1503169" y="3689163"/>
+          <a:ext cx="1618635" cy="636790"/>
           <a:chOff x="3501008" y="2278569"/>
           <a:chExt cx="1620000" cy="636790"/>
         </a:xfrm>
@@ -10372,8 +10372,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1527436" y="5950160"/>
-          <a:ext cx="1647759" cy="650182"/>
+          <a:off x="1503161" y="6590022"/>
+          <a:ext cx="1620000" cy="721157"/>
           <a:chOff x="244031" y="6851097"/>
           <a:chExt cx="1620000" cy="721157"/>
         </a:xfrm>
@@ -10843,8 +10843,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5349718" y="4220497"/>
-          <a:ext cx="2013528" cy="796105"/>
+          <a:off x="5262197" y="4674921"/>
+          <a:ext cx="1980000" cy="881014"/>
           <a:chOff x="4288257" y="4576042"/>
           <a:chExt cx="1980000" cy="881014"/>
         </a:xfrm>
@@ -11238,8 +11238,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1555232" y="4160604"/>
-          <a:ext cx="1647759" cy="651951"/>
+          <a:off x="1530576" y="4607789"/>
+          <a:ext cx="1620000" cy="720803"/>
           <a:chOff x="244031" y="4020302"/>
           <a:chExt cx="1620000" cy="720803"/>
         </a:xfrm>
@@ -11780,8 +11780,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5340271" y="3328990"/>
-          <a:ext cx="2013528" cy="694785"/>
+          <a:off x="5252369" y="3686314"/>
+          <a:ext cx="1980000" cy="770712"/>
           <a:chOff x="4260945" y="3645066"/>
           <a:chExt cx="1980000" cy="770712"/>
         </a:xfrm>
@@ -12177,8 +12177,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1140785" y="2435341"/>
-          <a:ext cx="6348013" cy="589056"/>
+          <a:off x="1121517" y="2697088"/>
+          <a:ext cx="6245089" cy="652574"/>
           <a:chOff x="260648" y="1640632"/>
           <a:chExt cx="6245089" cy="652574"/>
         </a:xfrm>
@@ -12559,8 +12559,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1527436" y="8042023"/>
-          <a:ext cx="1646394" cy="635337"/>
+          <a:off x="1503161" y="8906621"/>
+          <a:ext cx="1618635" cy="704026"/>
           <a:chOff x="1596738" y="9029887"/>
           <a:chExt cx="1642168" cy="704026"/>
         </a:xfrm>
@@ -13422,7 +13422,7 @@
   </sheetPr>
   <dimension ref="A1:AI512"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="77" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="18.75"/>
   <cols>
@@ -14262,7 +14262,7 @@
       <c r="P23" s="96"/>
       <c r="Q23" s="96"/>
       <c r="R23" s="102" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S23" s="96"/>
       <c r="T23" s="96"/>
@@ -14338,7 +14338,7 @@
       <c r="P25" s="96"/>
       <c r="Q25" s="96"/>
       <c r="R25" s="103" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S25" s="96"/>
       <c r="T25" s="96"/>
@@ -14598,9 +14598,7 @@
       <c r="O32" s="96"/>
       <c r="P32" s="96"/>
       <c r="Q32" s="96"/>
-      <c r="R32" s="107" t="s">
-        <v>310</v>
-      </c>
+      <c r="R32" s="107"/>
       <c r="S32" s="96"/>
       <c r="T32" s="96"/>
       <c r="U32" s="96"/>
@@ -14767,15 +14765,15 @@
       <c r="AH36" s="96"/>
       <c r="AI36" s="96"/>
     </row>
-    <row r="37" spans="1:35" ht="13.5" customHeight="1">
+    <row r="37" spans="1:35" ht="15.75" customHeight="1">
       <c r="A37" s="96"/>
       <c r="B37" s="96" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C37" s="96"/>
       <c r="D37" s="96"/>
       <c r="E37" s="113" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F37" s="96"/>
       <c r="G37" s="96"/>
@@ -14790,7 +14788,7 @@
       <c r="P37" s="110"/>
       <c r="R37" s="110"/>
       <c r="S37" s="114" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="T37" s="96"/>
       <c r="U37" s="96"/>
@@ -14809,9 +14807,11 @@
       <c r="AH37" s="96"/>
       <c r="AI37" s="96"/>
     </row>
-    <row r="38" spans="1:35" ht="13.5" customHeight="1">
+    <row r="38" spans="1:35" ht="20.25" customHeight="1">
       <c r="A38" s="96"/>
-      <c r="B38" s="96"/>
+      <c r="B38" s="96" t="s">
+        <v>320</v>
+      </c>
       <c r="C38" s="96"/>
       <c r="D38" s="96"/>
       <c r="E38" s="96"/>
@@ -15789,17 +15789,17 @@
     </row>
     <row r="114" spans="3:4">
       <c r="C114" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="115" spans="3:4">
       <c r="D115" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" spans="3:4">
       <c r="D116" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" spans="3:4">
@@ -17426,7 +17426,7 @@
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">
       <c r="B20" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>151</v>
@@ -17860,7 +17860,7 @@
     </row>
     <row r="50" spans="2:7" ht="15" customHeight="1">
       <c r="B50" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>185</v>

--- a/docs/テスト種別&観点カタログガイド.xlsx
+++ b/docs/テスト種別&観点カタログガイド.xlsx
@@ -1,32 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AC7344-8878-4BC0-9511-C02005A1781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="-15" windowWidth="27675" windowHeight="11100" tabRatio="683"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="683" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
-    <sheet name="1.本書について" sheetId="15" r:id="rId2"/>
-    <sheet name="2.活用方法" sheetId="16" r:id="rId3"/>
-    <sheet name="別紙1. 想定成果物一覧" sheetId="18" r:id="rId4"/>
-    <sheet name="別紙2. 工程へのテスト種別の割り当て例" sheetId="17" r:id="rId5"/>
+    <sheet name="変更履歴" sheetId="20" r:id="rId2"/>
+    <sheet name="1.本書について" sheetId="15" r:id="rId3"/>
+    <sheet name="2.活用方法" sheetId="16" r:id="rId4"/>
+    <sheet name="別紙1. 想定成果物一覧" sheetId="18" r:id="rId5"/>
+    <sheet name="別紙2. 工程へのテスト種別の割り当て例" sheetId="17" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'別紙1. 想定成果物一覧'!$B$19:$G$85</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.本書について'!$A$1:$AR$129</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.活用方法'!$A$1:$AR$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'別紙1. 想定成果物一覧'!$B$19:$G$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'1.本書について'!$A$1:$AR$129</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2.活用方法'!$A$1:$AR$129</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'別紙1. 想定成果物一覧'!$A$1:$G$85</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'別紙2. 工程へのテスト種別の割り当て例'!$A$1:$AO$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'別紙1. 想定成果物一覧'!$A$1:$G$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'別紙2. 工程へのテスト種別の割り当て例'!$A$1:$AO$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="334">
   <si>
     <t>1.3.2. プロジェクト</t>
   </si>
@@ -3555,17 +3559,117 @@
       <t>カンテン</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>変更履歴</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="51"/>
+  </si>
+  <si>
+    <t>版数</t>
+    <rPh sb="0" eb="2">
+      <t>ハンスウ</t>
+    </rPh>
+    <phoneticPr fontId="51"/>
+  </si>
+  <si>
+    <t>変更日</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンコウビ</t>
+    </rPh>
+    <phoneticPr fontId="51"/>
+  </si>
+  <si>
+    <t>区分</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="51"/>
+  </si>
+  <si>
+    <t>変更項目の番号・名称</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="51"/>
+  </si>
+  <si>
+    <t>変更内容</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="51"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表紙</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ライセンス情報を付与</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※1.1版以前の履歴は、以下を参照してください。</t>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>テスト種別&amp;観点カタログ変更履歴_第1.1版以前.pdf</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#&quot;月&quot;"/>
     <numFmt numFmtId="177" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -3915,6 +4019,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="30">
     <fill>
@@ -4070,7 +4188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -4720,6 +4838,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="560">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6351,7 +6525,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6535,6 +6709,40 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="513" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="513" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="513" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="513" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="59" xfId="513" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="513" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -6563,568 +6771,571 @@
     <xf numFmtId="3" fontId="5" fillId="4" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="560">
-    <cellStyle name="20% - アクセント 1 2" xfId="8"/>
-    <cellStyle name="20% - アクセント 2 2" xfId="9"/>
-    <cellStyle name="20% - アクセント 3 2" xfId="10"/>
-    <cellStyle name="20% - アクセント 4 2" xfId="11"/>
-    <cellStyle name="20% - アクセント 5 2" xfId="12"/>
-    <cellStyle name="20% - アクセント 6 2" xfId="13"/>
-    <cellStyle name="40% - アクセント 1 2" xfId="14"/>
-    <cellStyle name="40% - アクセント 2 2" xfId="15"/>
-    <cellStyle name="40% - アクセント 3 2" xfId="16"/>
-    <cellStyle name="40% - アクセント 4 2" xfId="17"/>
-    <cellStyle name="40% - アクセント 5 2" xfId="18"/>
-    <cellStyle name="40% - アクセント 6 2" xfId="19"/>
-    <cellStyle name="60% - アクセント 1 2" xfId="20"/>
-    <cellStyle name="60% - アクセント 2 2" xfId="21"/>
-    <cellStyle name="60% - アクセント 3 2" xfId="22"/>
-    <cellStyle name="60% - アクセント 4 2" xfId="23"/>
-    <cellStyle name="60% - アクセント 5 2" xfId="24"/>
-    <cellStyle name="60% - アクセント 6 2" xfId="25"/>
-    <cellStyle name="Calc Currency (0)" xfId="26"/>
-    <cellStyle name="Header1" xfId="27"/>
-    <cellStyle name="Header2" xfId="28"/>
-    <cellStyle name="Header2 2" xfId="29"/>
-    <cellStyle name="Header2 2 10" xfId="30"/>
-    <cellStyle name="Header2 2 10 2" xfId="31"/>
-    <cellStyle name="Header2 2 11" xfId="32"/>
-    <cellStyle name="Header2 2 11 2" xfId="33"/>
-    <cellStyle name="Header2 2 12" xfId="34"/>
-    <cellStyle name="Header2 2 12 2" xfId="35"/>
-    <cellStyle name="Header2 2 13" xfId="36"/>
-    <cellStyle name="Header2 2 2" xfId="37"/>
-    <cellStyle name="Header2 2 2 2" xfId="38"/>
-    <cellStyle name="Header2 2 2 2 2" xfId="39"/>
-    <cellStyle name="Header2 2 2 3" xfId="40"/>
-    <cellStyle name="Header2 2 2 3 2" xfId="41"/>
-    <cellStyle name="Header2 2 2 4" xfId="42"/>
-    <cellStyle name="Header2 2 2 4 2" xfId="43"/>
-    <cellStyle name="Header2 2 2 5" xfId="44"/>
-    <cellStyle name="Header2 2 2 5 2" xfId="45"/>
-    <cellStyle name="Header2 2 2 6" xfId="46"/>
-    <cellStyle name="Header2 2 2 6 2" xfId="47"/>
-    <cellStyle name="Header2 2 2 7" xfId="48"/>
-    <cellStyle name="Header2 2 3" xfId="49"/>
-    <cellStyle name="Header2 2 4" xfId="50"/>
-    <cellStyle name="Header2 2 4 2" xfId="51"/>
-    <cellStyle name="Header2 2 4 2 2" xfId="52"/>
-    <cellStyle name="Header2 2 4 3" xfId="53"/>
-    <cellStyle name="Header2 2 4 3 2" xfId="54"/>
-    <cellStyle name="Header2 2 4 4" xfId="55"/>
-    <cellStyle name="Header2 2 4 4 2" xfId="56"/>
-    <cellStyle name="Header2 2 4 5" xfId="57"/>
-    <cellStyle name="Header2 2 4 5 2" xfId="58"/>
-    <cellStyle name="Header2 2 4 6" xfId="59"/>
-    <cellStyle name="Header2 2 4 6 2" xfId="60"/>
-    <cellStyle name="Header2 2 4 7" xfId="61"/>
-    <cellStyle name="Header2 2 5" xfId="62"/>
-    <cellStyle name="Header2 2 5 2" xfId="63"/>
-    <cellStyle name="Header2 2 5 2 2" xfId="64"/>
-    <cellStyle name="Header2 2 5 3" xfId="65"/>
-    <cellStyle name="Header2 2 5 3 2" xfId="66"/>
-    <cellStyle name="Header2 2 5 4" xfId="67"/>
-    <cellStyle name="Header2 2 5 4 2" xfId="68"/>
-    <cellStyle name="Header2 2 5 5" xfId="69"/>
-    <cellStyle name="Header2 2 5 5 2" xfId="70"/>
-    <cellStyle name="Header2 2 5 6" xfId="71"/>
-    <cellStyle name="Header2 2 5 6 2" xfId="72"/>
-    <cellStyle name="Header2 2 5 7" xfId="73"/>
-    <cellStyle name="Header2 2 6" xfId="74"/>
-    <cellStyle name="Header2 2 6 2" xfId="75"/>
-    <cellStyle name="Header2 2 6 2 2" xfId="76"/>
-    <cellStyle name="Header2 2 6 3" xfId="77"/>
-    <cellStyle name="Header2 2 6 3 2" xfId="78"/>
-    <cellStyle name="Header2 2 6 4" xfId="79"/>
-    <cellStyle name="Header2 2 6 4 2" xfId="80"/>
-    <cellStyle name="Header2 2 6 5" xfId="81"/>
-    <cellStyle name="Header2 2 6 5 2" xfId="82"/>
-    <cellStyle name="Header2 2 6 6" xfId="83"/>
-    <cellStyle name="Header2 2 6 6 2" xfId="84"/>
-    <cellStyle name="Header2 2 6 7" xfId="85"/>
-    <cellStyle name="Header2 2 7" xfId="86"/>
-    <cellStyle name="Header2 2 7 2" xfId="87"/>
-    <cellStyle name="Header2 2 7 2 2" xfId="88"/>
-    <cellStyle name="Header2 2 7 3" xfId="89"/>
-    <cellStyle name="Header2 2 7 3 2" xfId="90"/>
-    <cellStyle name="Header2 2 7 4" xfId="91"/>
-    <cellStyle name="Header2 2 7 4 2" xfId="92"/>
-    <cellStyle name="Header2 2 7 5" xfId="93"/>
-    <cellStyle name="Header2 2 7 5 2" xfId="94"/>
-    <cellStyle name="Header2 2 7 6" xfId="95"/>
-    <cellStyle name="Header2 2 7 6 2" xfId="96"/>
-    <cellStyle name="Header2 2 7 7" xfId="97"/>
-    <cellStyle name="Header2 2 8" xfId="98"/>
-    <cellStyle name="Header2 2 8 2" xfId="99"/>
-    <cellStyle name="Header2 2 9" xfId="100"/>
-    <cellStyle name="Header2 2 9 2" xfId="101"/>
-    <cellStyle name="Header2 3" xfId="102"/>
-    <cellStyle name="Header2 3 10" xfId="103"/>
-    <cellStyle name="Header2 3 10 2" xfId="104"/>
-    <cellStyle name="Header2 3 11" xfId="105"/>
-    <cellStyle name="Header2 3 11 2" xfId="106"/>
-    <cellStyle name="Header2 3 12" xfId="107"/>
-    <cellStyle name="Header2 3 2" xfId="108"/>
-    <cellStyle name="Header2 3 2 2" xfId="109"/>
-    <cellStyle name="Header2 3 2 2 2" xfId="110"/>
-    <cellStyle name="Header2 3 2 3" xfId="111"/>
-    <cellStyle name="Header2 3 2 3 2" xfId="112"/>
-    <cellStyle name="Header2 3 2 4" xfId="113"/>
-    <cellStyle name="Header2 3 2 4 2" xfId="114"/>
-    <cellStyle name="Header2 3 2 5" xfId="115"/>
-    <cellStyle name="Header2 3 2 5 2" xfId="116"/>
-    <cellStyle name="Header2 3 2 6" xfId="117"/>
-    <cellStyle name="Header2 3 2 6 2" xfId="118"/>
-    <cellStyle name="Header2 3 2 7" xfId="119"/>
-    <cellStyle name="Header2 3 3" xfId="120"/>
-    <cellStyle name="Header2 3 3 2" xfId="121"/>
-    <cellStyle name="Header2 3 3 2 2" xfId="122"/>
-    <cellStyle name="Header2 3 3 3" xfId="123"/>
-    <cellStyle name="Header2 3 3 3 2" xfId="124"/>
-    <cellStyle name="Header2 3 3 4" xfId="125"/>
-    <cellStyle name="Header2 3 3 4 2" xfId="126"/>
-    <cellStyle name="Header2 3 3 5" xfId="127"/>
-    <cellStyle name="Header2 3 3 5 2" xfId="128"/>
-    <cellStyle name="Header2 3 3 6" xfId="129"/>
-    <cellStyle name="Header2 3 3 6 2" xfId="130"/>
-    <cellStyle name="Header2 3 3 7" xfId="131"/>
-    <cellStyle name="Header2 3 4" xfId="132"/>
-    <cellStyle name="Header2 3 4 2" xfId="133"/>
-    <cellStyle name="Header2 3 4 2 2" xfId="134"/>
-    <cellStyle name="Header2 3 4 3" xfId="135"/>
-    <cellStyle name="Header2 3 4 3 2" xfId="136"/>
-    <cellStyle name="Header2 3 4 4" xfId="137"/>
-    <cellStyle name="Header2 3 4 4 2" xfId="138"/>
-    <cellStyle name="Header2 3 4 5" xfId="139"/>
-    <cellStyle name="Header2 3 4 5 2" xfId="140"/>
-    <cellStyle name="Header2 3 4 6" xfId="141"/>
-    <cellStyle name="Header2 3 4 6 2" xfId="142"/>
-    <cellStyle name="Header2 3 4 7" xfId="143"/>
-    <cellStyle name="Header2 3 5" xfId="144"/>
-    <cellStyle name="Header2 3 5 2" xfId="145"/>
-    <cellStyle name="Header2 3 5 2 2" xfId="146"/>
-    <cellStyle name="Header2 3 5 3" xfId="147"/>
-    <cellStyle name="Header2 3 5 3 2" xfId="148"/>
-    <cellStyle name="Header2 3 5 4" xfId="149"/>
-    <cellStyle name="Header2 3 5 4 2" xfId="150"/>
-    <cellStyle name="Header2 3 5 5" xfId="151"/>
-    <cellStyle name="Header2 3 5 5 2" xfId="152"/>
-    <cellStyle name="Header2 3 5 6" xfId="153"/>
-    <cellStyle name="Header2 3 5 6 2" xfId="154"/>
-    <cellStyle name="Header2 3 5 7" xfId="155"/>
-    <cellStyle name="Header2 3 6" xfId="156"/>
-    <cellStyle name="Header2 3 6 2" xfId="157"/>
-    <cellStyle name="Header2 3 6 2 2" xfId="158"/>
-    <cellStyle name="Header2 3 6 3" xfId="159"/>
-    <cellStyle name="Header2 3 6 3 2" xfId="160"/>
-    <cellStyle name="Header2 3 6 4" xfId="161"/>
-    <cellStyle name="Header2 3 6 4 2" xfId="162"/>
-    <cellStyle name="Header2 3 6 5" xfId="163"/>
-    <cellStyle name="Header2 3 6 5 2" xfId="164"/>
-    <cellStyle name="Header2 3 6 6" xfId="165"/>
-    <cellStyle name="Header2 3 6 6 2" xfId="166"/>
-    <cellStyle name="Header2 3 6 7" xfId="167"/>
-    <cellStyle name="Header2 3 7" xfId="168"/>
-    <cellStyle name="Header2 3 7 2" xfId="169"/>
-    <cellStyle name="Header2 3 8" xfId="170"/>
-    <cellStyle name="Header2 3 8 2" xfId="171"/>
-    <cellStyle name="Header2 3 9" xfId="172"/>
-    <cellStyle name="Header2 3 9 2" xfId="173"/>
-    <cellStyle name="Normal_#18-Internet" xfId="174"/>
-    <cellStyle name="アクセント 1 2" xfId="175"/>
-    <cellStyle name="アクセント 2 2" xfId="176"/>
-    <cellStyle name="アクセント 3 2" xfId="177"/>
-    <cellStyle name="アクセント 4 2" xfId="178"/>
-    <cellStyle name="アクセント 5 2" xfId="179"/>
-    <cellStyle name="アクセント 6 2" xfId="180"/>
-    <cellStyle name="タイトル 2" xfId="181"/>
-    <cellStyle name="チェック セル 2" xfId="182"/>
-    <cellStyle name="どちらでもない 2" xfId="183"/>
-    <cellStyle name="パーセント 2" xfId="184"/>
+    <cellStyle name="20% - アクセント 1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - アクセント 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - アクセント 3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - アクセント 4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - アクセント 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - アクセント 6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - アクセント 1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - アクセント 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - アクセント 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - アクセント 4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - アクセント 5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - アクセント 6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - アクセント 1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - アクセント 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - アクセント 3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - アクセント 4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - アクセント 5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - アクセント 6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Calc Currency (0)" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Header1" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Header2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Header2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Header2 2 10" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Header2 2 10 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Header2 2 11" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Header2 2 11 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Header2 2 12" xfId="34" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Header2 2 12 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Header2 2 13" xfId="36" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Header2 2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Header2 2 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Header2 2 2 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Header2 2 2 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Header2 2 2 3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Header2 2 2 4" xfId="42" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Header2 2 2 4 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Header2 2 2 5" xfId="44" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Header2 2 2 5 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Header2 2 2 6" xfId="46" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Header2 2 2 6 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Header2 2 2 7" xfId="48" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Header2 2 3" xfId="49" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Header2 2 4" xfId="50" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Header2 2 4 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Header2 2 4 2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Header2 2 4 3" xfId="53" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Header2 2 4 3 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Header2 2 4 4" xfId="55" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Header2 2 4 4 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Header2 2 4 5" xfId="57" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Header2 2 4 5 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Header2 2 4 6" xfId="59" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Header2 2 4 6 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Header2 2 4 7" xfId="61" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header2 2 5" xfId="62" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Header2 2 5 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Header2 2 5 2 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Header2 2 5 3" xfId="65" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Header2 2 5 3 2" xfId="66" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Header2 2 5 4" xfId="67" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Header2 2 5 4 2" xfId="68" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Header2 2 5 5" xfId="69" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Header2 2 5 5 2" xfId="70" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Header2 2 5 6" xfId="71" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Header2 2 5 6 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Header2 2 5 7" xfId="73" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Header2 2 6" xfId="74" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Header2 2 6 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Header2 2 6 2 2" xfId="76" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Header2 2 6 3" xfId="77" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Header2 2 6 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Header2 2 6 4" xfId="79" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Header2 2 6 4 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Header2 2 6 5" xfId="81" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Header2 2 6 5 2" xfId="82" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Header2 2 6 6" xfId="83" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Header2 2 6 6 2" xfId="84" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Header2 2 6 7" xfId="85" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Header2 2 7" xfId="86" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Header2 2 7 2" xfId="87" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Header2 2 7 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Header2 2 7 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Header2 2 7 3 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Header2 2 7 4" xfId="91" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Header2 2 7 4 2" xfId="92" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Header2 2 7 5" xfId="93" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Header2 2 7 5 2" xfId="94" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Header2 2 7 6" xfId="95" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Header2 2 7 6 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Header2 2 7 7" xfId="97" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Header2 2 8" xfId="98" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Header2 2 8 2" xfId="99" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Header2 2 9" xfId="100" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Header2 2 9 2" xfId="101" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Header2 3" xfId="102" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Header2 3 10" xfId="103" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Header2 3 10 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Header2 3 11" xfId="105" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Header2 3 11 2" xfId="106" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Header2 3 12" xfId="107" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Header2 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Header2 3 2 2" xfId="109" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Header2 3 2 2 2" xfId="110" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Header2 3 2 3" xfId="111" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Header2 3 2 3 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Header2 3 2 4" xfId="113" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Header2 3 2 4 2" xfId="114" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Header2 3 2 5" xfId="115" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Header2 3 2 5 2" xfId="116" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Header2 3 2 6" xfId="117" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Header2 3 2 6 2" xfId="118" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Header2 3 2 7" xfId="119" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Header2 3 3" xfId="120" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Header2 3 3 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Header2 3 3 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Header2 3 3 3" xfId="123" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Header2 3 3 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Header2 3 3 4" xfId="125" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Header2 3 3 4 2" xfId="126" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Header2 3 3 5" xfId="127" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Header2 3 3 5 2" xfId="128" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Header2 3 3 6" xfId="129" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Header2 3 3 6 2" xfId="130" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Header2 3 3 7" xfId="131" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Header2 3 4" xfId="132" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Header2 3 4 2" xfId="133" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Header2 3 4 2 2" xfId="134" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Header2 3 4 3" xfId="135" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Header2 3 4 3 2" xfId="136" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Header2 3 4 4" xfId="137" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Header2 3 4 4 2" xfId="138" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Header2 3 4 5" xfId="139" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Header2 3 4 5 2" xfId="140" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Header2 3 4 6" xfId="141" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Header2 3 4 6 2" xfId="142" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Header2 3 4 7" xfId="143" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Header2 3 5" xfId="144" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Header2 3 5 2" xfId="145" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Header2 3 5 2 2" xfId="146" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Header2 3 5 3" xfId="147" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Header2 3 5 3 2" xfId="148" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Header2 3 5 4" xfId="149" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Header2 3 5 4 2" xfId="150" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Header2 3 5 5" xfId="151" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Header2 3 5 5 2" xfId="152" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Header2 3 5 6" xfId="153" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Header2 3 5 6 2" xfId="154" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Header2 3 5 7" xfId="155" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Header2 3 6" xfId="156" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Header2 3 6 2" xfId="157" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Header2 3 6 2 2" xfId="158" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Header2 3 6 3" xfId="159" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Header2 3 6 3 2" xfId="160" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Header2 3 6 4" xfId="161" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Header2 3 6 4 2" xfId="162" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Header2 3 6 5" xfId="163" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Header2 3 6 5 2" xfId="164" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Header2 3 6 6" xfId="165" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Header2 3 6 6 2" xfId="166" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Header2 3 6 7" xfId="167" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Header2 3 7" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Header2 3 7 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Header2 3 8" xfId="170" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Header2 3 8 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Header2 3 9" xfId="172" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Header2 3 9 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Normal_#18-Internet" xfId="174" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="アクセント 1 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="アクセント 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="アクセント 3 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="アクセント 4 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="アクセント 5 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="アクセント 6 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="タイトル 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="チェック セル 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="どちらでもない 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="パーセント 2" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8"/>
-    <cellStyle name="メモ 2" xfId="185"/>
-    <cellStyle name="メモ 2 2" xfId="186"/>
-    <cellStyle name="メモ 2 2 2" xfId="187"/>
-    <cellStyle name="メモ 2 2 2 2" xfId="188"/>
-    <cellStyle name="メモ 2 2 2 2 2" xfId="189"/>
-    <cellStyle name="メモ 2 2 2 3" xfId="190"/>
-    <cellStyle name="メモ 2 2 2 3 2" xfId="191"/>
-    <cellStyle name="メモ 2 2 2 4" xfId="192"/>
-    <cellStyle name="メモ 2 2 2 4 2" xfId="193"/>
-    <cellStyle name="メモ 2 2 2 5" xfId="194"/>
-    <cellStyle name="メモ 2 2 2 5 2" xfId="195"/>
-    <cellStyle name="メモ 2 2 2 6" xfId="196"/>
-    <cellStyle name="メモ 2 2 2 6 2" xfId="197"/>
-    <cellStyle name="メモ 2 2 2 7" xfId="198"/>
-    <cellStyle name="メモ 2 2 3" xfId="199"/>
-    <cellStyle name="メモ 2 2 3 2" xfId="200"/>
-    <cellStyle name="メモ 2 2 3 2 2" xfId="201"/>
-    <cellStyle name="メモ 2 2 3 3" xfId="202"/>
-    <cellStyle name="メモ 2 2 3 3 2" xfId="203"/>
-    <cellStyle name="メモ 2 2 3 4" xfId="204"/>
-    <cellStyle name="メモ 2 2 3 4 2" xfId="205"/>
-    <cellStyle name="メモ 2 2 3 5" xfId="206"/>
-    <cellStyle name="メモ 2 2 3 5 2" xfId="207"/>
-    <cellStyle name="メモ 2 2 3 6" xfId="208"/>
-    <cellStyle name="メモ 2 2 3 6 2" xfId="209"/>
-    <cellStyle name="メモ 2 2 3 7" xfId="210"/>
-    <cellStyle name="メモ 2 2 4" xfId="211"/>
-    <cellStyle name="メモ 2 2 4 2" xfId="212"/>
-    <cellStyle name="メモ 2 2 4 2 2" xfId="213"/>
-    <cellStyle name="メモ 2 2 4 3" xfId="214"/>
-    <cellStyle name="メモ 2 2 4 3 2" xfId="215"/>
-    <cellStyle name="メモ 2 2 4 4" xfId="216"/>
-    <cellStyle name="メモ 2 2 4 4 2" xfId="217"/>
-    <cellStyle name="メモ 2 2 4 5" xfId="218"/>
-    <cellStyle name="メモ 2 2 4 5 2" xfId="219"/>
-    <cellStyle name="メモ 2 2 4 6" xfId="220"/>
-    <cellStyle name="メモ 2 2 4 6 2" xfId="221"/>
-    <cellStyle name="メモ 2 2 4 7" xfId="222"/>
-    <cellStyle name="メモ 2 2 5" xfId="223"/>
-    <cellStyle name="メモ 2 2 5 2" xfId="224"/>
-    <cellStyle name="メモ 2 2 5 2 2" xfId="225"/>
-    <cellStyle name="メモ 2 2 5 3" xfId="226"/>
-    <cellStyle name="メモ 2 2 5 3 2" xfId="227"/>
-    <cellStyle name="メモ 2 2 5 4" xfId="228"/>
-    <cellStyle name="メモ 2 2 5 4 2" xfId="229"/>
-    <cellStyle name="メモ 2 2 5 5" xfId="230"/>
-    <cellStyle name="メモ 2 2 5 5 2" xfId="231"/>
-    <cellStyle name="メモ 2 2 5 6" xfId="232"/>
-    <cellStyle name="メモ 2 2 5 6 2" xfId="233"/>
-    <cellStyle name="メモ 2 2 5 7" xfId="234"/>
-    <cellStyle name="メモ 2 2 6" xfId="235"/>
-    <cellStyle name="メモ 2 2 6 2" xfId="236"/>
-    <cellStyle name="メモ 2 2 6 2 2" xfId="237"/>
-    <cellStyle name="メモ 2 2 6 3" xfId="238"/>
-    <cellStyle name="メモ 2 2 6 3 2" xfId="239"/>
-    <cellStyle name="メモ 2 2 6 4" xfId="240"/>
-    <cellStyle name="メモ 2 2 6 4 2" xfId="241"/>
-    <cellStyle name="メモ 2 2 6 5" xfId="242"/>
-    <cellStyle name="メモ 2 2 6 5 2" xfId="243"/>
-    <cellStyle name="メモ 2 2 6 6" xfId="244"/>
-    <cellStyle name="メモ 2 2 7" xfId="245"/>
-    <cellStyle name="メモ 2 2 7 2" xfId="246"/>
-    <cellStyle name="メモ 2 2 8" xfId="247"/>
-    <cellStyle name="メモ 2 3" xfId="248"/>
-    <cellStyle name="リンク セル 2" xfId="249"/>
-    <cellStyle name="悪い 2" xfId="250"/>
-    <cellStyle name="計算 2" xfId="251"/>
-    <cellStyle name="計算 2 2" xfId="252"/>
-    <cellStyle name="計算 2 2 2" xfId="253"/>
-    <cellStyle name="計算 2 2 2 2" xfId="254"/>
-    <cellStyle name="計算 2 2 2 2 2" xfId="255"/>
-    <cellStyle name="計算 2 2 2 3" xfId="256"/>
-    <cellStyle name="計算 2 2 2 3 2" xfId="257"/>
-    <cellStyle name="計算 2 2 2 4" xfId="258"/>
-    <cellStyle name="計算 2 2 2 4 2" xfId="259"/>
-    <cellStyle name="計算 2 2 2 5" xfId="260"/>
-    <cellStyle name="計算 2 2 2 5 2" xfId="261"/>
-    <cellStyle name="計算 2 2 2 6" xfId="262"/>
-    <cellStyle name="計算 2 2 2 6 2" xfId="263"/>
-    <cellStyle name="計算 2 2 2 7" xfId="264"/>
-    <cellStyle name="計算 2 2 3" xfId="265"/>
-    <cellStyle name="計算 2 2 3 2" xfId="266"/>
-    <cellStyle name="計算 2 2 3 2 2" xfId="267"/>
-    <cellStyle name="計算 2 2 3 3" xfId="268"/>
-    <cellStyle name="計算 2 2 3 3 2" xfId="269"/>
-    <cellStyle name="計算 2 2 3 4" xfId="270"/>
-    <cellStyle name="計算 2 2 3 4 2" xfId="271"/>
-    <cellStyle name="計算 2 2 3 5" xfId="272"/>
-    <cellStyle name="計算 2 2 3 5 2" xfId="273"/>
-    <cellStyle name="計算 2 2 3 6" xfId="274"/>
-    <cellStyle name="計算 2 2 3 6 2" xfId="275"/>
-    <cellStyle name="計算 2 2 3 7" xfId="276"/>
-    <cellStyle name="計算 2 2 4" xfId="277"/>
-    <cellStyle name="計算 2 2 4 2" xfId="278"/>
-    <cellStyle name="計算 2 2 4 2 2" xfId="279"/>
-    <cellStyle name="計算 2 2 4 3" xfId="280"/>
-    <cellStyle name="計算 2 2 4 3 2" xfId="281"/>
-    <cellStyle name="計算 2 2 4 4" xfId="282"/>
-    <cellStyle name="計算 2 2 4 4 2" xfId="283"/>
-    <cellStyle name="計算 2 2 4 5" xfId="284"/>
-    <cellStyle name="計算 2 2 4 5 2" xfId="285"/>
-    <cellStyle name="計算 2 2 4 6" xfId="286"/>
-    <cellStyle name="計算 2 2 4 6 2" xfId="287"/>
-    <cellStyle name="計算 2 2 4 7" xfId="288"/>
-    <cellStyle name="計算 2 2 5" xfId="289"/>
-    <cellStyle name="計算 2 2 5 2" xfId="290"/>
-    <cellStyle name="計算 2 2 5 2 2" xfId="291"/>
-    <cellStyle name="計算 2 2 5 3" xfId="292"/>
-    <cellStyle name="計算 2 2 5 3 2" xfId="293"/>
-    <cellStyle name="計算 2 2 5 4" xfId="294"/>
-    <cellStyle name="計算 2 2 5 4 2" xfId="295"/>
-    <cellStyle name="計算 2 2 5 5" xfId="296"/>
-    <cellStyle name="計算 2 2 5 5 2" xfId="297"/>
-    <cellStyle name="計算 2 2 5 6" xfId="298"/>
-    <cellStyle name="計算 2 2 5 6 2" xfId="299"/>
-    <cellStyle name="計算 2 2 5 7" xfId="300"/>
-    <cellStyle name="計算 2 2 6" xfId="301"/>
-    <cellStyle name="計算 2 2 6 2" xfId="302"/>
-    <cellStyle name="計算 2 2 6 2 2" xfId="303"/>
-    <cellStyle name="計算 2 2 6 3" xfId="304"/>
-    <cellStyle name="計算 2 2 6 3 2" xfId="305"/>
-    <cellStyle name="計算 2 2 6 4" xfId="306"/>
-    <cellStyle name="計算 2 2 6 4 2" xfId="307"/>
-    <cellStyle name="計算 2 2 6 5" xfId="308"/>
-    <cellStyle name="計算 2 2 6 5 2" xfId="309"/>
-    <cellStyle name="計算 2 2 6 6" xfId="310"/>
-    <cellStyle name="計算 2 2 7" xfId="311"/>
-    <cellStyle name="計算 2 2 7 2" xfId="312"/>
-    <cellStyle name="計算 2 2 8" xfId="313"/>
-    <cellStyle name="計算 2 3" xfId="314"/>
-    <cellStyle name="警告文 2" xfId="315"/>
-    <cellStyle name="見出し 1 2" xfId="316"/>
-    <cellStyle name="見出し 2 2" xfId="317"/>
-    <cellStyle name="見出し 3 2" xfId="318"/>
-    <cellStyle name="見出し 4 2" xfId="319"/>
-    <cellStyle name="集計 2" xfId="320"/>
-    <cellStyle name="集計 2 2" xfId="321"/>
-    <cellStyle name="集計 2 2 2" xfId="322"/>
-    <cellStyle name="集計 2 2 2 2" xfId="323"/>
-    <cellStyle name="集計 2 2 2 2 2" xfId="324"/>
-    <cellStyle name="集計 2 2 2 3" xfId="325"/>
-    <cellStyle name="集計 2 2 2 3 2" xfId="326"/>
-    <cellStyle name="集計 2 2 2 4" xfId="327"/>
-    <cellStyle name="集計 2 2 2 4 2" xfId="328"/>
-    <cellStyle name="集計 2 2 2 5" xfId="329"/>
-    <cellStyle name="集計 2 2 2 5 2" xfId="330"/>
-    <cellStyle name="集計 2 2 2 6" xfId="331"/>
-    <cellStyle name="集計 2 2 2 6 2" xfId="332"/>
-    <cellStyle name="集計 2 2 2 7" xfId="333"/>
-    <cellStyle name="集計 2 2 3" xfId="334"/>
-    <cellStyle name="集計 2 2 3 2" xfId="335"/>
-    <cellStyle name="集計 2 2 3 2 2" xfId="336"/>
-    <cellStyle name="集計 2 2 3 3" xfId="337"/>
-    <cellStyle name="集計 2 2 3 3 2" xfId="338"/>
-    <cellStyle name="集計 2 2 3 4" xfId="339"/>
-    <cellStyle name="集計 2 2 3 4 2" xfId="340"/>
-    <cellStyle name="集計 2 2 3 5" xfId="341"/>
-    <cellStyle name="集計 2 2 3 5 2" xfId="342"/>
-    <cellStyle name="集計 2 2 3 6" xfId="343"/>
-    <cellStyle name="集計 2 2 3 6 2" xfId="344"/>
-    <cellStyle name="集計 2 2 3 7" xfId="345"/>
-    <cellStyle name="集計 2 2 4" xfId="346"/>
-    <cellStyle name="集計 2 2 4 2" xfId="347"/>
-    <cellStyle name="集計 2 2 4 2 2" xfId="348"/>
-    <cellStyle name="集計 2 2 4 3" xfId="349"/>
-    <cellStyle name="集計 2 2 4 3 2" xfId="350"/>
-    <cellStyle name="集計 2 2 4 4" xfId="351"/>
-    <cellStyle name="集計 2 2 4 4 2" xfId="352"/>
-    <cellStyle name="集計 2 2 4 5" xfId="353"/>
-    <cellStyle name="集計 2 2 4 5 2" xfId="354"/>
-    <cellStyle name="集計 2 2 4 6" xfId="355"/>
-    <cellStyle name="集計 2 2 4 6 2" xfId="356"/>
-    <cellStyle name="集計 2 2 4 7" xfId="357"/>
-    <cellStyle name="集計 2 2 5" xfId="358"/>
-    <cellStyle name="集計 2 2 5 2" xfId="359"/>
-    <cellStyle name="集計 2 2 5 2 2" xfId="360"/>
-    <cellStyle name="集計 2 2 5 3" xfId="361"/>
-    <cellStyle name="集計 2 2 5 3 2" xfId="362"/>
-    <cellStyle name="集計 2 2 5 4" xfId="363"/>
-    <cellStyle name="集計 2 2 5 4 2" xfId="364"/>
-    <cellStyle name="集計 2 2 5 5" xfId="365"/>
-    <cellStyle name="集計 2 2 5 5 2" xfId="366"/>
-    <cellStyle name="集計 2 2 5 6" xfId="367"/>
-    <cellStyle name="集計 2 2 6" xfId="368"/>
-    <cellStyle name="集計 2 2 6 2" xfId="369"/>
-    <cellStyle name="集計 2 2 6 2 2" xfId="370"/>
-    <cellStyle name="集計 2 2 6 3" xfId="371"/>
-    <cellStyle name="集計 2 2 6 3 2" xfId="372"/>
-    <cellStyle name="集計 2 2 6 4" xfId="373"/>
-    <cellStyle name="集計 2 2 6 4 2" xfId="374"/>
-    <cellStyle name="集計 2 2 6 5" xfId="375"/>
-    <cellStyle name="集計 2 2 6 5 2" xfId="376"/>
-    <cellStyle name="集計 2 2 6 6" xfId="377"/>
-    <cellStyle name="集計 2 2 6 6 2" xfId="378"/>
-    <cellStyle name="集計 2 2 6 7" xfId="379"/>
-    <cellStyle name="集計 2 2 7" xfId="380"/>
-    <cellStyle name="集計 2 2 7 2" xfId="381"/>
-    <cellStyle name="集計 2 2 8" xfId="382"/>
-    <cellStyle name="集計 2 3" xfId="383"/>
-    <cellStyle name="出力 2" xfId="384"/>
-    <cellStyle name="出力 2 2" xfId="385"/>
-    <cellStyle name="出力 2 2 2" xfId="386"/>
-    <cellStyle name="出力 2 2 2 2" xfId="387"/>
-    <cellStyle name="出力 2 2 2 2 2" xfId="388"/>
-    <cellStyle name="出力 2 2 2 3" xfId="389"/>
-    <cellStyle name="出力 2 2 2 3 2" xfId="390"/>
-    <cellStyle name="出力 2 2 2 4" xfId="391"/>
-    <cellStyle name="出力 2 2 2 4 2" xfId="392"/>
-    <cellStyle name="出力 2 2 2 5" xfId="393"/>
-    <cellStyle name="出力 2 2 2 5 2" xfId="394"/>
-    <cellStyle name="出力 2 2 2 6" xfId="395"/>
-    <cellStyle name="出力 2 2 2 6 2" xfId="396"/>
-    <cellStyle name="出力 2 2 2 7" xfId="397"/>
-    <cellStyle name="出力 2 2 3" xfId="398"/>
-    <cellStyle name="出力 2 2 3 2" xfId="399"/>
-    <cellStyle name="出力 2 2 3 2 2" xfId="400"/>
-    <cellStyle name="出力 2 2 3 3" xfId="401"/>
-    <cellStyle name="出力 2 2 3 3 2" xfId="402"/>
-    <cellStyle name="出力 2 2 3 4" xfId="403"/>
-    <cellStyle name="出力 2 2 3 4 2" xfId="404"/>
-    <cellStyle name="出力 2 2 3 5" xfId="405"/>
-    <cellStyle name="出力 2 2 3 5 2" xfId="406"/>
-    <cellStyle name="出力 2 2 3 6" xfId="407"/>
-    <cellStyle name="出力 2 2 3 6 2" xfId="408"/>
-    <cellStyle name="出力 2 2 3 7" xfId="409"/>
-    <cellStyle name="出力 2 2 4" xfId="410"/>
-    <cellStyle name="出力 2 2 4 2" xfId="411"/>
-    <cellStyle name="出力 2 2 4 2 2" xfId="412"/>
-    <cellStyle name="出力 2 2 4 3" xfId="413"/>
-    <cellStyle name="出力 2 2 4 3 2" xfId="414"/>
-    <cellStyle name="出力 2 2 4 4" xfId="415"/>
-    <cellStyle name="出力 2 2 4 4 2" xfId="416"/>
-    <cellStyle name="出力 2 2 4 5" xfId="417"/>
-    <cellStyle name="出力 2 2 4 5 2" xfId="418"/>
-    <cellStyle name="出力 2 2 4 6" xfId="419"/>
-    <cellStyle name="出力 2 2 4 6 2" xfId="420"/>
-    <cellStyle name="出力 2 2 4 7" xfId="421"/>
-    <cellStyle name="出力 2 2 5" xfId="422"/>
-    <cellStyle name="出力 2 2 5 2" xfId="423"/>
-    <cellStyle name="出力 2 2 5 2 2" xfId="424"/>
-    <cellStyle name="出力 2 2 5 3" xfId="425"/>
-    <cellStyle name="出力 2 2 5 3 2" xfId="426"/>
-    <cellStyle name="出力 2 2 5 4" xfId="427"/>
-    <cellStyle name="出力 2 2 5 4 2" xfId="428"/>
-    <cellStyle name="出力 2 2 5 5" xfId="429"/>
-    <cellStyle name="出力 2 2 5 5 2" xfId="430"/>
-    <cellStyle name="出力 2 2 5 6" xfId="431"/>
-    <cellStyle name="出力 2 2 6" xfId="432"/>
-    <cellStyle name="出力 2 2 6 2" xfId="433"/>
-    <cellStyle name="出力 2 2 6 2 2" xfId="434"/>
-    <cellStyle name="出力 2 2 6 3" xfId="435"/>
-    <cellStyle name="出力 2 2 6 3 2" xfId="436"/>
-    <cellStyle name="出力 2 2 6 4" xfId="437"/>
-    <cellStyle name="出力 2 2 6 4 2" xfId="438"/>
-    <cellStyle name="出力 2 2 6 5" xfId="439"/>
-    <cellStyle name="出力 2 2 6 5 2" xfId="440"/>
-    <cellStyle name="出力 2 2 6 6" xfId="441"/>
-    <cellStyle name="出力 2 2 6 6 2" xfId="442"/>
-    <cellStyle name="出力 2 2 6 7" xfId="443"/>
-    <cellStyle name="出力 2 2 7" xfId="444"/>
-    <cellStyle name="出力 2 2 7 2" xfId="445"/>
-    <cellStyle name="出力 2 2 8" xfId="446"/>
-    <cellStyle name="出力 2 3" xfId="447"/>
-    <cellStyle name="説明文 2" xfId="448"/>
-    <cellStyle name="入力 2" xfId="449"/>
-    <cellStyle name="入力 2 2" xfId="450"/>
-    <cellStyle name="入力 2 2 2" xfId="451"/>
-    <cellStyle name="入力 2 2 2 2" xfId="452"/>
-    <cellStyle name="入力 2 2 2 2 2" xfId="453"/>
-    <cellStyle name="入力 2 2 2 3" xfId="454"/>
-    <cellStyle name="入力 2 2 2 3 2" xfId="455"/>
-    <cellStyle name="入力 2 2 2 4" xfId="456"/>
-    <cellStyle name="入力 2 2 2 4 2" xfId="457"/>
-    <cellStyle name="入力 2 2 2 5" xfId="458"/>
-    <cellStyle name="入力 2 2 2 5 2" xfId="459"/>
-    <cellStyle name="入力 2 2 2 6" xfId="460"/>
-    <cellStyle name="入力 2 2 2 6 2" xfId="461"/>
-    <cellStyle name="入力 2 2 2 7" xfId="462"/>
-    <cellStyle name="入力 2 2 3" xfId="463"/>
-    <cellStyle name="入力 2 2 3 2" xfId="464"/>
-    <cellStyle name="入力 2 2 3 2 2" xfId="465"/>
-    <cellStyle name="入力 2 2 3 3" xfId="466"/>
-    <cellStyle name="入力 2 2 3 3 2" xfId="467"/>
-    <cellStyle name="入力 2 2 3 4" xfId="468"/>
-    <cellStyle name="入力 2 2 3 4 2" xfId="469"/>
-    <cellStyle name="入力 2 2 3 5" xfId="470"/>
-    <cellStyle name="入力 2 2 3 5 2" xfId="471"/>
-    <cellStyle name="入力 2 2 3 6" xfId="472"/>
-    <cellStyle name="入力 2 2 3 6 2" xfId="473"/>
-    <cellStyle name="入力 2 2 3 7" xfId="474"/>
-    <cellStyle name="入力 2 2 4" xfId="475"/>
-    <cellStyle name="入力 2 2 4 2" xfId="476"/>
-    <cellStyle name="入力 2 2 4 2 2" xfId="477"/>
-    <cellStyle name="入力 2 2 4 3" xfId="478"/>
-    <cellStyle name="入力 2 2 4 3 2" xfId="479"/>
-    <cellStyle name="入力 2 2 4 4" xfId="480"/>
-    <cellStyle name="入力 2 2 4 4 2" xfId="481"/>
-    <cellStyle name="入力 2 2 4 5" xfId="482"/>
-    <cellStyle name="入力 2 2 4 5 2" xfId="483"/>
-    <cellStyle name="入力 2 2 4 6" xfId="484"/>
-    <cellStyle name="入力 2 2 4 6 2" xfId="485"/>
-    <cellStyle name="入力 2 2 4 7" xfId="486"/>
-    <cellStyle name="入力 2 2 5" xfId="487"/>
-    <cellStyle name="入力 2 2 5 2" xfId="488"/>
-    <cellStyle name="入力 2 2 5 2 2" xfId="489"/>
-    <cellStyle name="入力 2 2 5 3" xfId="490"/>
-    <cellStyle name="入力 2 2 5 3 2" xfId="491"/>
-    <cellStyle name="入力 2 2 5 4" xfId="492"/>
-    <cellStyle name="入力 2 2 5 4 2" xfId="493"/>
-    <cellStyle name="入力 2 2 5 5" xfId="494"/>
-    <cellStyle name="入力 2 2 5 5 2" xfId="495"/>
-    <cellStyle name="入力 2 2 5 6" xfId="496"/>
-    <cellStyle name="入力 2 2 5 6 2" xfId="497"/>
-    <cellStyle name="入力 2 2 5 7" xfId="498"/>
-    <cellStyle name="入力 2 2 6" xfId="499"/>
-    <cellStyle name="入力 2 2 6 2" xfId="500"/>
-    <cellStyle name="入力 2 2 6 2 2" xfId="501"/>
-    <cellStyle name="入力 2 2 6 3" xfId="502"/>
-    <cellStyle name="入力 2 2 6 3 2" xfId="503"/>
-    <cellStyle name="入力 2 2 6 4" xfId="504"/>
-    <cellStyle name="入力 2 2 6 4 2" xfId="505"/>
-    <cellStyle name="入力 2 2 6 5" xfId="506"/>
-    <cellStyle name="入力 2 2 6 5 2" xfId="507"/>
-    <cellStyle name="入力 2 2 6 6" xfId="508"/>
-    <cellStyle name="入力 2 2 7" xfId="509"/>
-    <cellStyle name="入力 2 2 7 2" xfId="510"/>
-    <cellStyle name="入力 2 2 8" xfId="511"/>
-    <cellStyle name="入力 2 3" xfId="512"/>
+    <cellStyle name="メモ 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="メモ 2 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="メモ 2 2 2" xfId="187" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="メモ 2 2 2 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="メモ 2 2 2 2 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="メモ 2 2 2 3" xfId="190" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="メモ 2 2 2 3 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="メモ 2 2 2 4" xfId="192" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="メモ 2 2 2 4 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="メモ 2 2 2 5" xfId="194" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="メモ 2 2 2 5 2" xfId="195" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="メモ 2 2 2 6" xfId="196" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="メモ 2 2 2 6 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="メモ 2 2 2 7" xfId="198" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="メモ 2 2 3" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="メモ 2 2 3 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="メモ 2 2 3 2 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="メモ 2 2 3 3" xfId="202" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="メモ 2 2 3 3 2" xfId="203" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="メモ 2 2 3 4" xfId="204" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="メモ 2 2 3 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="メモ 2 2 3 5" xfId="206" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="メモ 2 2 3 5 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="メモ 2 2 3 6" xfId="208" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="メモ 2 2 3 6 2" xfId="209" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="メモ 2 2 3 7" xfId="210" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="メモ 2 2 4" xfId="211" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="メモ 2 2 4 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="メモ 2 2 4 2 2" xfId="213" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="メモ 2 2 4 3" xfId="214" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="メモ 2 2 4 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="メモ 2 2 4 4" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="メモ 2 2 4 4 2" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="メモ 2 2 4 5" xfId="218" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="メモ 2 2 4 5 2" xfId="219" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="メモ 2 2 4 6" xfId="220" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="メモ 2 2 4 6 2" xfId="221" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="メモ 2 2 4 7" xfId="222" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="メモ 2 2 5" xfId="223" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="メモ 2 2 5 2" xfId="224" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="メモ 2 2 5 2 2" xfId="225" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="メモ 2 2 5 3" xfId="226" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="メモ 2 2 5 3 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="メモ 2 2 5 4" xfId="228" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="メモ 2 2 5 4 2" xfId="229" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="メモ 2 2 5 5" xfId="230" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="メモ 2 2 5 5 2" xfId="231" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="メモ 2 2 5 6" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="メモ 2 2 5 6 2" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="メモ 2 2 5 7" xfId="234" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="メモ 2 2 6" xfId="235" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="メモ 2 2 6 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="メモ 2 2 6 2 2" xfId="237" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="メモ 2 2 6 3" xfId="238" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="メモ 2 2 6 3 2" xfId="239" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="メモ 2 2 6 4" xfId="240" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="メモ 2 2 6 4 2" xfId="241" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="メモ 2 2 6 5" xfId="242" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="メモ 2 2 6 5 2" xfId="243" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="メモ 2 2 6 6" xfId="244" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="メモ 2 2 7" xfId="245" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="メモ 2 2 7 2" xfId="246" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="メモ 2 2 8" xfId="247" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="メモ 2 3" xfId="248" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="リンク セル 2" xfId="249" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="悪い 2" xfId="250" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="計算 2" xfId="251" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="計算 2 2" xfId="252" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="計算 2 2 2" xfId="253" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="計算 2 2 2 2" xfId="254" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="計算 2 2 2 2 2" xfId="255" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="計算 2 2 2 3" xfId="256" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="計算 2 2 2 3 2" xfId="257" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="計算 2 2 2 4" xfId="258" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="計算 2 2 2 4 2" xfId="259" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="計算 2 2 2 5" xfId="260" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="計算 2 2 2 5 2" xfId="261" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="計算 2 2 2 6" xfId="262" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="計算 2 2 2 6 2" xfId="263" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="計算 2 2 2 7" xfId="264" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="計算 2 2 3" xfId="265" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="計算 2 2 3 2" xfId="266" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="計算 2 2 3 2 2" xfId="267" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="計算 2 2 3 3" xfId="268" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="計算 2 2 3 3 2" xfId="269" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="計算 2 2 3 4" xfId="270" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="計算 2 2 3 4 2" xfId="271" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="計算 2 2 3 5" xfId="272" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="計算 2 2 3 5 2" xfId="273" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="計算 2 2 3 6" xfId="274" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="計算 2 2 3 6 2" xfId="275" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="計算 2 2 3 7" xfId="276" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="計算 2 2 4" xfId="277" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="計算 2 2 4 2" xfId="278" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="計算 2 2 4 2 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="計算 2 2 4 3" xfId="280" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="計算 2 2 4 3 2" xfId="281" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="計算 2 2 4 4" xfId="282" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="計算 2 2 4 4 2" xfId="283" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="計算 2 2 4 5" xfId="284" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="計算 2 2 4 5 2" xfId="285" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="計算 2 2 4 6" xfId="286" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="計算 2 2 4 6 2" xfId="287" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="計算 2 2 4 7" xfId="288" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="計算 2 2 5" xfId="289" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="計算 2 2 5 2" xfId="290" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="計算 2 2 5 2 2" xfId="291" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="計算 2 2 5 3" xfId="292" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="計算 2 2 5 3 2" xfId="293" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="計算 2 2 5 4" xfId="294" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="計算 2 2 5 4 2" xfId="295" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="計算 2 2 5 5" xfId="296" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="計算 2 2 5 5 2" xfId="297" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="計算 2 2 5 6" xfId="298" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="計算 2 2 5 6 2" xfId="299" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="計算 2 2 5 7" xfId="300" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="計算 2 2 6" xfId="301" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="計算 2 2 6 2" xfId="302" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="計算 2 2 6 2 2" xfId="303" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="計算 2 2 6 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="計算 2 2 6 3 2" xfId="305" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="計算 2 2 6 4" xfId="306" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="計算 2 2 6 4 2" xfId="307" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="計算 2 2 6 5" xfId="308" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="計算 2 2 6 5 2" xfId="309" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="計算 2 2 6 6" xfId="310" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="計算 2 2 7" xfId="311" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="計算 2 2 7 2" xfId="312" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="計算 2 2 8" xfId="313" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="計算 2 3" xfId="314" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="警告文 2" xfId="315" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="見出し 1 2" xfId="316" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="見出し 2 2" xfId="317" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="見出し 3 2" xfId="318" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="見出し 4 2" xfId="319" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="集計 2" xfId="320" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="集計 2 2" xfId="321" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="集計 2 2 2" xfId="322" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="集計 2 2 2 2" xfId="323" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="集計 2 2 2 2 2" xfId="324" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="集計 2 2 2 3" xfId="325" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="集計 2 2 2 3 2" xfId="326" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="集計 2 2 2 4" xfId="327" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="集計 2 2 2 4 2" xfId="328" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="集計 2 2 2 5" xfId="329" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="集計 2 2 2 5 2" xfId="330" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="集計 2 2 2 6" xfId="331" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="集計 2 2 2 6 2" xfId="332" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="集計 2 2 2 7" xfId="333" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="集計 2 2 3" xfId="334" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="集計 2 2 3 2" xfId="335" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="集計 2 2 3 2 2" xfId="336" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="集計 2 2 3 3" xfId="337" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="集計 2 2 3 3 2" xfId="338" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="集計 2 2 3 4" xfId="339" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="集計 2 2 3 4 2" xfId="340" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="集計 2 2 3 5" xfId="341" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="集計 2 2 3 5 2" xfId="342" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="集計 2 2 3 6" xfId="343" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="集計 2 2 3 6 2" xfId="344" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="集計 2 2 3 7" xfId="345" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="集計 2 2 4" xfId="346" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="集計 2 2 4 2" xfId="347" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="集計 2 2 4 2 2" xfId="348" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="集計 2 2 4 3" xfId="349" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="集計 2 2 4 3 2" xfId="350" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="集計 2 2 4 4" xfId="351" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="集計 2 2 4 4 2" xfId="352" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="集計 2 2 4 5" xfId="353" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="集計 2 2 4 5 2" xfId="354" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="集計 2 2 4 6" xfId="355" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="集計 2 2 4 6 2" xfId="356" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="集計 2 2 4 7" xfId="357" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="集計 2 2 5" xfId="358" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="集計 2 2 5 2" xfId="359" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="集計 2 2 5 2 2" xfId="360" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="集計 2 2 5 3" xfId="361" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="集計 2 2 5 3 2" xfId="362" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="集計 2 2 5 4" xfId="363" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="集計 2 2 5 4 2" xfId="364" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="集計 2 2 5 5" xfId="365" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="集計 2 2 5 5 2" xfId="366" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="集計 2 2 5 6" xfId="367" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="集計 2 2 6" xfId="368" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="集計 2 2 6 2" xfId="369" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="集計 2 2 6 2 2" xfId="370" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="集計 2 2 6 3" xfId="371" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="集計 2 2 6 3 2" xfId="372" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="集計 2 2 6 4" xfId="373" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="集計 2 2 6 4 2" xfId="374" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="集計 2 2 6 5" xfId="375" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="集計 2 2 6 5 2" xfId="376" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="集計 2 2 6 6" xfId="377" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="集計 2 2 6 6 2" xfId="378" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="集計 2 2 6 7" xfId="379" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="集計 2 2 7" xfId="380" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="集計 2 2 7 2" xfId="381" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="集計 2 2 8" xfId="382" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="集計 2 3" xfId="383" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="出力 2" xfId="384" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="出力 2 2" xfId="385" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="出力 2 2 2" xfId="386" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="出力 2 2 2 2" xfId="387" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="出力 2 2 2 2 2" xfId="388" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="出力 2 2 2 3" xfId="389" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="出力 2 2 2 3 2" xfId="390" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="出力 2 2 2 4" xfId="391" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="出力 2 2 2 4 2" xfId="392" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="出力 2 2 2 5" xfId="393" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="出力 2 2 2 5 2" xfId="394" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="出力 2 2 2 6" xfId="395" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="出力 2 2 2 6 2" xfId="396" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="出力 2 2 2 7" xfId="397" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="出力 2 2 3" xfId="398" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="出力 2 2 3 2" xfId="399" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="出力 2 2 3 2 2" xfId="400" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="出力 2 2 3 3" xfId="401" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="出力 2 2 3 3 2" xfId="402" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="出力 2 2 3 4" xfId="403" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="出力 2 2 3 4 2" xfId="404" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="出力 2 2 3 5" xfId="405" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="出力 2 2 3 5 2" xfId="406" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="出力 2 2 3 6" xfId="407" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="出力 2 2 3 6 2" xfId="408" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="出力 2 2 3 7" xfId="409" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="出力 2 2 4" xfId="410" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="出力 2 2 4 2" xfId="411" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="出力 2 2 4 2 2" xfId="412" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="出力 2 2 4 3" xfId="413" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="出力 2 2 4 3 2" xfId="414" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="出力 2 2 4 4" xfId="415" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="出力 2 2 4 4 2" xfId="416" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="出力 2 2 4 5" xfId="417" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="出力 2 2 4 5 2" xfId="418" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="出力 2 2 4 6" xfId="419" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="出力 2 2 4 6 2" xfId="420" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="出力 2 2 4 7" xfId="421" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="出力 2 2 5" xfId="422" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="出力 2 2 5 2" xfId="423" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="出力 2 2 5 2 2" xfId="424" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="出力 2 2 5 3" xfId="425" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="出力 2 2 5 3 2" xfId="426" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="出力 2 2 5 4" xfId="427" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="出力 2 2 5 4 2" xfId="428" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="出力 2 2 5 5" xfId="429" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="出力 2 2 5 5 2" xfId="430" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="出力 2 2 5 6" xfId="431" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="出力 2 2 6" xfId="432" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="出力 2 2 6 2" xfId="433" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="出力 2 2 6 2 2" xfId="434" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="出力 2 2 6 3" xfId="435" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="出力 2 2 6 3 2" xfId="436" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="出力 2 2 6 4" xfId="437" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="出力 2 2 6 4 2" xfId="438" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="出力 2 2 6 5" xfId="439" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="出力 2 2 6 5 2" xfId="440" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="出力 2 2 6 6" xfId="441" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="出力 2 2 6 6 2" xfId="442" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="出力 2 2 6 7" xfId="443" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="出力 2 2 7" xfId="444" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="出力 2 2 7 2" xfId="445" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="出力 2 2 8" xfId="446" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="出力 2 3" xfId="447" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="説明文 2" xfId="448" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="入力 2" xfId="449" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="入力 2 2" xfId="450" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="入力 2 2 2" xfId="451" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="入力 2 2 2 2" xfId="452" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="入力 2 2 2 2 2" xfId="453" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="入力 2 2 2 3" xfId="454" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="入力 2 2 2 3 2" xfId="455" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="入力 2 2 2 4" xfId="456" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="入力 2 2 2 4 2" xfId="457" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="入力 2 2 2 5" xfId="458" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="入力 2 2 2 5 2" xfId="459" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="入力 2 2 2 6" xfId="460" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="入力 2 2 2 6 2" xfId="461" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="入力 2 2 2 7" xfId="462" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="入力 2 2 3" xfId="463" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="入力 2 2 3 2" xfId="464" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="入力 2 2 3 2 2" xfId="465" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="入力 2 2 3 3" xfId="466" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="入力 2 2 3 3 2" xfId="467" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="入力 2 2 3 4" xfId="468" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="入力 2 2 3 4 2" xfId="469" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="入力 2 2 3 5" xfId="470" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="入力 2 2 3 5 2" xfId="471" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="入力 2 2 3 6" xfId="472" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="入力 2 2 3 6 2" xfId="473" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="入力 2 2 3 7" xfId="474" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="入力 2 2 4" xfId="475" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="入力 2 2 4 2" xfId="476" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="入力 2 2 4 2 2" xfId="477" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="入力 2 2 4 3" xfId="478" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="入力 2 2 4 3 2" xfId="479" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="入力 2 2 4 4" xfId="480" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="入力 2 2 4 4 2" xfId="481" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="入力 2 2 4 5" xfId="482" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="入力 2 2 4 5 2" xfId="483" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="入力 2 2 4 6" xfId="484" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="入力 2 2 4 6 2" xfId="485" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="入力 2 2 4 7" xfId="486" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="入力 2 2 5" xfId="487" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="入力 2 2 5 2" xfId="488" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="入力 2 2 5 2 2" xfId="489" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="入力 2 2 5 3" xfId="490" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="入力 2 2 5 3 2" xfId="491" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="入力 2 2 5 4" xfId="492" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="入力 2 2 5 4 2" xfId="493" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="入力 2 2 5 5" xfId="494" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="入力 2 2 5 5 2" xfId="495" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="入力 2 2 5 6" xfId="496" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="入力 2 2 5 6 2" xfId="497" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="入力 2 2 5 7" xfId="498" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="入力 2 2 6" xfId="499" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="入力 2 2 6 2" xfId="500" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="入力 2 2 6 2 2" xfId="501" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="入力 2 2 6 3" xfId="502" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="入力 2 2 6 3 2" xfId="503" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="入力 2 2 6 4" xfId="504" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="入力 2 2 6 4 2" xfId="505" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="入力 2 2 6 5" xfId="506" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="入力 2 2 6 5 2" xfId="507" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="入力 2 2 6 6" xfId="508" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="入力 2 2 7" xfId="509" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="入力 2 2 7 2" xfId="510" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="入力 2 2 8" xfId="511" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="入力 2 3" xfId="512" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="513"/>
-    <cellStyle name="標準 11" xfId="514"/>
-    <cellStyle name="標準 11 2" xfId="515"/>
-    <cellStyle name="標準 11 2 2" xfId="516"/>
-    <cellStyle name="標準 11 2 2 2" xfId="517"/>
-    <cellStyle name="標準 11 2 3" xfId="518"/>
-    <cellStyle name="標準 11 2 3 2" xfId="519"/>
-    <cellStyle name="標準 11 2 4" xfId="520"/>
-    <cellStyle name="標準 11 2 4 2" xfId="521"/>
-    <cellStyle name="標準 11 2 5" xfId="522"/>
-    <cellStyle name="標準 11 3" xfId="523"/>
-    <cellStyle name="標準 11 3 2" xfId="524"/>
-    <cellStyle name="標準 11 3 2 2" xfId="525"/>
-    <cellStyle name="標準 11 3 3" xfId="526"/>
-    <cellStyle name="標準 11 3 3 2" xfId="527"/>
-    <cellStyle name="標準 11 3 4" xfId="528"/>
-    <cellStyle name="標準 11 4" xfId="529"/>
-    <cellStyle name="標準 11 4 2" xfId="530"/>
-    <cellStyle name="標準 11 5" xfId="531"/>
-    <cellStyle name="標準 11 5 2" xfId="532"/>
-    <cellStyle name="標準 11 6" xfId="533"/>
-    <cellStyle name="標準 11 6 2" xfId="534"/>
-    <cellStyle name="標準 11 7" xfId="535"/>
-    <cellStyle name="標準 2" xfId="3"/>
-    <cellStyle name="標準 2 2" xfId="536"/>
-    <cellStyle name="標準 2 2 2" xfId="537"/>
-    <cellStyle name="標準 2 3" xfId="538"/>
-    <cellStyle name="標準 2 4" xfId="539"/>
-    <cellStyle name="標準 2 4 2" xfId="540"/>
-    <cellStyle name="標準 2 4 2 2" xfId="541"/>
-    <cellStyle name="標準 2 4 3" xfId="542"/>
-    <cellStyle name="標準 2 4 4" xfId="543"/>
-    <cellStyle name="標準 2_フォーマット" xfId="544"/>
-    <cellStyle name="標準 3" xfId="4"/>
-    <cellStyle name="標準 3 2" xfId="545"/>
-    <cellStyle name="標準 3 2 2" xfId="546"/>
-    <cellStyle name="標準 4" xfId="1"/>
-    <cellStyle name="標準 5" xfId="547"/>
-    <cellStyle name="標準 5 2" xfId="548"/>
-    <cellStyle name="標準 5 3" xfId="549"/>
-    <cellStyle name="標準 5 4" xfId="550"/>
-    <cellStyle name="標準 6" xfId="551"/>
-    <cellStyle name="標準 6 2" xfId="552"/>
-    <cellStyle name="標準 6 3" xfId="553"/>
-    <cellStyle name="標準 7" xfId="554"/>
-    <cellStyle name="標準 8" xfId="555"/>
-    <cellStyle name="標準 9" xfId="556"/>
-    <cellStyle name="標準_~6362950" xfId="2"/>
-    <cellStyle name="標準_~6362950 2" xfId="5"/>
-    <cellStyle name="標準_画面標準" xfId="6"/>
-    <cellStyle name="未定義" xfId="557"/>
-    <cellStyle name="未定義 2" xfId="558"/>
-    <cellStyle name="良い 2" xfId="559"/>
+    <cellStyle name="標準 10" xfId="513" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="標準 11" xfId="514" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="標準 11 2" xfId="515" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="標準 11 2 2" xfId="516" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="標準 11 2 2 2" xfId="517" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="標準 11 2 3" xfId="518" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="標準 11 2 3 2" xfId="519" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="標準 11 2 4" xfId="520" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="標準 11 2 4 2" xfId="521" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="標準 11 2 5" xfId="522" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="標準 11 3" xfId="523" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="標準 11 3 2" xfId="524" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="標準 11 3 2 2" xfId="525" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="標準 11 3 3" xfId="526" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="標準 11 3 3 2" xfId="527" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="標準 11 3 4" xfId="528" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="標準 11 4" xfId="529" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="標準 11 4 2" xfId="530" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="標準 11 5" xfId="531" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="標準 11 5 2" xfId="532" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="標準 11 6" xfId="533" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="標準 11 6 2" xfId="534" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="標準 11 7" xfId="535" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="標準 2 2" xfId="536" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="標準 2 2 2" xfId="537" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="標準 2 3" xfId="538" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="標準 2 4" xfId="539" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="標準 2 4 2" xfId="540" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="標準 2 4 2 2" xfId="541" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="標準 2 4 3" xfId="542" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="標準 2 4 4" xfId="543" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="標準 2_フォーマット" xfId="544" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="標準 3" xfId="4" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="標準 3 2" xfId="545" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="標準 3 2 2" xfId="546" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="標準 4" xfId="1" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="標準 5" xfId="547" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="標準 5 2" xfId="548" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="標準 5 3" xfId="549" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="標準 5 4" xfId="550" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="標準 6" xfId="551" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="標準 6 2" xfId="552" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="標準 6 3" xfId="553" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="標準 7" xfId="554" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="標準 8" xfId="555" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="標準 9" xfId="556" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="標準_~6362950" xfId="2" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="標準_~6362950 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="標準_画面標準" xfId="6" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="未定義" xfId="557" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="未定義 2" xfId="558" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="良い 2" xfId="559" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -7145,6 +7356,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -7167,7 +7381,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7266,6 +7486,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="図 2">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -7315,7 +7540,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7473,7 +7704,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7663,7 +7900,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7813,7 +8056,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7966,7 +8215,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線コネクタ 7"/>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8014,7 +8269,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8"/>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8062,7 +8323,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線コネクタ 9"/>
+        <xdr:cNvPr id="10" name="直線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8110,7 +8377,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8267,7 +8540,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線コネクタ 11"/>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8315,7 +8594,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8473,7 +8758,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8623,20 +8914,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15" name="グループ化 14"/>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="4747289" y="5202500"/>
-          <a:ext cx="1356492" cy="4568736"/>
+          <a:off x="4693314" y="5031050"/>
+          <a:ext cx="1340617" cy="4416336"/>
           <a:chOff x="1223082" y="3963508"/>
           <a:chExt cx="1425662" cy="2596557"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="左中かっこ 44"/>
+          <xdr:cNvPr id="45" name="左中かっこ 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8771,7 +9074,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+          <xdr:cNvPr id="46" name="正方形/長方形 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8939,20 +9248,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="グループ化 15"/>
+        <xdr:cNvPr id="16" name="グループ化 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1104900" y="1905000"/>
-          <a:ext cx="6245089" cy="657189"/>
+          <a:off x="1092200" y="1841500"/>
+          <a:ext cx="6175239" cy="638139"/>
           <a:chOff x="244031" y="848544"/>
           <a:chExt cx="6245089" cy="657189"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="42" name="角丸四角形 41"/>
+          <xdr:cNvPr id="42" name="角丸四角形 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9144,7 +9465,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="円/楕円 42"/>
+          <xdr:cNvPr id="43" name="円/楕円 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9305,7 +9632,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="円/楕円 43"/>
+          <xdr:cNvPr id="44" name="円/楕円 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9482,20 +9815,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="グループ化 16"/>
+        <xdr:cNvPr id="17" name="グループ化 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1504101" y="5509902"/>
-          <a:ext cx="1619060" cy="720080"/>
+          <a:off x="1488226" y="5332102"/>
+          <a:ext cx="1600010" cy="694680"/>
           <a:chOff x="244031" y="5410937"/>
           <a:chExt cx="1620000" cy="720080"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="角丸四角形吹き出し 38"/>
+          <xdr:cNvPr id="39" name="角丸四角形吹き出し 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9680,7 +10025,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="円/楕円 39"/>
+          <xdr:cNvPr id="40" name="円/楕円 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9841,7 +10192,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="円/楕円 40"/>
+          <xdr:cNvPr id="41" name="円/楕円 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10018,20 +10375,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="グループ化 17"/>
+        <xdr:cNvPr id="18" name="グループ化 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1503169" y="3689163"/>
-          <a:ext cx="1618635" cy="636790"/>
+          <a:off x="1487294" y="3568513"/>
+          <a:ext cx="1599585" cy="617740"/>
           <a:chOff x="3501008" y="2278569"/>
           <a:chExt cx="1620000" cy="636790"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="角丸四角形吹き出し 36"/>
+          <xdr:cNvPr id="37" name="角丸四角形吹き出し 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10190,7 +10559,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="円/楕円 37"/>
+          <xdr:cNvPr id="38" name="円/楕円 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10367,20 +10742,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="グループ化 18"/>
+        <xdr:cNvPr id="19" name="グループ化 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1503161" y="6590022"/>
-          <a:ext cx="1620000" cy="721157"/>
+          <a:off x="1487286" y="6374122"/>
+          <a:ext cx="1600950" cy="695757"/>
           <a:chOff x="244031" y="6851097"/>
           <a:chExt cx="1620000" cy="721157"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="角丸四角形吹き出し 34"/>
+          <xdr:cNvPr id="35" name="角丸四角形吹き出し 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10565,7 +10952,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="円/楕円 35"/>
+          <xdr:cNvPr id="36" name="円/楕円 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10742,7 +11135,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線コネクタ 19"/>
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10790,7 +11189,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線コネクタ 20"/>
+        <xdr:cNvPr id="21" name="直線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10838,20 +11243,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="グループ化 21"/>
+        <xdr:cNvPr id="22" name="グループ化 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5262197" y="4674921"/>
-          <a:ext cx="1980000" cy="881014"/>
+          <a:off x="5201872" y="4522521"/>
+          <a:ext cx="1957775" cy="849264"/>
           <a:chOff x="4288257" y="4576042"/>
           <a:chExt cx="1980000" cy="881014"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="フローチャート : 代替処理 32"/>
+          <xdr:cNvPr id="33" name="フローチャート : 代替処理 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11056,7 +11473,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="円/楕円 33"/>
+          <xdr:cNvPr id="34" name="円/楕円 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11233,20 +11656,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="23" name="グループ化 22"/>
+        <xdr:cNvPr id="23" name="グループ化 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1530576" y="4607789"/>
-          <a:ext cx="1620000" cy="720803"/>
+          <a:off x="1514701" y="4455389"/>
+          <a:ext cx="1600950" cy="701753"/>
           <a:chOff x="244031" y="4020302"/>
           <a:chExt cx="1620000" cy="720803"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="角丸四角形吹き出し 29"/>
+          <xdr:cNvPr id="30" name="角丸四角形吹き出し 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11437,7 +11872,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="円/楕円 30"/>
+          <xdr:cNvPr id="31" name="円/楕円 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11598,7 +12039,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="円/楕円 31"/>
+          <xdr:cNvPr id="32" name="円/楕円 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11775,20 +12222,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="24" name="グループ化 23"/>
+        <xdr:cNvPr id="24" name="グループ化 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5252369" y="3686314"/>
-          <a:ext cx="1980000" cy="770712"/>
+          <a:off x="5192044" y="3565664"/>
+          <a:ext cx="1957775" cy="745312"/>
           <a:chOff x="4260945" y="3645066"/>
           <a:chExt cx="1980000" cy="770712"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="フローチャート : 代替処理 27"/>
+          <xdr:cNvPr id="28" name="フローチャート : 代替処理 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11995,7 +12454,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="円/楕円 28"/>
+          <xdr:cNvPr id="29" name="円/楕円 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12172,20 +12637,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="25" name="グループ化 24"/>
+        <xdr:cNvPr id="25" name="グループ化 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1121517" y="2697088"/>
-          <a:ext cx="6245089" cy="652574"/>
+          <a:off x="1108817" y="2608188"/>
+          <a:ext cx="6175239" cy="633524"/>
           <a:chOff x="260648" y="1640632"/>
           <a:chExt cx="6245089" cy="652574"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="角丸四角形 25"/>
+          <xdr:cNvPr id="26" name="角丸四角形 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12377,7 +12854,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="円/楕円 26"/>
+          <xdr:cNvPr id="27" name="円/楕円 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12554,20 +13037,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1503161" y="8906621"/>
-          <a:ext cx="1618635" cy="704026"/>
+          <a:off x="1487286" y="8614521"/>
+          <a:ext cx="1599585" cy="678626"/>
           <a:chOff x="1596738" y="9029887"/>
           <a:chExt cx="1642168" cy="704026"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="角丸四角形吹き出し 46"/>
+          <xdr:cNvPr id="47" name="角丸四角形吹き出し 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12726,7 +13221,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="円/楕円 47"/>
+          <xdr:cNvPr id="48" name="円/楕円 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12908,7 +13409,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直線矢印コネクタ 1"/>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12955,7 +13462,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2"/>
+        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13022,7 +13535,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13069,7 +13588,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13416,20 +13941,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI512"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="99"/>
+    <col min="1" max="16384" width="4.77734375" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1">
+    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="96"/>
       <c r="B1" s="97"/>
       <c r="C1" s="98"/>
@@ -13466,7 +13993,7 @@
       <c r="AH1" s="96"/>
       <c r="AI1" s="96"/>
     </row>
-    <row r="2" spans="1:35" ht="13.15" customHeight="1">
+    <row r="2" spans="1:35" ht="13.15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="100"/>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
@@ -13503,7 +14030,7 @@
       <c r="AH2" s="96"/>
       <c r="AI2" s="96"/>
     </row>
-    <row r="3" spans="1:35" ht="13.5" customHeight="1">
+    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="96"/>
       <c r="B3" s="96"/>
       <c r="C3" s="96"/>
@@ -13540,7 +14067,7 @@
       <c r="AH3" s="96"/>
       <c r="AI3" s="96"/>
     </row>
-    <row r="4" spans="1:35" ht="13.5" customHeight="1">
+    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="96"/>
       <c r="B4" s="96"/>
       <c r="C4" s="96"/>
@@ -13577,7 +14104,7 @@
       <c r="AH4" s="96"/>
       <c r="AI4" s="96"/>
     </row>
-    <row r="5" spans="1:35" ht="13.5" customHeight="1">
+    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="96"/>
       <c r="B5" s="96"/>
       <c r="C5" s="96"/>
@@ -13614,7 +14141,7 @@
       <c r="AH5" s="96"/>
       <c r="AI5" s="96"/>
     </row>
-    <row r="6" spans="1:35" ht="13.5" customHeight="1">
+    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="96"/>
       <c r="B6" s="96"/>
       <c r="C6" s="96"/>
@@ -13651,7 +14178,7 @@
       <c r="AH6" s="96"/>
       <c r="AI6" s="96"/>
     </row>
-    <row r="7" spans="1:35" ht="13.5" customHeight="1">
+    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="96"/>
       <c r="B7" s="96"/>
       <c r="C7" s="96"/>
@@ -13688,7 +14215,7 @@
       <c r="AH7" s="96"/>
       <c r="AI7" s="96"/>
     </row>
-    <row r="8" spans="1:35" ht="13.5" customHeight="1">
+    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="96"/>
       <c r="B8" s="96"/>
       <c r="C8" s="96"/>
@@ -13725,7 +14252,7 @@
       <c r="AH8" s="96"/>
       <c r="AI8" s="96"/>
     </row>
-    <row r="9" spans="1:35" ht="13.5" customHeight="1">
+    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="96"/>
       <c r="B9" s="96"/>
       <c r="C9" s="96"/>
@@ -13762,7 +14289,7 @@
       <c r="AH9" s="96"/>
       <c r="AI9" s="96"/>
     </row>
-    <row r="10" spans="1:35" ht="13.5" customHeight="1">
+    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="96"/>
       <c r="B10" s="96"/>
       <c r="C10" s="96"/>
@@ -13799,7 +14326,7 @@
       <c r="AH10" s="96"/>
       <c r="AI10" s="96"/>
     </row>
-    <row r="11" spans="1:35" ht="13.5" customHeight="1">
+    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="96"/>
       <c r="B11" s="96"/>
       <c r="C11" s="96"/>
@@ -13836,7 +14363,7 @@
       <c r="AH11" s="96"/>
       <c r="AI11" s="96"/>
     </row>
-    <row r="12" spans="1:35" ht="13.5" customHeight="1">
+    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="96"/>
       <c r="B12" s="96"/>
       <c r="C12" s="96"/>
@@ -13873,7 +14400,7 @@
       <c r="AH12" s="96"/>
       <c r="AI12" s="96"/>
     </row>
-    <row r="13" spans="1:35" ht="13.5" customHeight="1">
+    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="96"/>
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
@@ -13910,7 +14437,7 @@
       <c r="AH13" s="96"/>
       <c r="AI13" s="96"/>
     </row>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1">
+    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="96"/>
       <c r="B14" s="96"/>
       <c r="C14" s="96"/>
@@ -13947,7 +14474,7 @@
       <c r="AH14" s="96"/>
       <c r="AI14" s="96"/>
     </row>
-    <row r="15" spans="1:35" ht="13.5" customHeight="1">
+    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A15" s="96"/>
       <c r="B15" s="96"/>
       <c r="C15" s="96"/>
@@ -13984,7 +14511,7 @@
       <c r="AH15" s="96"/>
       <c r="AI15" s="96"/>
     </row>
-    <row r="16" spans="1:35" ht="13.5" customHeight="1">
+    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A16" s="96"/>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
@@ -14021,7 +14548,7 @@
       <c r="AH16" s="96"/>
       <c r="AI16" s="96"/>
     </row>
-    <row r="17" spans="1:35" ht="13.5" customHeight="1">
+    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A17" s="96"/>
       <c r="B17" s="96"/>
       <c r="C17" s="96"/>
@@ -14058,7 +14585,7 @@
       <c r="AH17" s="96"/>
       <c r="AI17" s="96"/>
     </row>
-    <row r="18" spans="1:35" ht="13.5" customHeight="1">
+    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A18" s="96"/>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
@@ -14095,7 +14622,7 @@
       <c r="AH18" s="96"/>
       <c r="AI18" s="96"/>
     </row>
-    <row r="19" spans="1:35" ht="13.5" customHeight="1">
+    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A19" s="96"/>
       <c r="B19" s="96"/>
       <c r="C19" s="96"/>
@@ -14132,7 +14659,7 @@
       <c r="AH19" s="96"/>
       <c r="AI19" s="96"/>
     </row>
-    <row r="20" spans="1:35" ht="13.5" customHeight="1">
+    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="96"/>
       <c r="B20" s="96"/>
       <c r="C20" s="96"/>
@@ -14169,7 +14696,7 @@
       <c r="AH20" s="96"/>
       <c r="AI20" s="96"/>
     </row>
-    <row r="21" spans="1:35" ht="13.5" customHeight="1">
+    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="96"/>
       <c r="B21" s="96"/>
       <c r="C21" s="96"/>
@@ -14206,7 +14733,7 @@
       <c r="AH21" s="96"/>
       <c r="AI21" s="96"/>
     </row>
-    <row r="22" spans="1:35" ht="13.5" customHeight="1">
+    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="96"/>
       <c r="B22" s="96"/>
       <c r="C22" s="96"/>
@@ -14243,7 +14770,7 @@
       <c r="AH22" s="96"/>
       <c r="AI22" s="96"/>
     </row>
-    <row r="23" spans="1:35" ht="17.25" customHeight="1">
+    <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A23" s="96"/>
       <c r="B23" s="96"/>
       <c r="C23" s="96"/>
@@ -14282,7 +14809,7 @@
       <c r="AH23" s="96"/>
       <c r="AI23" s="96"/>
     </row>
-    <row r="24" spans="1:35" ht="13.5" customHeight="1">
+    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="96"/>
       <c r="B24" s="96"/>
       <c r="C24" s="96"/>
@@ -14319,7 +14846,7 @@
       <c r="AH24" s="96"/>
       <c r="AI24" s="96"/>
     </row>
-    <row r="25" spans="1:35" ht="18" customHeight="1">
+    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="96"/>
       <c r="B25" s="96"/>
       <c r="C25" s="96"/>
@@ -14358,7 +14885,7 @@
       <c r="AH25" s="96"/>
       <c r="AI25" s="96"/>
     </row>
-    <row r="26" spans="1:35" ht="13.5" customHeight="1">
+    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A26" s="96"/>
       <c r="B26" s="96"/>
       <c r="C26" s="96"/>
@@ -14395,7 +14922,7 @@
       <c r="AH26" s="96"/>
       <c r="AI26" s="96"/>
     </row>
-    <row r="27" spans="1:35" ht="13.5" customHeight="1">
+    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A27" s="96"/>
       <c r="B27" s="96"/>
       <c r="C27" s="96"/>
@@ -14432,7 +14959,7 @@
       <c r="AH27" s="96"/>
       <c r="AI27" s="96"/>
     </row>
-    <row r="28" spans="1:35" ht="13.5" customHeight="1">
+    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="96"/>
       <c r="B28" s="96"/>
       <c r="C28" s="96"/>
@@ -14469,7 +14996,7 @@
       <c r="AH28" s="96"/>
       <c r="AI28" s="96"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A29" s="96"/>
       <c r="B29" s="96"/>
       <c r="C29" s="96"/>
@@ -14506,7 +15033,7 @@
       <c r="AH29" s="96"/>
       <c r="AI29" s="96"/>
     </row>
-    <row r="30" spans="1:35" ht="13.5" customHeight="1">
+    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A30" s="96"/>
       <c r="B30" s="96"/>
       <c r="C30" s="96"/>
@@ -14543,7 +15070,7 @@
       <c r="AH30" s="96"/>
       <c r="AI30" s="96"/>
     </row>
-    <row r="31" spans="1:35" ht="18.75" customHeight="1">
+    <row r="31" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A31" s="96"/>
       <c r="B31" s="96"/>
       <c r="C31" s="96"/>
@@ -14580,7 +15107,7 @@
       <c r="AH31" s="96"/>
       <c r="AI31" s="96"/>
     </row>
-    <row r="32" spans="1:35" ht="28.5">
+    <row r="32" spans="1:35" ht="28.5" x14ac:dyDescent="0.6">
       <c r="A32" s="96"/>
       <c r="B32" s="96"/>
       <c r="C32" s="96"/>
@@ -14617,7 +15144,7 @@
       <c r="AH32" s="96"/>
       <c r="AI32" s="96"/>
     </row>
-    <row r="33" spans="1:35" ht="24.75">
+    <row r="33" spans="1:35" ht="25.5" x14ac:dyDescent="0.6">
       <c r="A33" s="96"/>
       <c r="B33" s="96"/>
       <c r="C33" s="96"/>
@@ -14654,7 +15181,7 @@
       <c r="AH33" s="96"/>
       <c r="AI33" s="96"/>
     </row>
-    <row r="34" spans="1:35" ht="13.5" customHeight="1">
+    <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A34" s="96"/>
       <c r="B34" s="96"/>
       <c r="C34" s="96"/>
@@ -14691,7 +15218,7 @@
       <c r="AH34" s="96"/>
       <c r="AI34" s="96"/>
     </row>
-    <row r="35" spans="1:35" ht="13.5" customHeight="1">
+    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A35" s="96"/>
       <c r="B35" s="96"/>
       <c r="C35" s="96"/>
@@ -14728,7 +15255,7 @@
       <c r="AH35" s="96"/>
       <c r="AI35" s="96"/>
     </row>
-    <row r="36" spans="1:35" ht="13.5" customHeight="1">
+    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A36" s="96"/>
       <c r="B36" s="96"/>
       <c r="C36" s="96"/>
@@ -14765,7 +15292,7 @@
       <c r="AH36" s="96"/>
       <c r="AI36" s="96"/>
     </row>
-    <row r="37" spans="1:35" ht="15.75" customHeight="1">
+    <row r="37" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A37" s="96"/>
       <c r="B37" s="96" t="s">
         <v>310</v>
@@ -14807,7 +15334,7 @@
       <c r="AH37" s="96"/>
       <c r="AI37" s="96"/>
     </row>
-    <row r="38" spans="1:35" ht="20.25" customHeight="1">
+    <row r="38" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A38" s="96"/>
       <c r="B38" s="96" t="s">
         <v>320</v>
@@ -14846,484 +15373,484 @@
       <c r="AH38" s="96"/>
       <c r="AI38" s="96"/>
     </row>
-    <row r="39" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="40" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="41" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="42" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="43" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="44" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="45" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="46" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="47" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="48" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="E37" r:id="rId1"/>
+    <hyperlink ref="E37" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
@@ -15332,527 +15859,618 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A85F0B4-1BD6-4D23-B516-8BB9E43C3A44}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="128" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="128" customWidth="1"/>
+    <col min="3" max="4" width="12.77734375" style="128" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" style="128" customWidth="1"/>
+    <col min="6" max="6" width="60.77734375" style="128" customWidth="1"/>
+    <col min="7" max="16384" width="4.77734375" style="128"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="119" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="117" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="118"/>
+    </row>
+    <row r="2" spans="1:6" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="119" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="143" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="122" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="120" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" s="121" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="121" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="121" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" s="121" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" s="120" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="122" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="123">
+        <v>1</v>
+      </c>
+      <c r="B5" s="124" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="125">
+        <v>43370</v>
+      </c>
+      <c r="D5" s="124" t="s">
+        <v>329</v>
+      </c>
+      <c r="E5" s="126" t="s">
+        <v>330</v>
+      </c>
+      <c r="F5" s="127" t="s">
+        <v>331</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{6ABCBB0D-873D-47BB-8D8B-F37E73D6E0DD}"/>
+  </hyperlinks>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="6" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="25"/>
+    <col min="1" max="16384" width="4.77734375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B3" s="25" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C5" s="25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C6" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C7" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C9" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C10" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C11" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C13" s="25" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C14" s="25" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B17" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C18" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C19" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C20" s="25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C21" s="25" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C23" s="25" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B26" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C27" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C28" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C29" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C30" s="25" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C32" s="25" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.5">
       <c r="D33" s="25" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E34" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E35" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E36" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E37" s="25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.5">
       <c r="D39" s="25" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="4:5">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E40" s="25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="4:5">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E41" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="4:5">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E42" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E43" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="4:5">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E44" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="4:5">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E45" s="25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="4:5">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E46" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="4:5">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E47" s="25" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="4:5">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E48" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E49" s="25" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B52" s="25" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C53" s="25" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D54" s="25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D55" s="25" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D56" s="25" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C58" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D59" s="25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="2:5">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D60" s="25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="2:5">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E61" s="25" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="2:5">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E62" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="2:5">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E63" s="25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="2:5">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E64" s="25" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D65" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="2:5">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D67" s="25" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="68" spans="2:5">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D68" s="25" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="2:5">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E69" s="25" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="71" spans="2:5">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C71" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="72" spans="2:5">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D72" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="2:5">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D73" s="25" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="76" spans="2:5">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B76" s="25" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="77" spans="2:5">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C77" s="25" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="78" spans="2:5">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D78" s="25" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="2:5">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D79" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="2:5">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D80" s="25" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="82" spans="3:5">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D82" s="25" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="3:5">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C84" s="25" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="85" spans="3:5">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D85" s="25" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="3:5">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D86" s="25" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="88" spans="3:5">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C88" s="25" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="89" spans="3:5">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D89" s="25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="3:5">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.5">
       <c r="E90" s="25" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="91" spans="3:5">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D91" s="25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="3:5">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.5">
       <c r="E92" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="3:5">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D93" s="25" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="94" spans="3:5">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.5">
       <c r="E94" s="25" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="3:5">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D95" s="25" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="3:5">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.5">
       <c r="E96" s="25" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="97" spans="2:5">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D97" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="2:5">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E98" s="25" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="2:5">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D99" s="25" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="2:5">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E100" s="25" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="101" spans="2:5">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D101" s="25" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="102" spans="2:5">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E102" s="25" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="105" spans="2:5">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B105" s="25" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="106" spans="2:5">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C106" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="2:5">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C107" s="25" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="108" spans="2:5">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C108" s="25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="109" spans="2:5">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C109" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="2:5">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C111" s="25" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="112" spans="2:5">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C112" s="25" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="113" spans="3:4">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C113" s="25" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="114" spans="3:4">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C114" s="25" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="115" spans="3:4">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D115" s="25" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="116" spans="3:4">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D116" s="25" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="117" spans="3:4">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C117" s="25" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="118" spans="3:4">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D118" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="3:4">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C120" s="25" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="3:4">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C121" s="25" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="122" spans="3:4">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C122" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="3:4">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D123" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="3:4">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D124" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="3:4">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D125" s="25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="3:4">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D126" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="3:4">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D127" s="25" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="128" spans="3:4">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D128" s="25" t="s">
         <v>54</v>
       </c>
@@ -15868,70 +16486,70 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL128"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="3" width="4.83203125" style="1"/>
-    <col min="4" max="5" width="4.83203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="4.83203125" style="1"/>
+    <col min="1" max="3" width="4.77734375" style="1"/>
+    <col min="4" max="5" width="4.77734375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="4.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C6" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C7" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C9" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="2:38">
+    <row r="53" spans="2:38" x14ac:dyDescent="0.5">
       <c r="B53" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="2:38">
+    <row r="54" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C54" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="55" spans="2:38">
+    <row r="55" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C55" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="2:38">
+    <row r="57" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C57" s="13" t="s">
         <v>6</v>
       </c>
@@ -15973,7 +16591,7 @@
       <c r="AK57" s="3"/>
       <c r="AL57" s="14"/>
     </row>
-    <row r="58" spans="2:38">
+    <row r="58" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C58" s="6"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -16013,7 +16631,7 @@
       <c r="AK58" s="4"/>
       <c r="AL58" s="15"/>
     </row>
-    <row r="59" spans="2:38">
+    <row r="59" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C59" s="6"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -16053,7 +16671,7 @@
       <c r="AK59" s="4"/>
       <c r="AL59" s="15"/>
     </row>
-    <row r="60" spans="2:38">
+    <row r="60" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C60" s="6"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -16093,7 +16711,7 @@
       <c r="AK60" s="4"/>
       <c r="AL60" s="15"/>
     </row>
-    <row r="61" spans="2:38">
+    <row r="61" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C61" s="6"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -16133,7 +16751,7 @@
       <c r="AK61" s="4"/>
       <c r="AL61" s="15"/>
     </row>
-    <row r="62" spans="2:38">
+    <row r="62" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C62" s="6"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -16173,7 +16791,7 @@
       <c r="AK62" s="4"/>
       <c r="AL62" s="15"/>
     </row>
-    <row r="63" spans="2:38">
+    <row r="63" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C63" s="6"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -16213,7 +16831,7 @@
       <c r="AK63" s="4"/>
       <c r="AL63" s="15"/>
     </row>
-    <row r="64" spans="2:38">
+    <row r="64" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C64" s="6"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -16253,7 +16871,7 @@
       <c r="AK64" s="4"/>
       <c r="AL64" s="15"/>
     </row>
-    <row r="65" spans="3:38">
+    <row r="65" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C65" s="6"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -16293,7 +16911,7 @@
       <c r="AK65" s="4"/>
       <c r="AL65" s="15"/>
     </row>
-    <row r="66" spans="3:38">
+    <row r="66" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C66" s="6"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -16305,7 +16923,7 @@
       </c>
       <c r="AL66" s="15"/>
     </row>
-    <row r="67" spans="3:38">
+    <row r="67" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C67" s="6"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -16345,7 +16963,7 @@
       <c r="AK67" s="4"/>
       <c r="AL67" s="15"/>
     </row>
-    <row r="68" spans="3:38">
+    <row r="68" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C68" s="6"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -16385,7 +17003,7 @@
       <c r="AK68" s="4"/>
       <c r="AL68" s="15"/>
     </row>
-    <row r="69" spans="3:38">
+    <row r="69" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C69" s="6"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -16425,7 +17043,7 @@
       <c r="AK69" s="4"/>
       <c r="AL69" s="15"/>
     </row>
-    <row r="70" spans="3:38">
+    <row r="70" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C70" s="6"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -16465,7 +17083,7 @@
       <c r="AK70" s="4"/>
       <c r="AL70" s="15"/>
     </row>
-    <row r="71" spans="3:38">
+    <row r="71" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C71" s="6"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -16505,7 +17123,7 @@
       <c r="AK71" s="4"/>
       <c r="AL71" s="15"/>
     </row>
-    <row r="72" spans="3:38">
+    <row r="72" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C72" s="6"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -16545,7 +17163,7 @@
       <c r="AK72" s="4"/>
       <c r="AL72" s="15"/>
     </row>
-    <row r="73" spans="3:38">
+    <row r="73" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C73" s="6"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -16585,7 +17203,7 @@
       <c r="AK73" s="4"/>
       <c r="AL73" s="15"/>
     </row>
-    <row r="74" spans="3:38">
+    <row r="74" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C74" s="6"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -16625,7 +17243,7 @@
       <c r="AK74" s="4"/>
       <c r="AL74" s="15"/>
     </row>
-    <row r="75" spans="3:38">
+    <row r="75" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C75" s="8"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -16663,7 +17281,7 @@
       <c r="AK75" s="9"/>
       <c r="AL75" s="16"/>
     </row>
-    <row r="76" spans="3:38">
+    <row r="76" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C76" s="6" t="s">
         <v>7</v>
       </c>
@@ -16705,7 +17323,7 @@
       <c r="AK76" s="3"/>
       <c r="AL76" s="15"/>
     </row>
-    <row r="77" spans="3:38">
+    <row r="77" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C77" s="6"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -16745,7 +17363,7 @@
       <c r="AK77" s="4"/>
       <c r="AL77" s="15"/>
     </row>
-    <row r="78" spans="3:38">
+    <row r="78" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C78" s="6"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -16785,7 +17403,7 @@
       <c r="AK78" s="4"/>
       <c r="AL78" s="15"/>
     </row>
-    <row r="79" spans="3:38">
+    <row r="79" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C79" s="6"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -16825,7 +17443,7 @@
       <c r="AK79" s="4"/>
       <c r="AL79" s="15"/>
     </row>
-    <row r="80" spans="3:38">
+    <row r="80" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C80" s="6"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -16865,7 +17483,7 @@
       <c r="AK80" s="4"/>
       <c r="AL80" s="15"/>
     </row>
-    <row r="81" spans="2:38">
+    <row r="81" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C81" s="6"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -16905,7 +17523,7 @@
       <c r="AK81" s="4"/>
       <c r="AL81" s="15"/>
     </row>
-    <row r="82" spans="2:38">
+    <row r="82" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C82" s="6"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -16945,7 +17563,7 @@
       <c r="AK82" s="4"/>
       <c r="AL82" s="15"/>
     </row>
-    <row r="83" spans="2:38">
+    <row r="83" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C83" s="6"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -16985,7 +17603,7 @@
       <c r="AK83" s="4"/>
       <c r="AL83" s="15"/>
     </row>
-    <row r="84" spans="2:38">
+    <row r="84" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C84" s="6"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -17025,7 +17643,7 @@
       <c r="AK84" s="4"/>
       <c r="AL84" s="15"/>
     </row>
-    <row r="85" spans="2:38">
+    <row r="85" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C85" s="8"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
@@ -17063,182 +17681,182 @@
       <c r="AK85" s="9"/>
       <c r="AL85" s="16"/>
     </row>
-    <row r="88" spans="2:38">
+    <row r="88" spans="2:38" x14ac:dyDescent="0.5">
       <c r="B88" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="89" spans="2:38">
+    <row r="89" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C89" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="2:38">
+    <row r="90" spans="2:38" x14ac:dyDescent="0.5">
       <c r="D90" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="91" spans="2:38">
+    <row r="91" spans="2:38" x14ac:dyDescent="0.5">
       <c r="D91" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="92" spans="2:38">
+    <row r="92" spans="2:38" x14ac:dyDescent="0.5">
       <c r="D92" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="2:38">
+    <row r="93" spans="2:38" x14ac:dyDescent="0.5">
       <c r="D93" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="2:38">
+    <row r="94" spans="2:38" x14ac:dyDescent="0.5">
       <c r="D94" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="2:38">
+    <row r="95" spans="2:38" x14ac:dyDescent="0.5">
       <c r="D95" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="2:38">
+    <row r="96" spans="2:38" x14ac:dyDescent="0.5">
       <c r="D96" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="3:5">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C98" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="3:5">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D99" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="3:5">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D100" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="3:5">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.5">
       <c r="E101" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="3:5">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.5">
       <c r="E102" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="103" spans="3:5">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D103" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="3:5">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.5">
       <c r="E104" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="3:5">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.5">
       <c r="E105" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="3:5">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.5">
       <c r="E106" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="108" spans="3:5">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C108" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="109" spans="3:5">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D109" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="3:5">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D110" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="3:5">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D111" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="113" spans="4:6">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D113" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="4:6">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.5">
       <c r="E114" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="115" spans="4:6">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.5">
       <c r="F115" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="116" spans="4:6">
+    <row r="116" spans="4:6" x14ac:dyDescent="0.5">
       <c r="F116" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="4:6">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.5">
       <c r="F117" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="4:6">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.5">
       <c r="E119" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="120" spans="4:6">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.5">
       <c r="F120" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="121" spans="4:6">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.5">
       <c r="F121" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="4:6">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.5">
       <c r="F122" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="4:6">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.5">
       <c r="F123" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="4:6">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D125" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="4:6">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.5">
       <c r="E126" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="4:6">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.5">
       <c r="E127" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="128" spans="4:6">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.5">
       <c r="E128" s="1" t="s">
         <v>50</v>
       </c>
@@ -17255,25 +17873,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="48.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="48.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="42" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="83.1640625" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="4.83203125" style="5"/>
+    <col min="7" max="7" width="83.109375" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="4.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
         <v>226</v>
       </c>
@@ -17281,13 +17899,13 @@
       <c r="C1" s="45"/>
       <c r="D1" s="18"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="25"/>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
       <c r="D2" s="18"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="25"/>
       <c r="B3" s="25" t="s">
         <v>196</v>
@@ -17295,7 +17913,7 @@
       <c r="C3" s="45"/>
       <c r="D3" s="18"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="25"/>
       <c r="B4" s="25" t="s">
         <v>199</v>
@@ -17303,7 +17921,7 @@
       <c r="C4" s="45"/>
       <c r="D4" s="18"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="25"/>
       <c r="B5" s="25" t="s">
         <v>308</v>
@@ -17311,7 +17929,7 @@
       <c r="C5" s="45"/>
       <c r="D5" s="18"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="25"/>
       <c r="B6" s="25" t="s">
         <v>228</v>
@@ -17319,13 +17937,13 @@
       <c r="C6" s="45"/>
       <c r="D6" s="18"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="25"/>
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="25"/>
       <c r="B8" s="25" t="s">
         <v>130</v>
@@ -17333,7 +17951,7 @@
       <c r="C8" s="45"/>
       <c r="D8" s="18"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="25"/>
       <c r="B9" s="25" t="s">
         <v>254</v>
@@ -17341,7 +17959,7 @@
       <c r="C9" s="45"/>
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="25"/>
       <c r="B10" s="46" t="s">
         <v>131</v>
@@ -17353,7 +17971,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="25"/>
       <c r="B11" s="47"/>
       <c r="C11" s="32" t="s">
@@ -17363,7 +17981,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="25"/>
       <c r="B12" s="46" t="s">
         <v>132</v>
@@ -17375,7 +17993,7 @@
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="25"/>
       <c r="B13" s="47"/>
       <c r="C13" s="32" t="s">
@@ -17385,7 +18003,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="25"/>
       <c r="B14" s="26" t="s">
         <v>133</v>
@@ -17397,7 +18015,7 @@
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
     </row>
-    <row r="15" spans="1:6" s="25" customFormat="1">
+    <row r="15" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B15" s="26" t="s">
         <v>236</v>
       </c>
@@ -17408,23 +18026,23 @@
       <c r="E15" s="49"/>
       <c r="F15" s="34"/>
     </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1">
+    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B19" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="129" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="117" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="129" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="118"/>
+      <c r="F19" s="130"/>
       <c r="G19" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15" customHeight="1">
+    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B20" s="28" t="s">
         <v>314</v>
       </c>
@@ -17442,7 +18060,7 @@
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="2:7" ht="15" customHeight="1">
+    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B21" s="30"/>
       <c r="C21" s="31"/>
       <c r="D21" s="12" t="s">
@@ -17456,7 +18074,7 @@
       </c>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="2:7" ht="15" customHeight="1">
+    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B22" s="30"/>
       <c r="C22" s="31"/>
       <c r="D22" s="12" t="s">
@@ -17470,7 +18088,7 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="2:7" ht="15" customHeight="1">
+    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B23" s="30"/>
       <c r="C23" s="31"/>
       <c r="D23" s="12" t="s">
@@ -17484,7 +18102,7 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="2:7" ht="15" customHeight="1">
+    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B24" s="30"/>
       <c r="C24" s="31"/>
       <c r="D24" s="12" t="s">
@@ -17498,7 +18116,7 @@
       </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="2:7" ht="15" customHeight="1">
+    <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B25" s="30"/>
       <c r="C25" s="31"/>
       <c r="D25" s="12" t="s">
@@ -17512,7 +18130,7 @@
       </c>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="2:7" ht="15" customHeight="1">
+    <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B26" s="30"/>
       <c r="C26" s="31"/>
       <c r="D26" s="12" t="s">
@@ -17526,7 +18144,7 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="2:7" ht="15" customHeight="1">
+    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B27" s="30"/>
       <c r="C27" s="31"/>
       <c r="D27" s="12" t="s">
@@ -17540,7 +18158,7 @@
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="2:7" ht="15" customHeight="1">
+    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B28" s="30"/>
       <c r="C28" s="31"/>
       <c r="D28" s="12" t="s">
@@ -17554,7 +18172,7 @@
       </c>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="2:7" ht="15" customHeight="1">
+    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
       <c r="D29" s="12" t="s">
@@ -17568,7 +18186,7 @@
       </c>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="2:7" ht="15" customHeight="1">
+    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B30" s="30"/>
       <c r="C30" s="32"/>
       <c r="D30" s="12" t="s">
@@ -17582,7 +18200,7 @@
       </c>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="2:7" ht="15" customHeight="1">
+    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B31" s="30"/>
       <c r="C31" s="31" t="s">
         <v>122</v>
@@ -17600,7 +18218,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15" customHeight="1">
+    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B32" s="30"/>
       <c r="C32" s="31"/>
       <c r="D32" s="12" t="s">
@@ -17614,7 +18232,7 @@
       </c>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="2:7" ht="15" customHeight="1">
+    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B33" s="30"/>
       <c r="C33" s="31"/>
       <c r="D33" s="12" t="s">
@@ -17628,7 +18246,7 @@
       </c>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="2:7" ht="15" customHeight="1">
+    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B34" s="30"/>
       <c r="C34" s="31"/>
       <c r="D34" s="12" t="s">
@@ -17642,7 +18260,7 @@
       </c>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="2:7" ht="15" customHeight="1">
+    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B35" s="30"/>
       <c r="C35" s="31"/>
       <c r="D35" s="12" t="s">
@@ -17656,7 +18274,7 @@
       </c>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="2:7" ht="15" customHeight="1">
+    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B36" s="30"/>
       <c r="C36" s="31"/>
       <c r="D36" s="12" t="s">
@@ -17670,7 +18288,7 @@
       </c>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="2:7" ht="15" customHeight="1">
+    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B37" s="30"/>
       <c r="C37" s="31"/>
       <c r="D37" s="12" t="s">
@@ -17684,7 +18302,7 @@
       </c>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="2:7" ht="15" customHeight="1">
+    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B38" s="30"/>
       <c r="C38" s="31"/>
       <c r="D38" s="12" t="s">
@@ -17698,7 +18316,7 @@
       </c>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="2:7" ht="15" customHeight="1">
+    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B39" s="30"/>
       <c r="C39" s="31"/>
       <c r="D39" s="12" t="s">
@@ -17712,7 +18330,7 @@
       </c>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="2:7" s="25" customFormat="1" ht="15" customHeight="1">
+    <row r="40" spans="2:7" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B40" s="30"/>
       <c r="C40" s="31"/>
       <c r="D40" s="12" t="s">
@@ -17728,7 +18346,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="15" customHeight="1">
+    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B41" s="30"/>
       <c r="C41" s="31"/>
       <c r="D41" s="12" t="s">
@@ -17742,7 +18360,7 @@
       </c>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="2:7" ht="15" customHeight="1">
+    <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B42" s="30"/>
       <c r="C42" s="31"/>
       <c r="D42" s="12" t="s">
@@ -17756,7 +18374,7 @@
       </c>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="2:7" ht="15" customHeight="1">
+    <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B43" s="30"/>
       <c r="C43" s="31"/>
       <c r="D43" s="12" t="s">
@@ -17770,7 +18388,7 @@
       </c>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="2:7" ht="15" customHeight="1">
+    <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B44" s="30"/>
       <c r="C44" s="31"/>
       <c r="D44" s="12" t="s">
@@ -17784,7 +18402,7 @@
       </c>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="2:7" ht="15" customHeight="1">
+    <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B45" s="30"/>
       <c r="C45" s="31"/>
       <c r="D45" s="12" t="s">
@@ -17798,7 +18416,7 @@
       </c>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="2:7" ht="15" customHeight="1">
+    <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B46" s="30"/>
       <c r="C46" s="31"/>
       <c r="D46" s="12" t="s">
@@ -17814,7 +18432,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="15" customHeight="1">
+    <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B47" s="30"/>
       <c r="C47" s="31"/>
       <c r="D47" s="12" t="s">
@@ -17828,7 +18446,7 @@
       </c>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="2:7" ht="15" customHeight="1">
+    <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B48" s="30"/>
       <c r="C48" s="31"/>
       <c r="D48" s="12" t="s">
@@ -17842,7 +18460,7 @@
       </c>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="2:7" ht="15" customHeight="1">
+    <row r="49" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B49" s="116"/>
       <c r="C49" s="116"/>
       <c r="D49" s="12" t="s">
@@ -17858,7 +18476,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="15" customHeight="1">
+    <row r="50" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B50" s="33" t="s">
         <v>319</v>
       </c>
@@ -17876,7 +18494,7 @@
       </c>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="2:7" ht="15" customHeight="1">
+    <row r="51" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="12" t="s">
@@ -17890,7 +18508,7 @@
       </c>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="2:7" ht="15" customHeight="1">
+    <row r="52" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B52" s="30"/>
       <c r="C52" s="17"/>
       <c r="D52" s="12" t="s">
@@ -17904,7 +18522,7 @@
       </c>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="2:7" ht="15" customHeight="1">
+    <row r="53" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="12" t="s">
@@ -17918,7 +18536,7 @@
       </c>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="2:7" ht="15" customHeight="1">
+    <row r="54" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="12" t="s">
@@ -17932,7 +18550,7 @@
       </c>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="2:7" ht="15" customHeight="1">
+    <row r="55" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B55" s="30"/>
       <c r="C55" s="27" t="s">
         <v>129</v>
@@ -17946,7 +18564,7 @@
       </c>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="2:7" ht="15" customHeight="1">
+    <row r="56" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B56" s="30"/>
       <c r="C56" s="27" t="s">
         <v>123</v>
@@ -17960,7 +18578,7 @@
       </c>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="2:7" ht="15" customHeight="1">
+    <row r="57" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B57" s="30"/>
       <c r="C57" s="27" t="s">
         <v>170</v>
@@ -17974,7 +18592,7 @@
       </c>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="2:7" ht="15" customHeight="1">
+    <row r="58" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B58" s="115"/>
       <c r="C58" s="27" t="s">
         <v>186</v>
@@ -17988,7 +18606,7 @@
       </c>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="2:7" ht="15" customHeight="1">
+    <row r="59" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B59" s="115"/>
       <c r="C59" s="27" t="s">
         <v>171</v>
@@ -18002,7 +18620,7 @@
       </c>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="2:7" ht="15" customHeight="1">
+    <row r="60" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B60" s="30"/>
       <c r="C60" s="27" t="s">
         <v>172</v>
@@ -18016,7 +18634,7 @@
       </c>
       <c r="G60" s="12"/>
     </row>
-    <row r="61" spans="2:7" ht="15" customHeight="1">
+    <row r="61" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B61" s="30"/>
       <c r="C61" s="27" t="s">
         <v>231</v>
@@ -18030,7 +18648,7 @@
       </c>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="2:7" ht="15" customHeight="1">
+    <row r="62" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B62" s="30"/>
       <c r="C62" s="27" t="s">
         <v>174</v>
@@ -18044,7 +18662,7 @@
       </c>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="2:7" ht="15" customHeight="1">
+    <row r="63" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B63" s="30"/>
       <c r="C63" s="27" t="s">
         <v>175</v>
@@ -18058,7 +18676,7 @@
       </c>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="2:7" ht="15" customHeight="1">
+    <row r="64" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B64" s="30"/>
       <c r="C64" s="27" t="s">
         <v>125</v>
@@ -18072,7 +18690,7 @@
       </c>
       <c r="G64" s="12"/>
     </row>
-    <row r="65" spans="2:7" ht="15" customHeight="1">
+    <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B65" s="30"/>
       <c r="C65" s="27" t="s">
         <v>176</v>
@@ -18086,7 +18704,7 @@
       </c>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="2:7" ht="15" customHeight="1">
+    <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B66" s="30"/>
       <c r="C66" s="27" t="s">
         <v>173</v>
@@ -18100,7 +18718,7 @@
       </c>
       <c r="G66" s="12"/>
     </row>
-    <row r="67" spans="2:7" ht="15" customHeight="1">
+    <row r="67" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B67" s="30"/>
       <c r="C67" s="27" t="s">
         <v>124</v>
@@ -18114,7 +18732,7 @@
       </c>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="2:7" ht="15" customHeight="1">
+    <row r="68" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B68" s="30"/>
       <c r="C68" s="27" t="s">
         <v>128</v>
@@ -18128,7 +18746,7 @@
       </c>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="2:7" ht="15" customHeight="1">
+    <row r="69" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B69" s="30"/>
       <c r="C69" s="27" t="s">
         <v>127</v>
@@ -18142,7 +18760,7 @@
       </c>
       <c r="G69" s="12"/>
     </row>
-    <row r="70" spans="2:7" ht="15" customHeight="1">
+    <row r="70" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B70" s="30"/>
       <c r="C70" s="27" t="s">
         <v>230</v>
@@ -18156,7 +18774,7 @@
       </c>
       <c r="G70" s="12"/>
     </row>
-    <row r="71" spans="2:7" ht="15" customHeight="1">
+    <row r="71" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B71" s="30"/>
       <c r="C71" s="27" t="s">
         <v>229</v>
@@ -18170,7 +18788,7 @@
       </c>
       <c r="G71" s="12"/>
     </row>
-    <row r="72" spans="2:7" ht="15" customHeight="1">
+    <row r="72" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B72" s="30"/>
       <c r="C72" s="27" t="s">
         <v>126</v>
@@ -18184,7 +18802,7 @@
       </c>
       <c r="G72" s="12"/>
     </row>
-    <row r="73" spans="2:7" ht="15" customHeight="1">
+    <row r="73" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B73" s="30"/>
       <c r="C73" s="27" t="s">
         <v>177</v>
@@ -18198,7 +18816,7 @@
       </c>
       <c r="G73" s="12"/>
     </row>
-    <row r="74" spans="2:7" ht="15" customHeight="1">
+    <row r="74" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B74" s="30"/>
       <c r="C74" s="27" t="s">
         <v>232</v>
@@ -18212,7 +18830,7 @@
       </c>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="2:7" ht="15" customHeight="1">
+    <row r="75" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B75" s="30"/>
       <c r="C75" s="27" t="s">
         <v>180</v>
@@ -18226,7 +18844,7 @@
       </c>
       <c r="G75" s="12"/>
     </row>
-    <row r="76" spans="2:7" ht="15" customHeight="1">
+    <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B76" s="30"/>
       <c r="C76" s="27" t="s">
         <v>179</v>
@@ -18240,7 +18858,7 @@
       </c>
       <c r="G76" s="12"/>
     </row>
-    <row r="77" spans="2:7" ht="15" customHeight="1">
+    <row r="77" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B77" s="30"/>
       <c r="C77" s="27" t="s">
         <v>181</v>
@@ -18254,7 +18872,7 @@
       </c>
       <c r="G77" s="12"/>
     </row>
-    <row r="78" spans="2:7" ht="15" customHeight="1">
+    <row r="78" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B78" s="30"/>
       <c r="C78" s="27" t="s">
         <v>182</v>
@@ -18268,7 +18886,7 @@
       </c>
       <c r="G78" s="12"/>
     </row>
-    <row r="79" spans="2:7" ht="15" customHeight="1">
+    <row r="79" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B79" s="30"/>
       <c r="C79" s="27" t="s">
         <v>178</v>
@@ -18282,7 +18900,7 @@
       </c>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="2:7" ht="15" customHeight="1">
+    <row r="80" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B80" s="30"/>
       <c r="C80" s="27" t="s">
         <v>183</v>
@@ -18296,7 +18914,7 @@
       </c>
       <c r="G80" s="12"/>
     </row>
-    <row r="81" spans="2:7" ht="15" customHeight="1">
+    <row r="81" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B81" s="30"/>
       <c r="C81" s="27" t="s">
         <v>203</v>
@@ -18310,7 +18928,7 @@
       </c>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="2:7" ht="15" customHeight="1">
+    <row r="82" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B82" s="30"/>
       <c r="C82" s="27" t="s">
         <v>184</v>
@@ -18324,7 +18942,7 @@
       </c>
       <c r="G82" s="12"/>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B83" s="30"/>
       <c r="C83" s="27" t="s">
         <v>204</v>
@@ -18338,7 +18956,7 @@
       </c>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B84" s="30"/>
       <c r="C84" s="27" t="s">
         <v>205</v>
@@ -18352,7 +18970,7 @@
       </c>
       <c r="G84" s="12"/>
     </row>
-    <row r="85" spans="2:7" s="25" customFormat="1">
+    <row r="85" spans="2:7" s="25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B85" s="27" t="s">
         <v>187</v>
       </c>
@@ -18381,23 +18999,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="4.83203125" style="50" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="4.77734375" style="50" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" style="52" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46" style="52" customWidth="1"/>
     <col min="5" max="40" width="4.33203125" style="52" customWidth="1"/>
     <col min="41" max="41" width="2.6640625" style="52" customWidth="1"/>
-    <col min="42" max="16384" width="4.83203125" style="50"/>
+    <col min="42" max="16384" width="4.77734375" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15" customHeight="1">
+    <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
         <v>227</v>
       </c>
@@ -18442,7 +19060,7 @@
       <c r="AN1" s="25"/>
       <c r="AO1" s="50"/>
     </row>
-    <row r="2" spans="1:41" ht="15" customHeight="1">
+    <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -18485,7 +19103,7 @@
       <c r="AN2" s="25"/>
       <c r="AO2" s="50"/>
     </row>
-    <row r="3" spans="1:41" ht="15" customHeight="1">
+    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="25"/>
       <c r="B3" s="25" t="s">
         <v>98</v>
@@ -18530,7 +19148,7 @@
       <c r="AN3" s="25"/>
       <c r="AO3" s="50"/>
     </row>
-    <row r="4" spans="1:41" ht="15" customHeight="1">
+    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="25"/>
       <c r="B4" s="25" t="s">
         <v>99</v>
@@ -18575,7 +19193,7 @@
       <c r="AN4" s="25"/>
       <c r="AO4" s="50"/>
     </row>
-    <row r="5" spans="1:41" ht="15" customHeight="1" thickBot="1">
+    <row r="5" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="51"/>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
@@ -18617,113 +19235,113 @@
       <c r="AN5" s="50"/>
       <c r="AO5" s="50"/>
     </row>
-    <row r="6" spans="1:41" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="51"/>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="121" t="s">
+      <c r="E6" s="133" t="s">
         <v>253</v>
       </c>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="122"/>
-      <c r="N6" s="122"/>
-      <c r="O6" s="122"/>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="122"/>
-      <c r="S6" s="122"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="122"/>
-      <c r="V6" s="122"/>
-      <c r="W6" s="122"/>
-      <c r="X6" s="122"/>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="122"/>
-      <c r="AB6" s="122"/>
-      <c r="AC6" s="122"/>
-      <c r="AD6" s="122"/>
-      <c r="AE6" s="122"/>
-      <c r="AF6" s="122"/>
-      <c r="AG6" s="122"/>
-      <c r="AH6" s="122"/>
-      <c r="AI6" s="122"/>
-      <c r="AJ6" s="122"/>
-      <c r="AK6" s="122"/>
-      <c r="AL6" s="122"/>
-      <c r="AM6" s="122"/>
-      <c r="AN6" s="123"/>
-    </row>
-    <row r="7" spans="1:41" ht="15" customHeight="1" thickBot="1">
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="134"/>
+      <c r="W6" s="134"/>
+      <c r="X6" s="134"/>
+      <c r="Y6" s="134"/>
+      <c r="Z6" s="134"/>
+      <c r="AA6" s="134"/>
+      <c r="AB6" s="134"/>
+      <c r="AC6" s="134"/>
+      <c r="AD6" s="134"/>
+      <c r="AE6" s="134"/>
+      <c r="AF6" s="134"/>
+      <c r="AG6" s="134"/>
+      <c r="AH6" s="134"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="134"/>
+      <c r="AK6" s="134"/>
+      <c r="AL6" s="134"/>
+      <c r="AM6" s="134"/>
+      <c r="AN6" s="135"/>
+    </row>
+    <row r="7" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="51"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="124">
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="136">
         <v>4</v>
       </c>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="127">
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="139">
         <v>5</v>
       </c>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="128">
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="140">
         <v>6</v>
       </c>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127">
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="139">
         <v>7</v>
       </c>
-      <c r="R7" s="127"/>
-      <c r="S7" s="127"/>
-      <c r="T7" s="127"/>
-      <c r="U7" s="127">
+      <c r="R7" s="139"/>
+      <c r="S7" s="139"/>
+      <c r="T7" s="139"/>
+      <c r="U7" s="139">
         <v>8</v>
       </c>
-      <c r="V7" s="127"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="127"/>
-      <c r="Y7" s="127">
+      <c r="V7" s="139"/>
+      <c r="W7" s="139"/>
+      <c r="X7" s="139"/>
+      <c r="Y7" s="139">
         <v>9</v>
       </c>
-      <c r="Z7" s="127"/>
-      <c r="AA7" s="127"/>
-      <c r="AB7" s="127"/>
-      <c r="AC7" s="127">
+      <c r="Z7" s="139"/>
+      <c r="AA7" s="139"/>
+      <c r="AB7" s="139"/>
+      <c r="AC7" s="139">
         <v>10</v>
       </c>
-      <c r="AD7" s="127"/>
-      <c r="AE7" s="127"/>
-      <c r="AF7" s="127"/>
-      <c r="AG7" s="127">
+      <c r="AD7" s="139"/>
+      <c r="AE7" s="139"/>
+      <c r="AF7" s="139"/>
+      <c r="AG7" s="139">
         <v>11</v>
       </c>
-      <c r="AH7" s="127"/>
-      <c r="AI7" s="127"/>
-      <c r="AJ7" s="127"/>
-      <c r="AK7" s="129" t="s">
+      <c r="AH7" s="139"/>
+      <c r="AI7" s="139"/>
+      <c r="AJ7" s="139"/>
+      <c r="AK7" s="141" t="s">
         <v>217</v>
       </c>
-      <c r="AL7" s="129"/>
-      <c r="AM7" s="129"/>
-      <c r="AN7" s="130"/>
-    </row>
-    <row r="8" spans="1:41" ht="15" customHeight="1">
+      <c r="AL7" s="141"/>
+      <c r="AM7" s="141"/>
+      <c r="AN7" s="142"/>
+    </row>
+    <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="54"/>
       <c r="C8" s="35" t="s">
         <v>83</v>
@@ -18766,7 +19384,7 @@
       <c r="AM8" s="64"/>
       <c r="AN8" s="65"/>
     </row>
-    <row r="9" spans="1:41" ht="15" customHeight="1">
+    <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="54"/>
       <c r="C9" s="36"/>
       <c r="D9" s="37" t="s">
@@ -18809,7 +19427,7 @@
       <c r="AM9" s="75"/>
       <c r="AN9" s="76"/>
     </row>
-    <row r="10" spans="1:41" ht="15" customHeight="1">
+    <row r="10" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B10" s="54"/>
       <c r="C10" s="36"/>
       <c r="D10" s="37" t="s">
@@ -18852,7 +19470,7 @@
       <c r="AM10" s="75"/>
       <c r="AN10" s="76"/>
     </row>
-    <row r="11" spans="1:41" ht="15" customHeight="1">
+    <row r="11" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B11" s="54"/>
       <c r="C11" s="38"/>
       <c r="D11" s="37" t="s">
@@ -18895,7 +19513,7 @@
       <c r="AM11" s="75"/>
       <c r="AN11" s="76"/>
     </row>
-    <row r="12" spans="1:41" ht="15" customHeight="1">
+    <row r="12" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B12" s="54"/>
       <c r="C12" s="36"/>
       <c r="D12" s="37" t="s">
@@ -18938,7 +19556,7 @@
       <c r="AM12" s="75"/>
       <c r="AN12" s="76"/>
     </row>
-    <row r="13" spans="1:41" ht="15" customHeight="1">
+    <row r="13" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B13" s="54"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37" t="s">
@@ -18981,7 +19599,7 @@
       <c r="AM13" s="75"/>
       <c r="AN13" s="76"/>
     </row>
-    <row r="14" spans="1:41" ht="15" customHeight="1" thickBot="1">
+    <row r="14" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="54"/>
       <c r="C14" s="39"/>
       <c r="D14" s="40"/>
@@ -19022,7 +19640,7 @@
       <c r="AM14" s="84"/>
       <c r="AN14" s="85"/>
     </row>
-    <row r="15" spans="1:41" ht="15" customHeight="1">
+    <row r="15" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="54"/>
       <c r="C15" s="86" t="s">
         <v>71</v>
@@ -19065,7 +19683,7 @@
       <c r="AM15" s="64"/>
       <c r="AN15" s="65"/>
     </row>
-    <row r="16" spans="1:41" ht="15" customHeight="1">
+    <row r="16" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B16" s="54"/>
       <c r="C16" s="38"/>
       <c r="D16" s="37" t="s">
@@ -19108,7 +19726,7 @@
       <c r="AM16" s="75"/>
       <c r="AN16" s="76"/>
     </row>
-    <row r="17" spans="2:40" ht="15" customHeight="1">
+    <row r="17" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="55"/>
       <c r="C17" s="38"/>
       <c r="D17" s="42" t="s">
@@ -19153,7 +19771,7 @@
       <c r="AM17" s="75"/>
       <c r="AN17" s="76"/>
     </row>
-    <row r="18" spans="2:40" ht="15" customHeight="1">
+    <row r="18" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B18" s="54"/>
       <c r="C18" s="38"/>
       <c r="D18" s="42" t="s">
@@ -19196,7 +19814,7 @@
       <c r="AM18" s="75"/>
       <c r="AN18" s="76"/>
     </row>
-    <row r="19" spans="2:40" ht="15" customHeight="1" thickBot="1">
+    <row r="19" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="54"/>
       <c r="C19" s="43"/>
       <c r="D19" s="44"/>
@@ -19237,7 +19855,7 @@
       <c r="AM19" s="84"/>
       <c r="AN19" s="85"/>
     </row>
-    <row r="20" spans="2:40" ht="15" customHeight="1">
+    <row r="20" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B20" s="55"/>
       <c r="C20" s="86" t="s">
         <v>84</v>
@@ -19280,7 +19898,7 @@
       <c r="AM20" s="64"/>
       <c r="AN20" s="65"/>
     </row>
-    <row r="21" spans="2:40" ht="15" customHeight="1">
+    <row r="21" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B21" s="55"/>
       <c r="C21" s="38"/>
       <c r="D21" s="42" t="s">
@@ -19322,7 +19940,7 @@
       <c r="AM21" s="75"/>
       <c r="AN21" s="76"/>
     </row>
-    <row r="22" spans="2:40" ht="15" customHeight="1">
+    <row r="22" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B22" s="54"/>
       <c r="C22" s="38"/>
       <c r="D22" s="42" t="s">
@@ -19365,7 +19983,7 @@
       <c r="AM22" s="75"/>
       <c r="AN22" s="76"/>
     </row>
-    <row r="23" spans="2:40" ht="15" customHeight="1">
+    <row r="23" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B23" s="54"/>
       <c r="C23" s="38"/>
       <c r="D23" s="42" t="s">
@@ -19408,7 +20026,7 @@
       <c r="AM23" s="75"/>
       <c r="AN23" s="76"/>
     </row>
-    <row r="24" spans="2:40" ht="6" customHeight="1">
+    <row r="24" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B24" s="54"/>
       <c r="C24" s="38"/>
       <c r="D24" s="42"/>
@@ -19449,7 +20067,7 @@
       <c r="AM24" s="75"/>
       <c r="AN24" s="76"/>
     </row>
-    <row r="25" spans="2:40" ht="15" customHeight="1">
+    <row r="25" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B25" s="55"/>
       <c r="C25" s="38"/>
       <c r="D25" s="37" t="s">
@@ -19496,7 +20114,7 @@
       <c r="AM25" s="75"/>
       <c r="AN25" s="76"/>
     </row>
-    <row r="26" spans="2:40" ht="15" customHeight="1">
+    <row r="26" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B26" s="55"/>
       <c r="C26" s="38"/>
       <c r="D26" s="42" t="s">
@@ -19539,7 +20157,7 @@
       <c r="AM26" s="75"/>
       <c r="AN26" s="76"/>
     </row>
-    <row r="27" spans="2:40" ht="15" customHeight="1">
+    <row r="27" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B27" s="55"/>
       <c r="C27" s="38"/>
       <c r="D27" s="42" t="s">
@@ -19582,7 +20200,7 @@
       <c r="AM27" s="75"/>
       <c r="AN27" s="76"/>
     </row>
-    <row r="28" spans="2:40" ht="15" customHeight="1">
+    <row r="28" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B28" s="55"/>
       <c r="C28" s="38"/>
       <c r="D28" s="42" t="s">
@@ -19625,7 +20243,7 @@
       <c r="AM28" s="75"/>
       <c r="AN28" s="76"/>
     </row>
-    <row r="29" spans="2:40" ht="6" customHeight="1">
+    <row r="29" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B29" s="55"/>
       <c r="C29" s="38"/>
       <c r="D29" s="42"/>
@@ -19666,7 +20284,7 @@
       <c r="AM29" s="75"/>
       <c r="AN29" s="76"/>
     </row>
-    <row r="30" spans="2:40" ht="15" customHeight="1">
+    <row r="30" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B30" s="55"/>
       <c r="C30" s="38"/>
       <c r="D30" s="42" t="s">
@@ -19709,7 +20327,7 @@
       <c r="AM30" s="75"/>
       <c r="AN30" s="76"/>
     </row>
-    <row r="31" spans="2:40" ht="6" customHeight="1">
+    <row r="31" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B31" s="55"/>
       <c r="C31" s="38"/>
       <c r="D31" s="42"/>
@@ -19750,7 +20368,7 @@
       <c r="AM31" s="75"/>
       <c r="AN31" s="76"/>
     </row>
-    <row r="32" spans="2:40" ht="15" customHeight="1">
+    <row r="32" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B32" s="55"/>
       <c r="C32" s="38"/>
       <c r="D32" s="42" t="s">
@@ -19797,7 +20415,7 @@
       <c r="AM32" s="67"/>
       <c r="AN32" s="90"/>
     </row>
-    <row r="33" spans="2:40" ht="6" customHeight="1">
+    <row r="33" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B33" s="55"/>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
@@ -19838,7 +20456,7 @@
       <c r="AM33" s="75"/>
       <c r="AN33" s="76"/>
     </row>
-    <row r="34" spans="2:40" ht="15" customHeight="1">
+    <row r="34" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B34" s="55"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38" t="s">
@@ -19887,7 +20505,7 @@
       <c r="AM34" s="71"/>
       <c r="AN34" s="76"/>
     </row>
-    <row r="35" spans="2:40" ht="15" customHeight="1" thickBot="1">
+    <row r="35" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="54"/>
       <c r="C35" s="43"/>
       <c r="D35" s="43"/>
@@ -19928,7 +20546,7 @@
       <c r="AM35" s="84"/>
       <c r="AN35" s="85"/>
     </row>
-    <row r="36" spans="2:40" ht="15" customHeight="1">
+    <row r="36" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B36" s="56"/>
     </row>
   </sheetData>

--- a/docs/テスト種別&観点カタログガイド.xlsx
+++ b/docs/テスト種別&観点カタログガイド.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AC7344-8878-4BC0-9511-C02005A1781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B560F1-30CA-4C24-ADF3-AC44123A4E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="683" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -6743,6 +6743,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="513" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -6770,9 +6773,6 @@
     </xf>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="560">
@@ -13947,9 +13947,7 @@
   </sheetPr>
   <dimension ref="A1:AI512"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
@@ -15862,9 +15860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A85F0B4-1BD6-4D23-B516-8BB9E43C3A44}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
@@ -15892,7 +15888,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="129" t="s">
         <v>333</v>
       </c>
     </row>
@@ -18030,14 +18026,14 @@
       <c r="B19" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="129" t="s">
+      <c r="D19" s="131"/>
+      <c r="E19" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="130"/>
+      <c r="F19" s="131"/>
       <c r="G19" s="11" t="s">
         <v>139</v>
       </c>
@@ -19237,109 +19233,109 @@
     </row>
     <row r="6" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="51"/>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="131" t="s">
+      <c r="D6" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="133" t="s">
+      <c r="E6" s="134" t="s">
         <v>253</v>
       </c>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="134"/>
-      <c r="U6" s="134"/>
-      <c r="V6" s="134"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="134"/>
-      <c r="Y6" s="134"/>
-      <c r="Z6" s="134"/>
-      <c r="AA6" s="134"/>
-      <c r="AB6" s="134"/>
-      <c r="AC6" s="134"/>
-      <c r="AD6" s="134"/>
-      <c r="AE6" s="134"/>
-      <c r="AF6" s="134"/>
-      <c r="AG6" s="134"/>
-      <c r="AH6" s="134"/>
-      <c r="AI6" s="134"/>
-      <c r="AJ6" s="134"/>
-      <c r="AK6" s="134"/>
-      <c r="AL6" s="134"/>
-      <c r="AM6" s="134"/>
-      <c r="AN6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="135"/>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135"/>
+      <c r="Y6" s="135"/>
+      <c r="Z6" s="135"/>
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="135"/>
+      <c r="AD6" s="135"/>
+      <c r="AE6" s="135"/>
+      <c r="AF6" s="135"/>
+      <c r="AG6" s="135"/>
+      <c r="AH6" s="135"/>
+      <c r="AI6" s="135"/>
+      <c r="AJ6" s="135"/>
+      <c r="AK6" s="135"/>
+      <c r="AL6" s="135"/>
+      <c r="AM6" s="135"/>
+      <c r="AN6" s="136"/>
     </row>
     <row r="7" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="51"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="136">
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="137">
         <v>4</v>
       </c>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="139">
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="140">
         <v>5</v>
       </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="140">
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="141">
         <v>6</v>
       </c>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139">
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140">
         <v>7</v>
       </c>
-      <c r="R7" s="139"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="139"/>
-      <c r="U7" s="139">
+      <c r="R7" s="140"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="140"/>
+      <c r="U7" s="140">
         <v>8</v>
       </c>
-      <c r="V7" s="139"/>
-      <c r="W7" s="139"/>
-      <c r="X7" s="139"/>
-      <c r="Y7" s="139">
+      <c r="V7" s="140"/>
+      <c r="W7" s="140"/>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="140">
         <v>9</v>
       </c>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="139"/>
-      <c r="AB7" s="139"/>
-      <c r="AC7" s="139">
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="140"/>
+      <c r="AB7" s="140"/>
+      <c r="AC7" s="140">
         <v>10</v>
       </c>
-      <c r="AD7" s="139"/>
-      <c r="AE7" s="139"/>
-      <c r="AF7" s="139"/>
-      <c r="AG7" s="139">
+      <c r="AD7" s="140"/>
+      <c r="AE7" s="140"/>
+      <c r="AF7" s="140"/>
+      <c r="AG7" s="140">
         <v>11</v>
       </c>
-      <c r="AH7" s="139"/>
-      <c r="AI7" s="139"/>
-      <c r="AJ7" s="139"/>
-      <c r="AK7" s="141" t="s">
+      <c r="AH7" s="140"/>
+      <c r="AI7" s="140"/>
+      <c r="AJ7" s="140"/>
+      <c r="AK7" s="142" t="s">
         <v>217</v>
       </c>
-      <c r="AL7" s="141"/>
-      <c r="AM7" s="141"/>
-      <c r="AN7" s="142"/>
+      <c r="AL7" s="142"/>
+      <c r="AM7" s="142"/>
+      <c r="AN7" s="143"/>
     </row>
     <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="54"/>

--- a/docs/テスト種別&観点カタログガイド.xlsx
+++ b/docs/テスト種別&観点カタログガイド.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B560F1-30CA-4C24-ADF3-AC44123A4E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42FF404-0698-4B0D-A6E1-8F000BC0DEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="683" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -8925,8 +8925,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="4693314" y="5031050"/>
-          <a:ext cx="1340617" cy="4416336"/>
+          <a:off x="4747289" y="5202500"/>
+          <a:ext cx="1356492" cy="4568736"/>
           <a:chOff x="1223082" y="3963508"/>
           <a:chExt cx="1425662" cy="2596557"/>
         </a:xfrm>
@@ -9259,8 +9259,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1092200" y="1841500"/>
-          <a:ext cx="6175239" cy="638139"/>
+          <a:off x="1104900" y="1905000"/>
+          <a:ext cx="6245089" cy="657189"/>
           <a:chOff x="244031" y="848544"/>
           <a:chExt cx="6245089" cy="657189"/>
         </a:xfrm>
@@ -9826,8 +9826,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1488226" y="5332102"/>
-          <a:ext cx="1600010" cy="694680"/>
+          <a:off x="1504101" y="5509902"/>
+          <a:ext cx="1619060" cy="720080"/>
           <a:chOff x="244031" y="5410937"/>
           <a:chExt cx="1620000" cy="720080"/>
         </a:xfrm>
@@ -10386,8 +10386,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1487294" y="3568513"/>
-          <a:ext cx="1599585" cy="617740"/>
+          <a:off x="1503169" y="3689163"/>
+          <a:ext cx="1618635" cy="636790"/>
           <a:chOff x="3501008" y="2278569"/>
           <a:chExt cx="1620000" cy="636790"/>
         </a:xfrm>
@@ -10753,8 +10753,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1487286" y="6374122"/>
-          <a:ext cx="1600950" cy="695757"/>
+          <a:off x="1503161" y="6590022"/>
+          <a:ext cx="1620000" cy="721157"/>
           <a:chOff x="244031" y="6851097"/>
           <a:chExt cx="1620000" cy="721157"/>
         </a:xfrm>
@@ -11254,8 +11254,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5201872" y="4522521"/>
-          <a:ext cx="1957775" cy="849264"/>
+          <a:off x="5262197" y="4674921"/>
+          <a:ext cx="1980000" cy="881014"/>
           <a:chOff x="4288257" y="4576042"/>
           <a:chExt cx="1980000" cy="881014"/>
         </a:xfrm>
@@ -11667,8 +11667,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1514701" y="4455389"/>
-          <a:ext cx="1600950" cy="701753"/>
+          <a:off x="1530576" y="4607789"/>
+          <a:ext cx="1620000" cy="720803"/>
           <a:chOff x="244031" y="4020302"/>
           <a:chExt cx="1620000" cy="720803"/>
         </a:xfrm>
@@ -12233,8 +12233,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5192044" y="3565664"/>
-          <a:ext cx="1957775" cy="745312"/>
+          <a:off x="5252369" y="3686314"/>
+          <a:ext cx="1980000" cy="770712"/>
           <a:chOff x="4260945" y="3645066"/>
           <a:chExt cx="1980000" cy="770712"/>
         </a:xfrm>
@@ -12648,8 +12648,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1108817" y="2608188"/>
-          <a:ext cx="6175239" cy="633524"/>
+          <a:off x="1121517" y="2697088"/>
+          <a:ext cx="6245089" cy="652574"/>
           <a:chOff x="260648" y="1640632"/>
           <a:chExt cx="6245089" cy="652574"/>
         </a:xfrm>
@@ -13048,8 +13048,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1487286" y="8614521"/>
-          <a:ext cx="1599585" cy="678626"/>
+          <a:off x="1503161" y="8906621"/>
+          <a:ext cx="1618635" cy="704026"/>
           <a:chOff x="1596738" y="9029887"/>
           <a:chExt cx="1642168" cy="704026"/>
         </a:xfrm>
@@ -13947,14 +13947,14 @@
   </sheetPr>
   <dimension ref="A1:AI512"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="99"/>
+    <col min="1" max="16384" width="4.83203125" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="96"/>
       <c r="B1" s="97"/>
       <c r="C1" s="98"/>
@@ -13991,7 +13991,7 @@
       <c r="AH1" s="96"/>
       <c r="AI1" s="96"/>
     </row>
-    <row r="2" spans="1:35" ht="13.15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:35" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="100"/>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
@@ -14028,7 +14028,7 @@
       <c r="AH2" s="96"/>
       <c r="AI2" s="96"/>
     </row>
-    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="96"/>
       <c r="B3" s="96"/>
       <c r="C3" s="96"/>
@@ -14065,7 +14065,7 @@
       <c r="AH3" s="96"/>
       <c r="AI3" s="96"/>
     </row>
-    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="96"/>
       <c r="B4" s="96"/>
       <c r="C4" s="96"/>
@@ -14102,7 +14102,7 @@
       <c r="AH4" s="96"/>
       <c r="AI4" s="96"/>
     </row>
-    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="96"/>
       <c r="B5" s="96"/>
       <c r="C5" s="96"/>
@@ -14139,7 +14139,7 @@
       <c r="AH5" s="96"/>
       <c r="AI5" s="96"/>
     </row>
-    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="96"/>
       <c r="B6" s="96"/>
       <c r="C6" s="96"/>
@@ -14176,7 +14176,7 @@
       <c r="AH6" s="96"/>
       <c r="AI6" s="96"/>
     </row>
-    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="96"/>
       <c r="B7" s="96"/>
       <c r="C7" s="96"/>
@@ -14213,7 +14213,7 @@
       <c r="AH7" s="96"/>
       <c r="AI7" s="96"/>
     </row>
-    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="96"/>
       <c r="B8" s="96"/>
       <c r="C8" s="96"/>
@@ -14250,7 +14250,7 @@
       <c r="AH8" s="96"/>
       <c r="AI8" s="96"/>
     </row>
-    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="96"/>
       <c r="B9" s="96"/>
       <c r="C9" s="96"/>
@@ -14287,7 +14287,7 @@
       <c r="AH9" s="96"/>
       <c r="AI9" s="96"/>
     </row>
-    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="96"/>
       <c r="B10" s="96"/>
       <c r="C10" s="96"/>
@@ -14324,7 +14324,7 @@
       <c r="AH10" s="96"/>
       <c r="AI10" s="96"/>
     </row>
-    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="96"/>
       <c r="B11" s="96"/>
       <c r="C11" s="96"/>
@@ -14361,7 +14361,7 @@
       <c r="AH11" s="96"/>
       <c r="AI11" s="96"/>
     </row>
-    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="96"/>
       <c r="B12" s="96"/>
       <c r="C12" s="96"/>
@@ -14398,7 +14398,7 @@
       <c r="AH12" s="96"/>
       <c r="AI12" s="96"/>
     </row>
-    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="96"/>
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
@@ -14435,7 +14435,7 @@
       <c r="AH13" s="96"/>
       <c r="AI13" s="96"/>
     </row>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="96"/>
       <c r="B14" s="96"/>
       <c r="C14" s="96"/>
@@ -14472,7 +14472,7 @@
       <c r="AH14" s="96"/>
       <c r="AI14" s="96"/>
     </row>
-    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="96"/>
       <c r="B15" s="96"/>
       <c r="C15" s="96"/>
@@ -14509,7 +14509,7 @@
       <c r="AH15" s="96"/>
       <c r="AI15" s="96"/>
     </row>
-    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="96"/>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
@@ -14546,7 +14546,7 @@
       <c r="AH16" s="96"/>
       <c r="AI16" s="96"/>
     </row>
-    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="96"/>
       <c r="B17" s="96"/>
       <c r="C17" s="96"/>
@@ -14583,7 +14583,7 @@
       <c r="AH17" s="96"/>
       <c r="AI17" s="96"/>
     </row>
-    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="96"/>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
@@ -14620,7 +14620,7 @@
       <c r="AH18" s="96"/>
       <c r="AI18" s="96"/>
     </row>
-    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="96"/>
       <c r="B19" s="96"/>
       <c r="C19" s="96"/>
@@ -14657,7 +14657,7 @@
       <c r="AH19" s="96"/>
       <c r="AI19" s="96"/>
     </row>
-    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="96"/>
       <c r="B20" s="96"/>
       <c r="C20" s="96"/>
@@ -14694,7 +14694,7 @@
       <c r="AH20" s="96"/>
       <c r="AI20" s="96"/>
     </row>
-    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="96"/>
       <c r="B21" s="96"/>
       <c r="C21" s="96"/>
@@ -14731,7 +14731,7 @@
       <c r="AH21" s="96"/>
       <c r="AI21" s="96"/>
     </row>
-    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="96"/>
       <c r="B22" s="96"/>
       <c r="C22" s="96"/>
@@ -14768,7 +14768,7 @@
       <c r="AH22" s="96"/>
       <c r="AI22" s="96"/>
     </row>
-    <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="96"/>
       <c r="B23" s="96"/>
       <c r="C23" s="96"/>
@@ -14807,7 +14807,7 @@
       <c r="AH23" s="96"/>
       <c r="AI23" s="96"/>
     </row>
-    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="96"/>
       <c r="B24" s="96"/>
       <c r="C24" s="96"/>
@@ -14844,7 +14844,7 @@
       <c r="AH24" s="96"/>
       <c r="AI24" s="96"/>
     </row>
-    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="96"/>
       <c r="B25" s="96"/>
       <c r="C25" s="96"/>
@@ -14883,7 +14883,7 @@
       <c r="AH25" s="96"/>
       <c r="AI25" s="96"/>
     </row>
-    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="96"/>
       <c r="B26" s="96"/>
       <c r="C26" s="96"/>
@@ -14920,7 +14920,7 @@
       <c r="AH26" s="96"/>
       <c r="AI26" s="96"/>
     </row>
-    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="96"/>
       <c r="B27" s="96"/>
       <c r="C27" s="96"/>
@@ -14957,7 +14957,7 @@
       <c r="AH27" s="96"/>
       <c r="AI27" s="96"/>
     </row>
-    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="96"/>
       <c r="B28" s="96"/>
       <c r="C28" s="96"/>
@@ -14994,7 +14994,7 @@
       <c r="AH28" s="96"/>
       <c r="AI28" s="96"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="96"/>
       <c r="B29" s="96"/>
       <c r="C29" s="96"/>
@@ -15031,7 +15031,7 @@
       <c r="AH29" s="96"/>
       <c r="AI29" s="96"/>
     </row>
-    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="96"/>
       <c r="B30" s="96"/>
       <c r="C30" s="96"/>
@@ -15068,7 +15068,7 @@
       <c r="AH30" s="96"/>
       <c r="AI30" s="96"/>
     </row>
-    <row r="31" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="96"/>
       <c r="B31" s="96"/>
       <c r="C31" s="96"/>
@@ -15105,7 +15105,7 @@
       <c r="AH31" s="96"/>
       <c r="AI31" s="96"/>
     </row>
-    <row r="32" spans="1:35" ht="28.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="96"/>
       <c r="B32" s="96"/>
       <c r="C32" s="96"/>
@@ -15142,7 +15142,7 @@
       <c r="AH32" s="96"/>
       <c r="AI32" s="96"/>
     </row>
-    <row r="33" spans="1:35" ht="25.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:35" ht="24.75" x14ac:dyDescent="0.45">
       <c r="A33" s="96"/>
       <c r="B33" s="96"/>
       <c r="C33" s="96"/>
@@ -15179,7 +15179,7 @@
       <c r="AH33" s="96"/>
       <c r="AI33" s="96"/>
     </row>
-    <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="96"/>
       <c r="B34" s="96"/>
       <c r="C34" s="96"/>
@@ -15216,7 +15216,7 @@
       <c r="AH34" s="96"/>
       <c r="AI34" s="96"/>
     </row>
-    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="96"/>
       <c r="B35" s="96"/>
       <c r="C35" s="96"/>
@@ -15253,7 +15253,7 @@
       <c r="AH35" s="96"/>
       <c r="AI35" s="96"/>
     </row>
-    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="96"/>
       <c r="B36" s="96"/>
       <c r="C36" s="96"/>
@@ -15290,7 +15290,7 @@
       <c r="AH36" s="96"/>
       <c r="AI36" s="96"/>
     </row>
-    <row r="37" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="96"/>
       <c r="B37" s="96" t="s">
         <v>310</v>
@@ -15332,7 +15332,7 @@
       <c r="AH37" s="96"/>
       <c r="AI37" s="96"/>
     </row>
-    <row r="38" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="96"/>
       <c r="B38" s="96" t="s">
         <v>320</v>
@@ -15371,480 +15371,480 @@
       <c r="AH38" s="96"/>
       <c r="AI38" s="96"/>
     </row>
-    <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -15860,19 +15860,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A85F0B4-1BD6-4D23-B516-8BB9E43C3A44}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="128" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="128" customWidth="1"/>
-    <col min="3" max="4" width="12.77734375" style="128" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" style="128" customWidth="1"/>
-    <col min="6" max="6" width="60.77734375" style="128" customWidth="1"/>
-    <col min="7" max="16384" width="4.77734375" style="128"/>
+    <col min="1" max="1" width="5.5" style="128" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="128" customWidth="1"/>
+    <col min="3" max="4" width="12.83203125" style="128" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" style="128" customWidth="1"/>
+    <col min="6" max="6" width="60.83203125" style="128" customWidth="1"/>
+    <col min="7" max="16384" width="4.83203125" style="128"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="119" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" s="119" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="117" t="s">
         <v>321</v>
       </c>
@@ -15882,17 +15884,17 @@
       <c r="E1" s="117"/>
       <c r="F1" s="118"/>
     </row>
-    <row r="2" spans="1:6" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="119" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="129" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="122" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="122" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="120" t="s">
         <v>322</v>
       </c>
@@ -15912,7 +15914,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="122" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="122" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A5" s="123">
         <v>1</v>
       </c>
@@ -15920,7 +15922,7 @@
         <v>328</v>
       </c>
       <c r="C5" s="125">
-        <v>43370</v>
+        <v>43328</v>
       </c>
       <c r="D5" s="124" t="s">
         <v>329</v>
@@ -15951,522 +15953,522 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="25"/>
+    <col min="1" max="16384" width="4.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C5" s="25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C9" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C11" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C13" s="25" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C14" s="25" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C18" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C19" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C20" s="25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C21" s="25" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C23" s="25" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C27" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C28" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C29" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C30" s="25" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C32" s="25" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D33" s="25" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E34" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E35" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E36" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E37" s="25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D39" s="25" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.5">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E40" s="25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.5">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E41" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.5">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E42" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.5">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E43" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.5">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E44" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.5">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E45" s="25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.5">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E46" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.5">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E47" s="25" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.5">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E48" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E49" s="25" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" s="25" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C53" s="25" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D54" s="25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D55" s="25" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D56" s="25" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C58" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D59" s="25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D60" s="25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E61" s="25" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E62" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E63" s="25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E64" s="25" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D65" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D67" s="25" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D68" s="25" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E69" s="25" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C71" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D72" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D73" s="25" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76" s="25" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C77" s="25" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D78" s="25" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D79" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D80" s="25" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D82" s="25" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C84" s="25" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D85" s="25" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D86" s="25" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C88" s="25" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D89" s="25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E90" s="25" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D91" s="25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E92" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D93" s="25" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E94" s="25" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D95" s="25" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E96" s="25" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D97" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E98" s="25" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D99" s="25" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E100" s="25" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D101" s="25" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E102" s="25" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B105" s="25" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C106" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C107" s="25" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C108" s="25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C109" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C111" s="25" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C112" s="25" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C113" s="25" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C114" s="25" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D115" s="25" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D116" s="25" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C117" s="25" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D118" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C120" s="25" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C121" s="25" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C122" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D123" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D124" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D125" s="25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D126" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D127" s="25" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D128" s="25" t="s">
         <v>54</v>
       </c>
@@ -16488,64 +16490,64 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="4.77734375" style="1"/>
-    <col min="4" max="5" width="4.77734375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="4.77734375" style="1"/>
+    <col min="1" max="3" width="4.83203125" style="1"/>
+    <col min="4" max="5" width="4.83203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="4.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C9" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C54" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="55" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C55" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C57" s="13" t="s">
         <v>6</v>
       </c>
@@ -16587,7 +16589,7 @@
       <c r="AK57" s="3"/>
       <c r="AL57" s="14"/>
     </row>
-    <row r="58" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C58" s="6"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -16627,7 +16629,7 @@
       <c r="AK58" s="4"/>
       <c r="AL58" s="15"/>
     </row>
-    <row r="59" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C59" s="6"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -16667,7 +16669,7 @@
       <c r="AK59" s="4"/>
       <c r="AL59" s="15"/>
     </row>
-    <row r="60" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C60" s="6"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -16707,7 +16709,7 @@
       <c r="AK60" s="4"/>
       <c r="AL60" s="15"/>
     </row>
-    <row r="61" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C61" s="6"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -16747,7 +16749,7 @@
       <c r="AK61" s="4"/>
       <c r="AL61" s="15"/>
     </row>
-    <row r="62" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C62" s="6"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -16787,7 +16789,7 @@
       <c r="AK62" s="4"/>
       <c r="AL62" s="15"/>
     </row>
-    <row r="63" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C63" s="6"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -16827,7 +16829,7 @@
       <c r="AK63" s="4"/>
       <c r="AL63" s="15"/>
     </row>
-    <row r="64" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C64" s="6"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -16867,7 +16869,7 @@
       <c r="AK64" s="4"/>
       <c r="AL64" s="15"/>
     </row>
-    <row r="65" spans="3:38" x14ac:dyDescent="0.5">
+    <row r="65" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C65" s="6"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -16907,7 +16909,7 @@
       <c r="AK65" s="4"/>
       <c r="AL65" s="15"/>
     </row>
-    <row r="66" spans="3:38" x14ac:dyDescent="0.5">
+    <row r="66" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C66" s="6"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -16919,7 +16921,7 @@
       </c>
       <c r="AL66" s="15"/>
     </row>
-    <row r="67" spans="3:38" x14ac:dyDescent="0.5">
+    <row r="67" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C67" s="6"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -16959,7 +16961,7 @@
       <c r="AK67" s="4"/>
       <c r="AL67" s="15"/>
     </row>
-    <row r="68" spans="3:38" x14ac:dyDescent="0.5">
+    <row r="68" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C68" s="6"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -16999,7 +17001,7 @@
       <c r="AK68" s="4"/>
       <c r="AL68" s="15"/>
     </row>
-    <row r="69" spans="3:38" x14ac:dyDescent="0.5">
+    <row r="69" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C69" s="6"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -17039,7 +17041,7 @@
       <c r="AK69" s="4"/>
       <c r="AL69" s="15"/>
     </row>
-    <row r="70" spans="3:38" x14ac:dyDescent="0.5">
+    <row r="70" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C70" s="6"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -17079,7 +17081,7 @@
       <c r="AK70" s="4"/>
       <c r="AL70" s="15"/>
     </row>
-    <row r="71" spans="3:38" x14ac:dyDescent="0.5">
+    <row r="71" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C71" s="6"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -17119,7 +17121,7 @@
       <c r="AK71" s="4"/>
       <c r="AL71" s="15"/>
     </row>
-    <row r="72" spans="3:38" x14ac:dyDescent="0.5">
+    <row r="72" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C72" s="6"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -17159,7 +17161,7 @@
       <c r="AK72" s="4"/>
       <c r="AL72" s="15"/>
     </row>
-    <row r="73" spans="3:38" x14ac:dyDescent="0.5">
+    <row r="73" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C73" s="6"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -17199,7 +17201,7 @@
       <c r="AK73" s="4"/>
       <c r="AL73" s="15"/>
     </row>
-    <row r="74" spans="3:38" x14ac:dyDescent="0.5">
+    <row r="74" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C74" s="6"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -17239,7 +17241,7 @@
       <c r="AK74" s="4"/>
       <c r="AL74" s="15"/>
     </row>
-    <row r="75" spans="3:38" x14ac:dyDescent="0.5">
+    <row r="75" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C75" s="8"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -17277,7 +17279,7 @@
       <c r="AK75" s="9"/>
       <c r="AL75" s="16"/>
     </row>
-    <row r="76" spans="3:38" x14ac:dyDescent="0.5">
+    <row r="76" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C76" s="6" t="s">
         <v>7</v>
       </c>
@@ -17319,7 +17321,7 @@
       <c r="AK76" s="3"/>
       <c r="AL76" s="15"/>
     </row>
-    <row r="77" spans="3:38" x14ac:dyDescent="0.5">
+    <row r="77" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C77" s="6"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -17359,7 +17361,7 @@
       <c r="AK77" s="4"/>
       <c r="AL77" s="15"/>
     </row>
-    <row r="78" spans="3:38" x14ac:dyDescent="0.5">
+    <row r="78" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C78" s="6"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -17399,7 +17401,7 @@
       <c r="AK78" s="4"/>
       <c r="AL78" s="15"/>
     </row>
-    <row r="79" spans="3:38" x14ac:dyDescent="0.5">
+    <row r="79" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C79" s="6"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -17439,7 +17441,7 @@
       <c r="AK79" s="4"/>
       <c r="AL79" s="15"/>
     </row>
-    <row r="80" spans="3:38" x14ac:dyDescent="0.5">
+    <row r="80" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C80" s="6"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -17479,7 +17481,7 @@
       <c r="AK80" s="4"/>
       <c r="AL80" s="15"/>
     </row>
-    <row r="81" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C81" s="6"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -17519,7 +17521,7 @@
       <c r="AK81" s="4"/>
       <c r="AL81" s="15"/>
     </row>
-    <row r="82" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C82" s="6"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -17559,7 +17561,7 @@
       <c r="AK82" s="4"/>
       <c r="AL82" s="15"/>
     </row>
-    <row r="83" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C83" s="6"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -17599,7 +17601,7 @@
       <c r="AK83" s="4"/>
       <c r="AL83" s="15"/>
     </row>
-    <row r="84" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C84" s="6"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -17639,7 +17641,7 @@
       <c r="AK84" s="4"/>
       <c r="AL84" s="15"/>
     </row>
-    <row r="85" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C85" s="8"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
@@ -17677,182 +17679,182 @@
       <c r="AK85" s="9"/>
       <c r="AL85" s="16"/>
     </row>
-    <row r="88" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B88" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="89" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:38" x14ac:dyDescent="0.35">
       <c r="C89" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:38" x14ac:dyDescent="0.35">
       <c r="D90" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="91" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:38" x14ac:dyDescent="0.35">
       <c r="D91" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="92" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:38" x14ac:dyDescent="0.35">
       <c r="D92" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:38" x14ac:dyDescent="0.35">
       <c r="D93" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:38" x14ac:dyDescent="0.35">
       <c r="D94" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:38" x14ac:dyDescent="0.35">
       <c r="D95" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="2:38" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:38" x14ac:dyDescent="0.35">
       <c r="D96" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C98" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D99" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D100" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E101" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E102" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D103" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E104" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E105" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E106" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C108" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D109" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D110" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D111" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D113" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E114" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.35">
       <c r="F115" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="116" spans="4:6" x14ac:dyDescent="0.35">
       <c r="F116" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.35">
       <c r="F117" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E119" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.35">
       <c r="F120" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.35">
       <c r="F121" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.35">
       <c r="F122" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.35">
       <c r="F123" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D125" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E126" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E127" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.35">
       <c r="E128" s="1" t="s">
         <v>50</v>
       </c>
@@ -17875,19 +17877,19 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="48.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="48.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="42" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="83.109375" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="4.77734375" style="5"/>
+    <col min="7" max="7" width="83.1640625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="4.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>226</v>
       </c>
@@ -17895,13 +17897,13 @@
       <c r="C1" s="45"/>
       <c r="D1" s="18"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
       <c r="D2" s="18"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="25"/>
       <c r="B3" s="25" t="s">
         <v>196</v>
@@ -17909,7 +17911,7 @@
       <c r="C3" s="45"/>
       <c r="D3" s="18"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="25"/>
       <c r="B4" s="25" t="s">
         <v>199</v>
@@ -17917,7 +17919,7 @@
       <c r="C4" s="45"/>
       <c r="D4" s="18"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
       <c r="B5" s="25" t="s">
         <v>308</v>
@@ -17925,7 +17927,7 @@
       <c r="C5" s="45"/>
       <c r="D5" s="18"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="25"/>
       <c r="B6" s="25" t="s">
         <v>228</v>
@@ -17933,13 +17935,13 @@
       <c r="C6" s="45"/>
       <c r="D6" s="18"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="25"/>
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="25"/>
       <c r="B8" s="25" t="s">
         <v>130</v>
@@ -17947,7 +17949,7 @@
       <c r="C8" s="45"/>
       <c r="D8" s="18"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="25" t="s">
         <v>254</v>
@@ -17955,7 +17957,7 @@
       <c r="C9" s="45"/>
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="25"/>
       <c r="B10" s="46" t="s">
         <v>131</v>
@@ -17967,7 +17969,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
       <c r="B11" s="47"/>
       <c r="C11" s="32" t="s">
@@ -17977,7 +17979,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="25"/>
       <c r="B12" s="46" t="s">
         <v>132</v>
@@ -17989,7 +17991,7 @@
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="25"/>
       <c r="B13" s="47"/>
       <c r="C13" s="32" t="s">
@@ -17999,7 +18001,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="25"/>
       <c r="B14" s="26" t="s">
         <v>133</v>
@@ -18011,7 +18013,7 @@
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
     </row>
-    <row r="15" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="26" t="s">
         <v>236</v>
       </c>
@@ -18022,7 +18024,7 @@
       <c r="E15" s="49"/>
       <c r="F15" s="34"/>
     </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="48" t="s">
         <v>136</v>
       </c>
@@ -18038,7 +18040,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="28" t="s">
         <v>314</v>
       </c>
@@ -18056,7 +18058,7 @@
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="30"/>
       <c r="C21" s="31"/>
       <c r="D21" s="12" t="s">
@@ -18070,7 +18072,7 @@
       </c>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="30"/>
       <c r="C22" s="31"/>
       <c r="D22" s="12" t="s">
@@ -18084,7 +18086,7 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="30"/>
       <c r="C23" s="31"/>
       <c r="D23" s="12" t="s">
@@ -18098,7 +18100,7 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="30"/>
       <c r="C24" s="31"/>
       <c r="D24" s="12" t="s">
@@ -18112,7 +18114,7 @@
       </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="30"/>
       <c r="C25" s="31"/>
       <c r="D25" s="12" t="s">
@@ -18126,7 +18128,7 @@
       </c>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="30"/>
       <c r="C26" s="31"/>
       <c r="D26" s="12" t="s">
@@ -18140,7 +18142,7 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="30"/>
       <c r="C27" s="31"/>
       <c r="D27" s="12" t="s">
@@ -18154,7 +18156,7 @@
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="30"/>
       <c r="C28" s="31"/>
       <c r="D28" s="12" t="s">
@@ -18168,7 +18170,7 @@
       </c>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
       <c r="D29" s="12" t="s">
@@ -18182,7 +18184,7 @@
       </c>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="30"/>
       <c r="C30" s="32"/>
       <c r="D30" s="12" t="s">
@@ -18196,7 +18198,7 @@
       </c>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="30"/>
       <c r="C31" s="31" t="s">
         <v>122</v>
@@ -18214,7 +18216,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="30"/>
       <c r="C32" s="31"/>
       <c r="D32" s="12" t="s">
@@ -18228,7 +18230,7 @@
       </c>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="30"/>
       <c r="C33" s="31"/>
       <c r="D33" s="12" t="s">
@@ -18242,7 +18244,7 @@
       </c>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="30"/>
       <c r="C34" s="31"/>
       <c r="D34" s="12" t="s">
@@ -18256,7 +18258,7 @@
       </c>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="30"/>
       <c r="C35" s="31"/>
       <c r="D35" s="12" t="s">
@@ -18270,7 +18272,7 @@
       </c>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="30"/>
       <c r="C36" s="31"/>
       <c r="D36" s="12" t="s">
@@ -18284,7 +18286,7 @@
       </c>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="30"/>
       <c r="C37" s="31"/>
       <c r="D37" s="12" t="s">
@@ -18298,7 +18300,7 @@
       </c>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="30"/>
       <c r="C38" s="31"/>
       <c r="D38" s="12" t="s">
@@ -18312,7 +18314,7 @@
       </c>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="30"/>
       <c r="C39" s="31"/>
       <c r="D39" s="12" t="s">
@@ -18326,7 +18328,7 @@
       </c>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="2:7" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="30"/>
       <c r="C40" s="31"/>
       <c r="D40" s="12" t="s">
@@ -18342,7 +18344,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="30"/>
       <c r="C41" s="31"/>
       <c r="D41" s="12" t="s">
@@ -18356,7 +18358,7 @@
       </c>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="30"/>
       <c r="C42" s="31"/>
       <c r="D42" s="12" t="s">
@@ -18370,7 +18372,7 @@
       </c>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="30"/>
       <c r="C43" s="31"/>
       <c r="D43" s="12" t="s">
@@ -18384,7 +18386,7 @@
       </c>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="30"/>
       <c r="C44" s="31"/>
       <c r="D44" s="12" t="s">
@@ -18398,7 +18400,7 @@
       </c>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="30"/>
       <c r="C45" s="31"/>
       <c r="D45" s="12" t="s">
@@ -18412,7 +18414,7 @@
       </c>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="30"/>
       <c r="C46" s="31"/>
       <c r="D46" s="12" t="s">
@@ -18428,7 +18430,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="30"/>
       <c r="C47" s="31"/>
       <c r="D47" s="12" t="s">
@@ -18442,7 +18444,7 @@
       </c>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="30"/>
       <c r="C48" s="31"/>
       <c r="D48" s="12" t="s">
@@ -18456,7 +18458,7 @@
       </c>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="116"/>
       <c r="C49" s="116"/>
       <c r="D49" s="12" t="s">
@@ -18472,7 +18474,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="33" t="s">
         <v>319</v>
       </c>
@@ -18490,7 +18492,7 @@
       </c>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="12" t="s">
@@ -18504,7 +18506,7 @@
       </c>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="30"/>
       <c r="C52" s="17"/>
       <c r="D52" s="12" t="s">
@@ -18518,7 +18520,7 @@
       </c>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="12" t="s">
@@ -18532,7 +18534,7 @@
       </c>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="12" t="s">
@@ -18546,7 +18548,7 @@
       </c>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="30"/>
       <c r="C55" s="27" t="s">
         <v>129</v>
@@ -18560,7 +18562,7 @@
       </c>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="30"/>
       <c r="C56" s="27" t="s">
         <v>123</v>
@@ -18574,7 +18576,7 @@
       </c>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="30"/>
       <c r="C57" s="27" t="s">
         <v>170</v>
@@ -18588,7 +18590,7 @@
       </c>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="115"/>
       <c r="C58" s="27" t="s">
         <v>186</v>
@@ -18602,7 +18604,7 @@
       </c>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="115"/>
       <c r="C59" s="27" t="s">
         <v>171</v>
@@ -18616,7 +18618,7 @@
       </c>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="30"/>
       <c r="C60" s="27" t="s">
         <v>172</v>
@@ -18630,7 +18632,7 @@
       </c>
       <c r="G60" s="12"/>
     </row>
-    <row r="61" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="30"/>
       <c r="C61" s="27" t="s">
         <v>231</v>
@@ -18644,7 +18646,7 @@
       </c>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="30"/>
       <c r="C62" s="27" t="s">
         <v>174</v>
@@ -18658,7 +18660,7 @@
       </c>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="30"/>
       <c r="C63" s="27" t="s">
         <v>175</v>
@@ -18672,7 +18674,7 @@
       </c>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="30"/>
       <c r="C64" s="27" t="s">
         <v>125</v>
@@ -18686,7 +18688,7 @@
       </c>
       <c r="G64" s="12"/>
     </row>
-    <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="30"/>
       <c r="C65" s="27" t="s">
         <v>176</v>
@@ -18700,7 +18702,7 @@
       </c>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="30"/>
       <c r="C66" s="27" t="s">
         <v>173</v>
@@ -18714,7 +18716,7 @@
       </c>
       <c r="G66" s="12"/>
     </row>
-    <row r="67" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="30"/>
       <c r="C67" s="27" t="s">
         <v>124</v>
@@ -18728,7 +18730,7 @@
       </c>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="30"/>
       <c r="C68" s="27" t="s">
         <v>128</v>
@@ -18742,7 +18744,7 @@
       </c>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="30"/>
       <c r="C69" s="27" t="s">
         <v>127</v>
@@ -18756,7 +18758,7 @@
       </c>
       <c r="G69" s="12"/>
     </row>
-    <row r="70" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="30"/>
       <c r="C70" s="27" t="s">
         <v>230</v>
@@ -18770,7 +18772,7 @@
       </c>
       <c r="G70" s="12"/>
     </row>
-    <row r="71" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="30"/>
       <c r="C71" s="27" t="s">
         <v>229</v>
@@ -18784,7 +18786,7 @@
       </c>
       <c r="G71" s="12"/>
     </row>
-    <row r="72" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="30"/>
       <c r="C72" s="27" t="s">
         <v>126</v>
@@ -18798,7 +18800,7 @@
       </c>
       <c r="G72" s="12"/>
     </row>
-    <row r="73" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="30"/>
       <c r="C73" s="27" t="s">
         <v>177</v>
@@ -18812,7 +18814,7 @@
       </c>
       <c r="G73" s="12"/>
     </row>
-    <row r="74" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="30"/>
       <c r="C74" s="27" t="s">
         <v>232</v>
@@ -18826,7 +18828,7 @@
       </c>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="30"/>
       <c r="C75" s="27" t="s">
         <v>180</v>
@@ -18840,7 +18842,7 @@
       </c>
       <c r="G75" s="12"/>
     </row>
-    <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="30"/>
       <c r="C76" s="27" t="s">
         <v>179</v>
@@ -18854,7 +18856,7 @@
       </c>
       <c r="G76" s="12"/>
     </row>
-    <row r="77" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="30"/>
       <c r="C77" s="27" t="s">
         <v>181</v>
@@ -18868,7 +18870,7 @@
       </c>
       <c r="G77" s="12"/>
     </row>
-    <row r="78" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="30"/>
       <c r="C78" s="27" t="s">
         <v>182</v>
@@ -18882,7 +18884,7 @@
       </c>
       <c r="G78" s="12"/>
     </row>
-    <row r="79" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="30"/>
       <c r="C79" s="27" t="s">
         <v>178</v>
@@ -18896,7 +18898,7 @@
       </c>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="30"/>
       <c r="C80" s="27" t="s">
         <v>183</v>
@@ -18910,7 +18912,7 @@
       </c>
       <c r="G80" s="12"/>
     </row>
-    <row r="81" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="30"/>
       <c r="C81" s="27" t="s">
         <v>203</v>
@@ -18924,7 +18926,7 @@
       </c>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="30"/>
       <c r="C82" s="27" t="s">
         <v>184</v>
@@ -18938,7 +18940,7 @@
       </c>
       <c r="G82" s="12"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B83" s="30"/>
       <c r="C83" s="27" t="s">
         <v>204</v>
@@ -18952,7 +18954,7 @@
       </c>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B84" s="30"/>
       <c r="C84" s="27" t="s">
         <v>205</v>
@@ -18966,7 +18968,7 @@
       </c>
       <c r="G84" s="12"/>
     </row>
-    <row r="85" spans="2:7" s="25" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B85" s="27" t="s">
         <v>187</v>
       </c>
@@ -19001,17 +19003,17 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="4.77734375" style="50" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="4.83203125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="52" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46" style="52" customWidth="1"/>
     <col min="5" max="40" width="4.33203125" style="52" customWidth="1"/>
     <col min="41" max="41" width="2.6640625" style="52" customWidth="1"/>
-    <col min="42" max="16384" width="4.77734375" style="50"/>
+    <col min="42" max="16384" width="4.83203125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>227</v>
       </c>
@@ -19056,7 +19058,7 @@
       <c r="AN1" s="25"/>
       <c r="AO1" s="50"/>
     </row>
-    <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -19099,7 +19101,7 @@
       <c r="AN2" s="25"/>
       <c r="AO2" s="50"/>
     </row>
-    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25"/>
       <c r="B3" s="25" t="s">
         <v>98</v>
@@ -19144,7 +19146,7 @@
       <c r="AN3" s="25"/>
       <c r="AO3" s="50"/>
     </row>
-    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="25"/>
       <c r="B4" s="25" t="s">
         <v>99</v>
@@ -19189,7 +19191,7 @@
       <c r="AN4" s="25"/>
       <c r="AO4" s="50"/>
     </row>
-    <row r="5" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="51"/>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
@@ -19231,7 +19233,7 @@
       <c r="AN5" s="50"/>
       <c r="AO5" s="50"/>
     </row>
-    <row r="6" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="51"/>
       <c r="C6" s="132" t="s">
         <v>82</v>
@@ -19278,7 +19280,7 @@
       <c r="AM6" s="135"/>
       <c r="AN6" s="136"/>
     </row>
-    <row r="7" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="51"/>
       <c r="C7" s="133"/>
       <c r="D7" s="133"/>
@@ -19337,7 +19339,7 @@
       <c r="AM7" s="142"/>
       <c r="AN7" s="143"/>
     </row>
-    <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="54"/>
       <c r="C8" s="35" t="s">
         <v>83</v>
@@ -19380,7 +19382,7 @@
       <c r="AM8" s="64"/>
       <c r="AN8" s="65"/>
     </row>
-    <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="54"/>
       <c r="C9" s="36"/>
       <c r="D9" s="37" t="s">
@@ -19423,7 +19425,7 @@
       <c r="AM9" s="75"/>
       <c r="AN9" s="76"/>
     </row>
-    <row r="10" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="54"/>
       <c r="C10" s="36"/>
       <c r="D10" s="37" t="s">
@@ -19466,7 +19468,7 @@
       <c r="AM10" s="75"/>
       <c r="AN10" s="76"/>
     </row>
-    <row r="11" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="54"/>
       <c r="C11" s="38"/>
       <c r="D11" s="37" t="s">
@@ -19509,7 +19511,7 @@
       <c r="AM11" s="75"/>
       <c r="AN11" s="76"/>
     </row>
-    <row r="12" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="54"/>
       <c r="C12" s="36"/>
       <c r="D12" s="37" t="s">
@@ -19552,7 +19554,7 @@
       <c r="AM12" s="75"/>
       <c r="AN12" s="76"/>
     </row>
-    <row r="13" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="54"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37" t="s">
@@ -19595,7 +19597,7 @@
       <c r="AM13" s="75"/>
       <c r="AN13" s="76"/>
     </row>
-    <row r="14" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="54"/>
       <c r="C14" s="39"/>
       <c r="D14" s="40"/>
@@ -19636,7 +19638,7 @@
       <c r="AM14" s="84"/>
       <c r="AN14" s="85"/>
     </row>
-    <row r="15" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="54"/>
       <c r="C15" s="86" t="s">
         <v>71</v>
@@ -19679,7 +19681,7 @@
       <c r="AM15" s="64"/>
       <c r="AN15" s="65"/>
     </row>
-    <row r="16" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="54"/>
       <c r="C16" s="38"/>
       <c r="D16" s="37" t="s">
@@ -19722,7 +19724,7 @@
       <c r="AM16" s="75"/>
       <c r="AN16" s="76"/>
     </row>
-    <row r="17" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="55"/>
       <c r="C17" s="38"/>
       <c r="D17" s="42" t="s">
@@ -19767,7 +19769,7 @@
       <c r="AM17" s="75"/>
       <c r="AN17" s="76"/>
     </row>
-    <row r="18" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="54"/>
       <c r="C18" s="38"/>
       <c r="D18" s="42" t="s">
@@ -19810,7 +19812,7 @@
       <c r="AM18" s="75"/>
       <c r="AN18" s="76"/>
     </row>
-    <row r="19" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="54"/>
       <c r="C19" s="43"/>
       <c r="D19" s="44"/>
@@ -19851,7 +19853,7 @@
       <c r="AM19" s="84"/>
       <c r="AN19" s="85"/>
     </row>
-    <row r="20" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="55"/>
       <c r="C20" s="86" t="s">
         <v>84</v>
@@ -19894,7 +19896,7 @@
       <c r="AM20" s="64"/>
       <c r="AN20" s="65"/>
     </row>
-    <row r="21" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="55"/>
       <c r="C21" s="38"/>
       <c r="D21" s="42" t="s">
@@ -19936,7 +19938,7 @@
       <c r="AM21" s="75"/>
       <c r="AN21" s="76"/>
     </row>
-    <row r="22" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="54"/>
       <c r="C22" s="38"/>
       <c r="D22" s="42" t="s">
@@ -19979,7 +19981,7 @@
       <c r="AM22" s="75"/>
       <c r="AN22" s="76"/>
     </row>
-    <row r="23" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="54"/>
       <c r="C23" s="38"/>
       <c r="D23" s="42" t="s">
@@ -20022,7 +20024,7 @@
       <c r="AM23" s="75"/>
       <c r="AN23" s="76"/>
     </row>
-    <row r="24" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="54"/>
       <c r="C24" s="38"/>
       <c r="D24" s="42"/>
@@ -20063,7 +20065,7 @@
       <c r="AM24" s="75"/>
       <c r="AN24" s="76"/>
     </row>
-    <row r="25" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="55"/>
       <c r="C25" s="38"/>
       <c r="D25" s="37" t="s">
@@ -20110,7 +20112,7 @@
       <c r="AM25" s="75"/>
       <c r="AN25" s="76"/>
     </row>
-    <row r="26" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="55"/>
       <c r="C26" s="38"/>
       <c r="D26" s="42" t="s">
@@ -20153,7 +20155,7 @@
       <c r="AM26" s="75"/>
       <c r="AN26" s="76"/>
     </row>
-    <row r="27" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="55"/>
       <c r="C27" s="38"/>
       <c r="D27" s="42" t="s">
@@ -20196,7 +20198,7 @@
       <c r="AM27" s="75"/>
       <c r="AN27" s="76"/>
     </row>
-    <row r="28" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="55"/>
       <c r="C28" s="38"/>
       <c r="D28" s="42" t="s">
@@ -20239,7 +20241,7 @@
       <c r="AM28" s="75"/>
       <c r="AN28" s="76"/>
     </row>
-    <row r="29" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="55"/>
       <c r="C29" s="38"/>
       <c r="D29" s="42"/>
@@ -20280,7 +20282,7 @@
       <c r="AM29" s="75"/>
       <c r="AN29" s="76"/>
     </row>
-    <row r="30" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="55"/>
       <c r="C30" s="38"/>
       <c r="D30" s="42" t="s">
@@ -20323,7 +20325,7 @@
       <c r="AM30" s="75"/>
       <c r="AN30" s="76"/>
     </row>
-    <row r="31" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="55"/>
       <c r="C31" s="38"/>
       <c r="D31" s="42"/>
@@ -20364,7 +20366,7 @@
       <c r="AM31" s="75"/>
       <c r="AN31" s="76"/>
     </row>
-    <row r="32" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="55"/>
       <c r="C32" s="38"/>
       <c r="D32" s="42" t="s">
@@ -20411,7 +20413,7 @@
       <c r="AM32" s="67"/>
       <c r="AN32" s="90"/>
     </row>
-    <row r="33" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="55"/>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
@@ -20452,7 +20454,7 @@
       <c r="AM33" s="75"/>
       <c r="AN33" s="76"/>
     </row>
-    <row r="34" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="55"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38" t="s">
@@ -20501,7 +20503,7 @@
       <c r="AM34" s="71"/>
       <c r="AN34" s="76"/>
     </row>
-    <row r="35" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="54"/>
       <c r="C35" s="43"/>
       <c r="D35" s="43"/>
@@ -20542,7 +20544,7 @@
       <c r="AM35" s="84"/>
       <c r="AN35" s="85"/>
     </row>
-    <row r="36" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="56"/>
     </row>
   </sheetData>

--- a/docs/テスト種別&観点カタログガイド.xlsx
+++ b/docs/テスト種別&観点カタログガイド.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42FF404-0698-4B0D-A6E1-8F000BC0DEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEE32C0-ECB3-432A-B2EE-08440C7814DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="683" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,15 +22,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'別紙1. 想定成果物一覧'!$A$1:$G$85</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'別紙2. 工程へのテスト種別の割り当て例'!$A$1:$AO$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="332">
   <si>
     <t>1.3.2. プロジェクト</t>
   </si>
@@ -3642,23 +3642,6 @@
       <t>フヨ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>※1.1版以前の履歴は、以下を参照してください。</t>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>テスト種別&amp;観点カタログ変更履歴_第1.1版以前.pdf</t>
-    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -3669,7 +3652,7 @@
     <numFmt numFmtId="176" formatCode="#&quot;月&quot;"/>
     <numFmt numFmtId="177" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -4023,14 +4006,6 @@
       <sz val="10"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="10"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -6525,7 +6500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6743,9 +6718,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="513" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -15858,10 +15830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A85F0B4-1BD6-4D23-B516-8BB9E43C3A44}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -15884,63 +15856,50 @@
       <c r="E1" s="117"/>
       <c r="F1" s="118"/>
     </row>
-    <row r="2" spans="1:6" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="119" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="129" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="122" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="120" t="s">
+    <row r="2" spans="1:6" s="122" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="120" t="s">
         <v>322</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B2" s="121" t="s">
         <v>323</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C2" s="121" t="s">
         <v>324</v>
       </c>
-      <c r="D4" s="121" t="s">
+      <c r="D2" s="121" t="s">
         <v>325</v>
       </c>
-      <c r="E4" s="121" t="s">
+      <c r="E2" s="121" t="s">
         <v>326</v>
       </c>
-      <c r="F4" s="120" t="s">
+      <c r="F2" s="120" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="122" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="123">
+    <row r="3" spans="1:6" s="122" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="123">
         <v>1</v>
       </c>
-      <c r="B5" s="124" t="s">
+      <c r="B3" s="124" t="s">
         <v>328</v>
       </c>
-      <c r="C5" s="125">
+      <c r="C3" s="125">
         <v>43328</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D3" s="124" t="s">
         <v>329</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E3" s="126" t="s">
         <v>330</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F3" s="127" t="s">
         <v>331</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{6ABCBB0D-873D-47BB-8D8B-F37E73D6E0DD}"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="6" max="1048575" man="1"/>
   </colBreaks>
@@ -18028,14 +17987,14 @@
       <c r="B19" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="129" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="131"/>
-      <c r="E19" s="130" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="129" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="131"/>
+      <c r="F19" s="130"/>
       <c r="G19" s="11" t="s">
         <v>139</v>
       </c>
@@ -19235,109 +19194,109 @@
     </row>
     <row r="6" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="51"/>
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="132" t="s">
+      <c r="D6" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="133" t="s">
         <v>253</v>
       </c>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="135"/>
-      <c r="R6" s="135"/>
-      <c r="S6" s="135"/>
-      <c r="T6" s="135"/>
-      <c r="U6" s="135"/>
-      <c r="V6" s="135"/>
-      <c r="W6" s="135"/>
-      <c r="X6" s="135"/>
-      <c r="Y6" s="135"/>
-      <c r="Z6" s="135"/>
-      <c r="AA6" s="135"/>
-      <c r="AB6" s="135"/>
-      <c r="AC6" s="135"/>
-      <c r="AD6" s="135"/>
-      <c r="AE6" s="135"/>
-      <c r="AF6" s="135"/>
-      <c r="AG6" s="135"/>
-      <c r="AH6" s="135"/>
-      <c r="AI6" s="135"/>
-      <c r="AJ6" s="135"/>
-      <c r="AK6" s="135"/>
-      <c r="AL6" s="135"/>
-      <c r="AM6" s="135"/>
-      <c r="AN6" s="136"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="134"/>
+      <c r="W6" s="134"/>
+      <c r="X6" s="134"/>
+      <c r="Y6" s="134"/>
+      <c r="Z6" s="134"/>
+      <c r="AA6" s="134"/>
+      <c r="AB6" s="134"/>
+      <c r="AC6" s="134"/>
+      <c r="AD6" s="134"/>
+      <c r="AE6" s="134"/>
+      <c r="AF6" s="134"/>
+      <c r="AG6" s="134"/>
+      <c r="AH6" s="134"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="134"/>
+      <c r="AK6" s="134"/>
+      <c r="AL6" s="134"/>
+      <c r="AM6" s="134"/>
+      <c r="AN6" s="135"/>
     </row>
     <row r="7" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="51"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="137">
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="136">
         <v>4</v>
       </c>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="140">
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="139">
         <v>5</v>
       </c>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="141">
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="140">
         <v>6</v>
       </c>
-      <c r="N7" s="140"/>
-      <c r="O7" s="140"/>
-      <c r="P7" s="140"/>
-      <c r="Q7" s="140">
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="139">
         <v>7</v>
       </c>
-      <c r="R7" s="140"/>
-      <c r="S7" s="140"/>
-      <c r="T7" s="140"/>
-      <c r="U7" s="140">
+      <c r="R7" s="139"/>
+      <c r="S7" s="139"/>
+      <c r="T7" s="139"/>
+      <c r="U7" s="139">
         <v>8</v>
       </c>
-      <c r="V7" s="140"/>
-      <c r="W7" s="140"/>
-      <c r="X7" s="140"/>
-      <c r="Y7" s="140">
+      <c r="V7" s="139"/>
+      <c r="W7" s="139"/>
+      <c r="X7" s="139"/>
+      <c r="Y7" s="139">
         <v>9</v>
       </c>
-      <c r="Z7" s="140"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140">
+      <c r="Z7" s="139"/>
+      <c r="AA7" s="139"/>
+      <c r="AB7" s="139"/>
+      <c r="AC7" s="139">
         <v>10</v>
       </c>
-      <c r="AD7" s="140"/>
-      <c r="AE7" s="140"/>
-      <c r="AF7" s="140"/>
-      <c r="AG7" s="140">
+      <c r="AD7" s="139"/>
+      <c r="AE7" s="139"/>
+      <c r="AF7" s="139"/>
+      <c r="AG7" s="139">
         <v>11</v>
       </c>
-      <c r="AH7" s="140"/>
-      <c r="AI7" s="140"/>
-      <c r="AJ7" s="140"/>
-      <c r="AK7" s="142" t="s">
+      <c r="AH7" s="139"/>
+      <c r="AI7" s="139"/>
+      <c r="AJ7" s="139"/>
+      <c r="AK7" s="141" t="s">
         <v>217</v>
       </c>
-      <c r="AL7" s="142"/>
-      <c r="AM7" s="142"/>
-      <c r="AN7" s="143"/>
+      <c r="AL7" s="141"/>
+      <c r="AM7" s="141"/>
+      <c r="AN7" s="142"/>
     </row>
     <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="54"/>

--- a/docs/テスト種別&観点カタログガイド.xlsx
+++ b/docs/テスト種別&観点カタログガイド.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEE32C0-ECB3-432A-B2EE-08440C7814DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE27B80-E613-4E38-8F9D-7825145E91D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="683" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/docs/テスト種別&観点カタログガイド.xlsx
+++ b/docs/テスト種別&観点カタログガイド.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE27B80-E613-4E38-8F9D-7825145E91D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6984671A-3FC7-4307-A432-4B06E5E43935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="683" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -13919,7 +13919,7 @@
   </sheetPr>
   <dimension ref="A1:AI512"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
@@ -15832,9 +15832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A85F0B4-1BD6-4D23-B516-8BB9E43C3A44}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>

--- a/docs/テスト種別&観点カタログガイド.xlsx
+++ b/docs/テスト種別&観点カタログガイド.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6984671A-3FC7-4307-A432-4B06E5E43935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DAC47B-E3F9-4183-8448-C262CF05DDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -22,15 +22,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'別紙1. 想定成果物一覧'!$A$1:$G$85</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'別紙2. 工程へのテスト種別の割り当て例'!$A$1:$AO$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="333">
   <si>
     <t>1.3.2. プロジェクト</t>
   </si>
@@ -3642,6 +3642,28 @@
       <t>フヨ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※1.0版、1.1版は内部向け文書のため欠番</t>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブンショ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケツバン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -4163,7 +4185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -4817,34 +4839,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="double">
         <color indexed="64"/>
@@ -6500,7 +6494,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6693,28 +6687,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="513" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="513" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="59" xfId="513" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="57" xfId="513" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="513" applyFont="1"/>
@@ -6745,6 +6733,18 @@
     </xf>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="560">
@@ -8897,8 +8897,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="4747289" y="5202500"/>
-          <a:ext cx="1356492" cy="4568736"/>
+          <a:off x="4804439" y="5202500"/>
+          <a:ext cx="1372367" cy="4568736"/>
           <a:chOff x="1223082" y="3963508"/>
           <a:chExt cx="1425662" cy="2596557"/>
         </a:xfrm>
@@ -9231,8 +9231,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1104900" y="1905000"/>
-          <a:ext cx="6245089" cy="657189"/>
+          <a:off x="1117600" y="1905000"/>
+          <a:ext cx="6314939" cy="660364"/>
           <a:chOff x="244031" y="848544"/>
           <a:chExt cx="6245089" cy="657189"/>
         </a:xfrm>
@@ -9798,8 +9798,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1504101" y="5509902"/>
-          <a:ext cx="1619060" cy="720080"/>
+          <a:off x="1523151" y="5509902"/>
+          <a:ext cx="1638110" cy="720080"/>
           <a:chOff x="244031" y="5410937"/>
           <a:chExt cx="1620000" cy="720080"/>
         </a:xfrm>
@@ -10358,8 +10358,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1503169" y="3689163"/>
-          <a:ext cx="1618635" cy="636790"/>
+          <a:off x="1522219" y="3692338"/>
+          <a:ext cx="1637685" cy="633615"/>
           <a:chOff x="3501008" y="2278569"/>
           <a:chExt cx="1620000" cy="636790"/>
         </a:xfrm>
@@ -10725,8 +10725,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1503161" y="6590022"/>
-          <a:ext cx="1620000" cy="721157"/>
+          <a:off x="1522211" y="6590022"/>
+          <a:ext cx="1639050" cy="721157"/>
           <a:chOff x="244031" y="6851097"/>
           <a:chExt cx="1620000" cy="721157"/>
         </a:xfrm>
@@ -11226,8 +11226,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5262197" y="4674921"/>
-          <a:ext cx="1980000" cy="881014"/>
+          <a:off x="5325697" y="4678096"/>
+          <a:ext cx="1999050" cy="881014"/>
           <a:chOff x="4288257" y="4576042"/>
           <a:chExt cx="1980000" cy="881014"/>
         </a:xfrm>
@@ -11639,8 +11639,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1530576" y="4607789"/>
-          <a:ext cx="1620000" cy="720803"/>
+          <a:off x="1546451" y="4607789"/>
+          <a:ext cx="1639050" cy="723978"/>
           <a:chOff x="244031" y="4020302"/>
           <a:chExt cx="1620000" cy="720803"/>
         </a:xfrm>
@@ -12205,8 +12205,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5252369" y="3686314"/>
-          <a:ext cx="1980000" cy="770712"/>
+          <a:off x="5312694" y="3689489"/>
+          <a:ext cx="2005400" cy="767537"/>
           <a:chOff x="4260945" y="3645066"/>
           <a:chExt cx="1980000" cy="770712"/>
         </a:xfrm>
@@ -12620,8 +12620,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1121517" y="2697088"/>
-          <a:ext cx="6245089" cy="652574"/>
+          <a:off x="1134217" y="2700263"/>
+          <a:ext cx="6318114" cy="649399"/>
           <a:chOff x="260648" y="1640632"/>
           <a:chExt cx="6245089" cy="652574"/>
         </a:xfrm>
@@ -13020,8 +13020,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1503161" y="8906621"/>
-          <a:ext cx="1618635" cy="704026"/>
+          <a:off x="1522211" y="8909796"/>
+          <a:ext cx="1637685" cy="704026"/>
           <a:chOff x="1596738" y="9029887"/>
           <a:chExt cx="1642168" cy="704026"/>
         </a:xfrm>
@@ -15830,18 +15830,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A85F0B4-1BD6-4D23-B516-8BB9E43C3A44}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="128" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="128" customWidth="1"/>
-    <col min="3" max="4" width="12.83203125" style="128" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" style="128" customWidth="1"/>
-    <col min="6" max="6" width="60.83203125" style="128" customWidth="1"/>
-    <col min="7" max="16384" width="4.83203125" style="128"/>
+    <col min="1" max="1" width="5.5" style="126" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="126" customWidth="1"/>
+    <col min="3" max="4" width="12.83203125" style="126" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" style="126" customWidth="1"/>
+    <col min="6" max="6" width="60.83203125" style="126" customWidth="1"/>
+    <col min="7" max="16384" width="4.83203125" style="126"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="119" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -15854,43 +15854,53 @@
       <c r="E1" s="117"/>
       <c r="F1" s="118"/>
     </row>
-    <row r="2" spans="1:6" s="122" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
+    <row r="2" spans="1:6" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="143" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+    </row>
+    <row r="3" spans="1:6" s="120" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="141" t="s">
         <v>322</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B3" s="142" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C3" s="142" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D3" s="142" t="s">
         <v>325</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E3" s="142" t="s">
         <v>326</v>
       </c>
-      <c r="F2" s="120" t="s">
+      <c r="F3" s="141" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="122" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="123">
+    <row r="4" spans="1:6" s="120" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="121">
         <v>1</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B4" s="122" t="s">
         <v>328</v>
       </c>
-      <c r="C3" s="125">
+      <c r="C4" s="123">
         <v>43328</v>
       </c>
-      <c r="D3" s="124" t="s">
+      <c r="D4" s="122" t="s">
         <v>329</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E4" s="124" t="s">
         <v>330</v>
       </c>
-      <c r="F3" s="127" t="s">
+      <c r="F4" s="125" t="s">
         <v>331</v>
       </c>
     </row>
@@ -17985,14 +17995,14 @@
       <c r="B19" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="127" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="129" t="s">
+      <c r="D19" s="128"/>
+      <c r="E19" s="127" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="130"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="11" t="s">
         <v>139</v>
       </c>
@@ -19192,109 +19202,109 @@
     </row>
     <row r="6" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="51"/>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="131" t="s">
+      <c r="D6" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="133" t="s">
+      <c r="E6" s="131" t="s">
         <v>253</v>
       </c>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="134"/>
-      <c r="U6" s="134"/>
-      <c r="V6" s="134"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="134"/>
-      <c r="Y6" s="134"/>
-      <c r="Z6" s="134"/>
-      <c r="AA6" s="134"/>
-      <c r="AB6" s="134"/>
-      <c r="AC6" s="134"/>
-      <c r="AD6" s="134"/>
-      <c r="AE6" s="134"/>
-      <c r="AF6" s="134"/>
-      <c r="AG6" s="134"/>
-      <c r="AH6" s="134"/>
-      <c r="AI6" s="134"/>
-      <c r="AJ6" s="134"/>
-      <c r="AK6" s="134"/>
-      <c r="AL6" s="134"/>
-      <c r="AM6" s="134"/>
-      <c r="AN6" s="135"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132"/>
+      <c r="Q6" s="132"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132"/>
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132"/>
+      <c r="AA6" s="132"/>
+      <c r="AB6" s="132"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="132"/>
+      <c r="AF6" s="132"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="132"/>
+      <c r="AI6" s="132"/>
+      <c r="AJ6" s="132"/>
+      <c r="AK6" s="132"/>
+      <c r="AL6" s="132"/>
+      <c r="AM6" s="132"/>
+      <c r="AN6" s="133"/>
     </row>
     <row r="7" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="51"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="136">
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="134">
         <v>4</v>
       </c>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="139">
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="137">
         <v>5</v>
       </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="140">
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="138">
         <v>6</v>
       </c>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139">
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137">
         <v>7</v>
       </c>
-      <c r="R7" s="139"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="139"/>
-      <c r="U7" s="139">
+      <c r="R7" s="137"/>
+      <c r="S7" s="137"/>
+      <c r="T7" s="137"/>
+      <c r="U7" s="137">
         <v>8</v>
       </c>
-      <c r="V7" s="139"/>
-      <c r="W7" s="139"/>
-      <c r="X7" s="139"/>
-      <c r="Y7" s="139">
+      <c r="V7" s="137"/>
+      <c r="W7" s="137"/>
+      <c r="X7" s="137"/>
+      <c r="Y7" s="137">
         <v>9</v>
       </c>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="139"/>
-      <c r="AB7" s="139"/>
-      <c r="AC7" s="139">
+      <c r="Z7" s="137"/>
+      <c r="AA7" s="137"/>
+      <c r="AB7" s="137"/>
+      <c r="AC7" s="137">
         <v>10</v>
       </c>
-      <c r="AD7" s="139"/>
-      <c r="AE7" s="139"/>
-      <c r="AF7" s="139"/>
-      <c r="AG7" s="139">
+      <c r="AD7" s="137"/>
+      <c r="AE7" s="137"/>
+      <c r="AF7" s="137"/>
+      <c r="AG7" s="137">
         <v>11</v>
       </c>
-      <c r="AH7" s="139"/>
-      <c r="AI7" s="139"/>
-      <c r="AJ7" s="139"/>
-      <c r="AK7" s="141" t="s">
+      <c r="AH7" s="137"/>
+      <c r="AI7" s="137"/>
+      <c r="AJ7" s="137"/>
+      <c r="AK7" s="139" t="s">
         <v>217</v>
       </c>
-      <c r="AL7" s="141"/>
-      <c r="AM7" s="141"/>
-      <c r="AN7" s="142"/>
+      <c r="AL7" s="139"/>
+      <c r="AM7" s="139"/>
+      <c r="AN7" s="140"/>
     </row>
     <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="54"/>

--- a/docs/テスト種別&観点カタログガイド.xlsx
+++ b/docs/テスト種別&観点カタログガイド.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DAC47B-E3F9-4183-8448-C262CF05DDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A19D403-5A2E-4786-93FD-F22BD12BFC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'別紙1. 想定成果物一覧'!$B$19:$G$85</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'1.本書について'!$A$1:$AR$129</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'1.本書について'!$A$1:$AR$128</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2.活用方法'!$A$1:$AR$129</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'別紙1. 想定成果物一覧'!$A$1:$G$85</definedName>
@@ -6706,6 +6706,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="513" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -6733,18 +6745,6 @@
     </xf>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="513" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="560">
@@ -13914,9 +13914,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:AI512"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -15822,8 +15819,9 @@
   <hyperlinks>
     <hyperlink ref="E37" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -15855,32 +15853,32 @@
       <c r="F1" s="118"/>
     </row>
     <row r="2" spans="1:6" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="129" t="s">
         <v>332</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
     </row>
     <row r="3" spans="1:6" s="120" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="127" t="s">
         <v>322</v>
       </c>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="128" t="s">
         <v>323</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="128" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="142" t="s">
+      <c r="D3" s="128" t="s">
         <v>325</v>
       </c>
-      <c r="E3" s="142" t="s">
+      <c r="E3" s="128" t="s">
         <v>326</v>
       </c>
-      <c r="F3" s="141" t="s">
+      <c r="F3" s="127" t="s">
         <v>327</v>
       </c>
     </row>
@@ -15907,7 +15905,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="6" max="1048575" man="1"/>
   </colBreaks>
@@ -16443,10 +16441,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="50" max="16383" man="1"/>
-    <brk id="103" max="43" man="1"/>
+    <brk id="103" max="83" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -17829,7 +17827,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="51" max="16383" man="1"/>
     <brk id="86" max="16383" man="1"/>
@@ -17995,14 +17993,14 @@
       <c r="B19" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="128"/>
-      <c r="E19" s="127" t="s">
+      <c r="D19" s="132"/>
+      <c r="E19" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="128"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="11" t="s">
         <v>139</v>
       </c>
@@ -18960,7 +18958,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="8" scale="64" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="67" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19202,109 +19200,109 @@
     </row>
     <row r="6" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="51"/>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="131" t="s">
+      <c r="E6" s="135" t="s">
         <v>253</v>
       </c>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132"/>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="132"/>
-      <c r="V6" s="132"/>
-      <c r="W6" s="132"/>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="132"/>
-      <c r="Z6" s="132"/>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="132"/>
-      <c r="AF6" s="132"/>
-      <c r="AG6" s="132"/>
-      <c r="AH6" s="132"/>
-      <c r="AI6" s="132"/>
-      <c r="AJ6" s="132"/>
-      <c r="AK6" s="132"/>
-      <c r="AL6" s="132"/>
-      <c r="AM6" s="132"/>
-      <c r="AN6" s="133"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="136"/>
+      <c r="Q6" s="136"/>
+      <c r="R6" s="136"/>
+      <c r="S6" s="136"/>
+      <c r="T6" s="136"/>
+      <c r="U6" s="136"/>
+      <c r="V6" s="136"/>
+      <c r="W6" s="136"/>
+      <c r="X6" s="136"/>
+      <c r="Y6" s="136"/>
+      <c r="Z6" s="136"/>
+      <c r="AA6" s="136"/>
+      <c r="AB6" s="136"/>
+      <c r="AC6" s="136"/>
+      <c r="AD6" s="136"/>
+      <c r="AE6" s="136"/>
+      <c r="AF6" s="136"/>
+      <c r="AG6" s="136"/>
+      <c r="AH6" s="136"/>
+      <c r="AI6" s="136"/>
+      <c r="AJ6" s="136"/>
+      <c r="AK6" s="136"/>
+      <c r="AL6" s="136"/>
+      <c r="AM6" s="136"/>
+      <c r="AN6" s="137"/>
     </row>
     <row r="7" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="51"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="134">
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="138">
         <v>4</v>
       </c>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="137">
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="141">
         <v>5</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="138">
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="142">
         <v>6</v>
       </c>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137">
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141">
         <v>7</v>
       </c>
-      <c r="R7" s="137"/>
-      <c r="S7" s="137"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="137">
+      <c r="R7" s="141"/>
+      <c r="S7" s="141"/>
+      <c r="T7" s="141"/>
+      <c r="U7" s="141">
         <v>8</v>
       </c>
-      <c r="V7" s="137"/>
-      <c r="W7" s="137"/>
-      <c r="X7" s="137"/>
-      <c r="Y7" s="137">
+      <c r="V7" s="141"/>
+      <c r="W7" s="141"/>
+      <c r="X7" s="141"/>
+      <c r="Y7" s="141">
         <v>9</v>
       </c>
-      <c r="Z7" s="137"/>
-      <c r="AA7" s="137"/>
-      <c r="AB7" s="137"/>
-      <c r="AC7" s="137">
+      <c r="Z7" s="141"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141">
         <v>10</v>
       </c>
-      <c r="AD7" s="137"/>
-      <c r="AE7" s="137"/>
-      <c r="AF7" s="137"/>
-      <c r="AG7" s="137">
+      <c r="AD7" s="141"/>
+      <c r="AE7" s="141"/>
+      <c r="AF7" s="141"/>
+      <c r="AG7" s="141">
         <v>11</v>
       </c>
-      <c r="AH7" s="137"/>
-      <c r="AI7" s="137"/>
-      <c r="AJ7" s="137"/>
-      <c r="AK7" s="139" t="s">
+      <c r="AH7" s="141"/>
+      <c r="AI7" s="141"/>
+      <c r="AJ7" s="141"/>
+      <c r="AK7" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="AL7" s="139"/>
-      <c r="AM7" s="139"/>
-      <c r="AN7" s="140"/>
+      <c r="AL7" s="143"/>
+      <c r="AM7" s="143"/>
+      <c r="AN7" s="144"/>
     </row>
     <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="54"/>
@@ -20531,7 +20529,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/テスト種別&観点カタログガイド.xlsx
+++ b/docs/テスト種別&観点カタログガイド.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A19D403-5A2E-4786-93FD-F22BD12BFC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95951D5C-FC25-4977-A001-6C2DC1364928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3644,23 +3644,23 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>※1.0版、1.1版は内部向け文書のため欠番</t>
+    <t>※1.0版、1.1版はTIS社内限定公開のため欠番</t>
     <rPh sb="4" eb="5">
       <t>ハン</t>
     </rPh>
     <rPh sb="9" eb="10">
       <t>ハン</t>
     </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ブンショ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
+    <rPh sb="14" eb="16">
+      <t>シャナイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
       <t>ケツバン</t>
     </rPh>
     <phoneticPr fontId="6"/>
@@ -8897,8 +8897,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="4804439" y="5202500"/>
-          <a:ext cx="1372367" cy="4568736"/>
+          <a:off x="4693314" y="5031050"/>
+          <a:ext cx="1340617" cy="4416336"/>
           <a:chOff x="1223082" y="3963508"/>
           <a:chExt cx="1425662" cy="2596557"/>
         </a:xfrm>
@@ -9231,8 +9231,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1117600" y="1905000"/>
-          <a:ext cx="6314939" cy="660364"/>
+          <a:off x="1092200" y="1841500"/>
+          <a:ext cx="6175239" cy="638139"/>
           <a:chOff x="244031" y="848544"/>
           <a:chExt cx="6245089" cy="657189"/>
         </a:xfrm>
@@ -9798,8 +9798,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1523151" y="5509902"/>
-          <a:ext cx="1638110" cy="720080"/>
+          <a:off x="1488226" y="5332102"/>
+          <a:ext cx="1600010" cy="694680"/>
           <a:chOff x="244031" y="5410937"/>
           <a:chExt cx="1620000" cy="720080"/>
         </a:xfrm>
@@ -10358,8 +10358,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1522219" y="3692338"/>
-          <a:ext cx="1637685" cy="633615"/>
+          <a:off x="1487294" y="3568513"/>
+          <a:ext cx="1599585" cy="617740"/>
           <a:chOff x="3501008" y="2278569"/>
           <a:chExt cx="1620000" cy="636790"/>
         </a:xfrm>
@@ -10725,8 +10725,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1522211" y="6590022"/>
-          <a:ext cx="1639050" cy="721157"/>
+          <a:off x="1487286" y="6374122"/>
+          <a:ext cx="1600950" cy="695757"/>
           <a:chOff x="244031" y="6851097"/>
           <a:chExt cx="1620000" cy="721157"/>
         </a:xfrm>
@@ -11226,8 +11226,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5325697" y="4678096"/>
-          <a:ext cx="1999050" cy="881014"/>
+          <a:off x="5201872" y="4522521"/>
+          <a:ext cx="1957775" cy="849264"/>
           <a:chOff x="4288257" y="4576042"/>
           <a:chExt cx="1980000" cy="881014"/>
         </a:xfrm>
@@ -11639,8 +11639,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1546451" y="4607789"/>
-          <a:ext cx="1639050" cy="723978"/>
+          <a:off x="1514701" y="4455389"/>
+          <a:ext cx="1600950" cy="701753"/>
           <a:chOff x="244031" y="4020302"/>
           <a:chExt cx="1620000" cy="720803"/>
         </a:xfrm>
@@ -12205,8 +12205,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5312694" y="3689489"/>
-          <a:ext cx="2005400" cy="767537"/>
+          <a:off x="5192044" y="3565664"/>
+          <a:ext cx="1957775" cy="745312"/>
           <a:chOff x="4260945" y="3645066"/>
           <a:chExt cx="1980000" cy="770712"/>
         </a:xfrm>
@@ -12620,8 +12620,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1134217" y="2700263"/>
-          <a:ext cx="6318114" cy="649399"/>
+          <a:off x="1108817" y="2608188"/>
+          <a:ext cx="6175239" cy="633524"/>
           <a:chOff x="260648" y="1640632"/>
           <a:chExt cx="6245089" cy="652574"/>
         </a:xfrm>
@@ -13020,8 +13020,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1522211" y="8909796"/>
-          <a:ext cx="1637685" cy="704026"/>
+          <a:off x="1487286" y="8614521"/>
+          <a:ext cx="1599585" cy="678626"/>
           <a:chOff x="1596738" y="9029887"/>
           <a:chExt cx="1642168" cy="704026"/>
         </a:xfrm>
@@ -13918,12 +13918,12 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="99"/>
+    <col min="1" max="16384" width="4.77734375" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="96"/>
       <c r="B1" s="97"/>
       <c r="C1" s="98"/>
@@ -13960,7 +13960,7 @@
       <c r="AH1" s="96"/>
       <c r="AI1" s="96"/>
     </row>
-    <row r="2" spans="1:35" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" ht="13.15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="100"/>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
@@ -13997,7 +13997,7 @@
       <c r="AH2" s="96"/>
       <c r="AI2" s="96"/>
     </row>
-    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="96"/>
       <c r="B3" s="96"/>
       <c r="C3" s="96"/>
@@ -14034,7 +14034,7 @@
       <c r="AH3" s="96"/>
       <c r="AI3" s="96"/>
     </row>
-    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="96"/>
       <c r="B4" s="96"/>
       <c r="C4" s="96"/>
@@ -14071,7 +14071,7 @@
       <c r="AH4" s="96"/>
       <c r="AI4" s="96"/>
     </row>
-    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="96"/>
       <c r="B5" s="96"/>
       <c r="C5" s="96"/>
@@ -14108,7 +14108,7 @@
       <c r="AH5" s="96"/>
       <c r="AI5" s="96"/>
     </row>
-    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="96"/>
       <c r="B6" s="96"/>
       <c r="C6" s="96"/>
@@ -14145,7 +14145,7 @@
       <c r="AH6" s="96"/>
       <c r="AI6" s="96"/>
     </row>
-    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="96"/>
       <c r="B7" s="96"/>
       <c r="C7" s="96"/>
@@ -14182,7 +14182,7 @@
       <c r="AH7" s="96"/>
       <c r="AI7" s="96"/>
     </row>
-    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="96"/>
       <c r="B8" s="96"/>
       <c r="C8" s="96"/>
@@ -14219,7 +14219,7 @@
       <c r="AH8" s="96"/>
       <c r="AI8" s="96"/>
     </row>
-    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="96"/>
       <c r="B9" s="96"/>
       <c r="C9" s="96"/>
@@ -14256,7 +14256,7 @@
       <c r="AH9" s="96"/>
       <c r="AI9" s="96"/>
     </row>
-    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="96"/>
       <c r="B10" s="96"/>
       <c r="C10" s="96"/>
@@ -14293,7 +14293,7 @@
       <c r="AH10" s="96"/>
       <c r="AI10" s="96"/>
     </row>
-    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="96"/>
       <c r="B11" s="96"/>
       <c r="C11" s="96"/>
@@ -14330,7 +14330,7 @@
       <c r="AH11" s="96"/>
       <c r="AI11" s="96"/>
     </row>
-    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="96"/>
       <c r="B12" s="96"/>
       <c r="C12" s="96"/>
@@ -14367,7 +14367,7 @@
       <c r="AH12" s="96"/>
       <c r="AI12" s="96"/>
     </row>
-    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="96"/>
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
@@ -14404,7 +14404,7 @@
       <c r="AH13" s="96"/>
       <c r="AI13" s="96"/>
     </row>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="96"/>
       <c r="B14" s="96"/>
       <c r="C14" s="96"/>
@@ -14441,7 +14441,7 @@
       <c r="AH14" s="96"/>
       <c r="AI14" s="96"/>
     </row>
-    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A15" s="96"/>
       <c r="B15" s="96"/>
       <c r="C15" s="96"/>
@@ -14478,7 +14478,7 @@
       <c r="AH15" s="96"/>
       <c r="AI15" s="96"/>
     </row>
-    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A16" s="96"/>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
@@ -14515,7 +14515,7 @@
       <c r="AH16" s="96"/>
       <c r="AI16" s="96"/>
     </row>
-    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A17" s="96"/>
       <c r="B17" s="96"/>
       <c r="C17" s="96"/>
@@ -14552,7 +14552,7 @@
       <c r="AH17" s="96"/>
       <c r="AI17" s="96"/>
     </row>
-    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A18" s="96"/>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
@@ -14589,7 +14589,7 @@
       <c r="AH18" s="96"/>
       <c r="AI18" s="96"/>
     </row>
-    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A19" s="96"/>
       <c r="B19" s="96"/>
       <c r="C19" s="96"/>
@@ -14626,7 +14626,7 @@
       <c r="AH19" s="96"/>
       <c r="AI19" s="96"/>
     </row>
-    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="96"/>
       <c r="B20" s="96"/>
       <c r="C20" s="96"/>
@@ -14663,7 +14663,7 @@
       <c r="AH20" s="96"/>
       <c r="AI20" s="96"/>
     </row>
-    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="96"/>
       <c r="B21" s="96"/>
       <c r="C21" s="96"/>
@@ -14700,7 +14700,7 @@
       <c r="AH21" s="96"/>
       <c r="AI21" s="96"/>
     </row>
-    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="96"/>
       <c r="B22" s="96"/>
       <c r="C22" s="96"/>
@@ -14737,7 +14737,7 @@
       <c r="AH22" s="96"/>
       <c r="AI22" s="96"/>
     </row>
-    <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A23" s="96"/>
       <c r="B23" s="96"/>
       <c r="C23" s="96"/>
@@ -14776,7 +14776,7 @@
       <c r="AH23" s="96"/>
       <c r="AI23" s="96"/>
     </row>
-    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="96"/>
       <c r="B24" s="96"/>
       <c r="C24" s="96"/>
@@ -14813,7 +14813,7 @@
       <c r="AH24" s="96"/>
       <c r="AI24" s="96"/>
     </row>
-    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="96"/>
       <c r="B25" s="96"/>
       <c r="C25" s="96"/>
@@ -14852,7 +14852,7 @@
       <c r="AH25" s="96"/>
       <c r="AI25" s="96"/>
     </row>
-    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A26" s="96"/>
       <c r="B26" s="96"/>
       <c r="C26" s="96"/>
@@ -14889,7 +14889,7 @@
       <c r="AH26" s="96"/>
       <c r="AI26" s="96"/>
     </row>
-    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A27" s="96"/>
       <c r="B27" s="96"/>
       <c r="C27" s="96"/>
@@ -14926,7 +14926,7 @@
       <c r="AH27" s="96"/>
       <c r="AI27" s="96"/>
     </row>
-    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="96"/>
       <c r="B28" s="96"/>
       <c r="C28" s="96"/>
@@ -14963,7 +14963,7 @@
       <c r="AH28" s="96"/>
       <c r="AI28" s="96"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A29" s="96"/>
       <c r="B29" s="96"/>
       <c r="C29" s="96"/>
@@ -15000,7 +15000,7 @@
       <c r="AH29" s="96"/>
       <c r="AI29" s="96"/>
     </row>
-    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A30" s="96"/>
       <c r="B30" s="96"/>
       <c r="C30" s="96"/>
@@ -15037,7 +15037,7 @@
       <c r="AH30" s="96"/>
       <c r="AI30" s="96"/>
     </row>
-    <row r="31" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A31" s="96"/>
       <c r="B31" s="96"/>
       <c r="C31" s="96"/>
@@ -15074,7 +15074,7 @@
       <c r="AH31" s="96"/>
       <c r="AI31" s="96"/>
     </row>
-    <row r="32" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:35" ht="28.5" x14ac:dyDescent="0.6">
       <c r="A32" s="96"/>
       <c r="B32" s="96"/>
       <c r="C32" s="96"/>
@@ -15111,7 +15111,7 @@
       <c r="AH32" s="96"/>
       <c r="AI32" s="96"/>
     </row>
-    <row r="33" spans="1:35" ht="24.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:35" ht="25.5" x14ac:dyDescent="0.6">
       <c r="A33" s="96"/>
       <c r="B33" s="96"/>
       <c r="C33" s="96"/>
@@ -15148,7 +15148,7 @@
       <c r="AH33" s="96"/>
       <c r="AI33" s="96"/>
     </row>
-    <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A34" s="96"/>
       <c r="B34" s="96"/>
       <c r="C34" s="96"/>
@@ -15185,7 +15185,7 @@
       <c r="AH34" s="96"/>
       <c r="AI34" s="96"/>
     </row>
-    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A35" s="96"/>
       <c r="B35" s="96"/>
       <c r="C35" s="96"/>
@@ -15222,7 +15222,7 @@
       <c r="AH35" s="96"/>
       <c r="AI35" s="96"/>
     </row>
-    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A36" s="96"/>
       <c r="B36" s="96"/>
       <c r="C36" s="96"/>
@@ -15259,7 +15259,7 @@
       <c r="AH36" s="96"/>
       <c r="AI36" s="96"/>
     </row>
-    <row r="37" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A37" s="96"/>
       <c r="B37" s="96" t="s">
         <v>310</v>
@@ -15301,7 +15301,7 @@
       <c r="AH37" s="96"/>
       <c r="AI37" s="96"/>
     </row>
-    <row r="38" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A38" s="96"/>
       <c r="B38" s="96" t="s">
         <v>320</v>
@@ -15340,480 +15340,480 @@
       <c r="AH38" s="96"/>
       <c r="AI38" s="96"/>
     </row>
-    <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -15832,17 +15832,17 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="126" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="126" customWidth="1"/>
-    <col min="3" max="4" width="12.83203125" style="126" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" style="126" customWidth="1"/>
-    <col min="6" max="6" width="60.83203125" style="126" customWidth="1"/>
-    <col min="7" max="16384" width="4.83203125" style="126"/>
+    <col min="1" max="1" width="5.44140625" style="126" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="126" customWidth="1"/>
+    <col min="3" max="4" width="12.77734375" style="126" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" style="126" customWidth="1"/>
+    <col min="6" max="6" width="60.77734375" style="126" customWidth="1"/>
+    <col min="7" max="16384" width="4.77734375" style="126"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="119" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" s="119" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="117" t="s">
         <v>321</v>
       </c>
@@ -15852,7 +15852,7 @@
       <c r="E1" s="117"/>
       <c r="F1" s="118"/>
     </row>
-    <row r="2" spans="1:6" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="129" t="s">
         <v>332</v>
       </c>
@@ -15862,7 +15862,7 @@
       <c r="E2" s="130"/>
       <c r="F2" s="130"/>
     </row>
-    <row r="3" spans="1:6" s="120" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="120" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="127" t="s">
         <v>322</v>
       </c>
@@ -15882,7 +15882,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="120" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="120" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="121">
         <v>1</v>
       </c>
@@ -15918,522 +15918,522 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="25"/>
+    <col min="1" max="16384" width="4.77734375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B3" s="25" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C5" s="25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C6" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C7" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C9" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C10" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C11" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C13" s="25" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C14" s="25" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B17" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C18" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C19" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C20" s="25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C21" s="25" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C23" s="25" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B26" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C27" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C28" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C29" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C30" s="25" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.5">
       <c r="C32" s="25" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.5">
       <c r="D33" s="25" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E34" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E35" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E36" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E37" s="25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.5">
       <c r="D39" s="25" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E40" s="25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E41" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E42" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E43" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E44" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E45" s="25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E46" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E47" s="25" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.5">
       <c r="E48" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E49" s="25" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B52" s="25" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C53" s="25" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D54" s="25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D55" s="25" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D56" s="25" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C58" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D59" s="25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D60" s="25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E61" s="25" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E62" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E63" s="25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E64" s="25" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D65" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D67" s="25" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D68" s="25" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E69" s="25" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C71" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D72" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D73" s="25" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B76" s="25" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C77" s="25" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D78" s="25" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D79" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D80" s="25" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D82" s="25" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C84" s="25" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D85" s="25" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D86" s="25" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C88" s="25" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D89" s="25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.5">
       <c r="E90" s="25" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D91" s="25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.5">
       <c r="E92" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D93" s="25" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.5">
       <c r="E94" s="25" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D95" s="25" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.5">
       <c r="E96" s="25" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D97" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E98" s="25" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D99" s="25" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E100" s="25" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D101" s="25" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E102" s="25" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B105" s="25" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C106" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C107" s="25" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C108" s="25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C109" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C111" s="25" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C112" s="25" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C113" s="25" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C114" s="25" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D115" s="25" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D116" s="25" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C117" s="25" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D118" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C120" s="25" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C121" s="25" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.5">
       <c r="C122" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D123" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D124" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D125" s="25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D126" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D127" s="25" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.5">
       <c r="D128" s="25" t="s">
         <v>54</v>
       </c>
@@ -16455,64 +16455,64 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="3" width="4.83203125" style="1"/>
-    <col min="4" max="5" width="4.83203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="4.83203125" style="1"/>
+    <col min="1" max="3" width="4.77734375" style="1"/>
+    <col min="4" max="5" width="4.77734375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="4.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C6" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C7" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C9" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:38" x14ac:dyDescent="0.5">
       <c r="B53" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C54" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="55" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C55" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C57" s="13" t="s">
         <v>6</v>
       </c>
@@ -16554,7 +16554,7 @@
       <c r="AK57" s="3"/>
       <c r="AL57" s="14"/>
     </row>
-    <row r="58" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C58" s="6"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -16594,7 +16594,7 @@
       <c r="AK58" s="4"/>
       <c r="AL58" s="15"/>
     </row>
-    <row r="59" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C59" s="6"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -16634,7 +16634,7 @@
       <c r="AK59" s="4"/>
       <c r="AL59" s="15"/>
     </row>
-    <row r="60" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C60" s="6"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -16674,7 +16674,7 @@
       <c r="AK60" s="4"/>
       <c r="AL60" s="15"/>
     </row>
-    <row r="61" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C61" s="6"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -16714,7 +16714,7 @@
       <c r="AK61" s="4"/>
       <c r="AL61" s="15"/>
     </row>
-    <row r="62" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C62" s="6"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -16754,7 +16754,7 @@
       <c r="AK62" s="4"/>
       <c r="AL62" s="15"/>
     </row>
-    <row r="63" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C63" s="6"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -16794,7 +16794,7 @@
       <c r="AK63" s="4"/>
       <c r="AL63" s="15"/>
     </row>
-    <row r="64" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C64" s="6"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -16834,7 +16834,7 @@
       <c r="AK64" s="4"/>
       <c r="AL64" s="15"/>
     </row>
-    <row r="65" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C65" s="6"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -16874,7 +16874,7 @@
       <c r="AK65" s="4"/>
       <c r="AL65" s="15"/>
     </row>
-    <row r="66" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C66" s="6"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -16886,7 +16886,7 @@
       </c>
       <c r="AL66" s="15"/>
     </row>
-    <row r="67" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C67" s="6"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -16926,7 +16926,7 @@
       <c r="AK67" s="4"/>
       <c r="AL67" s="15"/>
     </row>
-    <row r="68" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C68" s="6"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -16966,7 +16966,7 @@
       <c r="AK68" s="4"/>
       <c r="AL68" s="15"/>
     </row>
-    <row r="69" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C69" s="6"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -17006,7 +17006,7 @@
       <c r="AK69" s="4"/>
       <c r="AL69" s="15"/>
     </row>
-    <row r="70" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C70" s="6"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -17046,7 +17046,7 @@
       <c r="AK70" s="4"/>
       <c r="AL70" s="15"/>
     </row>
-    <row r="71" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C71" s="6"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -17086,7 +17086,7 @@
       <c r="AK71" s="4"/>
       <c r="AL71" s="15"/>
     </row>
-    <row r="72" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C72" s="6"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -17126,7 +17126,7 @@
       <c r="AK72" s="4"/>
       <c r="AL72" s="15"/>
     </row>
-    <row r="73" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C73" s="6"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -17166,7 +17166,7 @@
       <c r="AK73" s="4"/>
       <c r="AL73" s="15"/>
     </row>
-    <row r="74" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C74" s="6"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -17206,7 +17206,7 @@
       <c r="AK74" s="4"/>
       <c r="AL74" s="15"/>
     </row>
-    <row r="75" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C75" s="8"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -17244,7 +17244,7 @@
       <c r="AK75" s="9"/>
       <c r="AL75" s="16"/>
     </row>
-    <row r="76" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C76" s="6" t="s">
         <v>7</v>
       </c>
@@ -17286,7 +17286,7 @@
       <c r="AK76" s="3"/>
       <c r="AL76" s="15"/>
     </row>
-    <row r="77" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C77" s="6"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -17326,7 +17326,7 @@
       <c r="AK77" s="4"/>
       <c r="AL77" s="15"/>
     </row>
-    <row r="78" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C78" s="6"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -17366,7 +17366,7 @@
       <c r="AK78" s="4"/>
       <c r="AL78" s="15"/>
     </row>
-    <row r="79" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C79" s="6"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -17406,7 +17406,7 @@
       <c r="AK79" s="4"/>
       <c r="AL79" s="15"/>
     </row>
-    <row r="80" spans="3:38" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:38" x14ac:dyDescent="0.5">
       <c r="C80" s="6"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -17446,7 +17446,7 @@
       <c r="AK80" s="4"/>
       <c r="AL80" s="15"/>
     </row>
-    <row r="81" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C81" s="6"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -17486,7 +17486,7 @@
       <c r="AK81" s="4"/>
       <c r="AL81" s="15"/>
     </row>
-    <row r="82" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C82" s="6"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -17526,7 +17526,7 @@
       <c r="AK82" s="4"/>
       <c r="AL82" s="15"/>
     </row>
-    <row r="83" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C83" s="6"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -17566,7 +17566,7 @@
       <c r="AK83" s="4"/>
       <c r="AL83" s="15"/>
     </row>
-    <row r="84" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C84" s="6"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -17606,7 +17606,7 @@
       <c r="AK84" s="4"/>
       <c r="AL84" s="15"/>
     </row>
-    <row r="85" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C85" s="8"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
@@ -17644,182 +17644,182 @@
       <c r="AK85" s="9"/>
       <c r="AL85" s="16"/>
     </row>
-    <row r="88" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:38" x14ac:dyDescent="0.5">
       <c r="B88" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="89" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:38" x14ac:dyDescent="0.5">
       <c r="C89" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:38" x14ac:dyDescent="0.5">
       <c r="D90" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="91" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:38" x14ac:dyDescent="0.5">
       <c r="D91" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="92" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:38" x14ac:dyDescent="0.5">
       <c r="D92" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:38" x14ac:dyDescent="0.5">
       <c r="D93" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:38" x14ac:dyDescent="0.5">
       <c r="D94" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:38" x14ac:dyDescent="0.5">
       <c r="D95" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:38" x14ac:dyDescent="0.5">
       <c r="D96" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C98" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D99" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D100" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.5">
       <c r="E101" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.5">
       <c r="E102" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D103" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.5">
       <c r="E104" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.5">
       <c r="E105" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.5">
       <c r="E106" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C108" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D109" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D110" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.5">
       <c r="D111" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D113" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.5">
       <c r="E114" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.5">
       <c r="F115" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:6" x14ac:dyDescent="0.5">
       <c r="F116" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.5">
       <c r="F117" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.5">
       <c r="E119" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.5">
       <c r="F120" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.5">
       <c r="F121" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.5">
       <c r="F122" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:6" x14ac:dyDescent="0.5">
       <c r="F123" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D125" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:6" x14ac:dyDescent="0.5">
       <c r="E126" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:6" x14ac:dyDescent="0.5">
       <c r="E127" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:6" x14ac:dyDescent="0.5">
       <c r="E128" s="1" t="s">
         <v>50</v>
       </c>
@@ -17842,19 +17842,19 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="48.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="48.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="42" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="83.1640625" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="4.83203125" style="5"/>
+    <col min="7" max="7" width="83.109375" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="4.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
         <v>226</v>
       </c>
@@ -17862,13 +17862,13 @@
       <c r="C1" s="45"/>
       <c r="D1" s="18"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="25"/>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
       <c r="D2" s="18"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="25"/>
       <c r="B3" s="25" t="s">
         <v>196</v>
@@ -17876,7 +17876,7 @@
       <c r="C3" s="45"/>
       <c r="D3" s="18"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="25"/>
       <c r="B4" s="25" t="s">
         <v>199</v>
@@ -17884,7 +17884,7 @@
       <c r="C4" s="45"/>
       <c r="D4" s="18"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="25"/>
       <c r="B5" s="25" t="s">
         <v>308</v>
@@ -17892,7 +17892,7 @@
       <c r="C5" s="45"/>
       <c r="D5" s="18"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="25"/>
       <c r="B6" s="25" t="s">
         <v>228</v>
@@ -17900,13 +17900,13 @@
       <c r="C6" s="45"/>
       <c r="D6" s="18"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="25"/>
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="25"/>
       <c r="B8" s="25" t="s">
         <v>130</v>
@@ -17914,7 +17914,7 @@
       <c r="C8" s="45"/>
       <c r="D8" s="18"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="25"/>
       <c r="B9" s="25" t="s">
         <v>254</v>
@@ -17922,7 +17922,7 @@
       <c r="C9" s="45"/>
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="25"/>
       <c r="B10" s="46" t="s">
         <v>131</v>
@@ -17934,7 +17934,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="25"/>
       <c r="B11" s="47"/>
       <c r="C11" s="32" t="s">
@@ -17944,7 +17944,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="25"/>
       <c r="B12" s="46" t="s">
         <v>132</v>
@@ -17956,7 +17956,7 @@
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="25"/>
       <c r="B13" s="47"/>
       <c r="C13" s="32" t="s">
@@ -17966,7 +17966,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="25"/>
       <c r="B14" s="26" t="s">
         <v>133</v>
@@ -17978,7 +17978,7 @@
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
     </row>
-    <row r="15" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B15" s="26" t="s">
         <v>236</v>
       </c>
@@ -17989,7 +17989,7 @@
       <c r="E15" s="49"/>
       <c r="F15" s="34"/>
     </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B19" s="48" t="s">
         <v>136</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B20" s="28" t="s">
         <v>314</v>
       </c>
@@ -18023,7 +18023,7 @@
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B21" s="30"/>
       <c r="C21" s="31"/>
       <c r="D21" s="12" t="s">
@@ -18037,7 +18037,7 @@
       </c>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B22" s="30"/>
       <c r="C22" s="31"/>
       <c r="D22" s="12" t="s">
@@ -18051,7 +18051,7 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B23" s="30"/>
       <c r="C23" s="31"/>
       <c r="D23" s="12" t="s">
@@ -18065,7 +18065,7 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B24" s="30"/>
       <c r="C24" s="31"/>
       <c r="D24" s="12" t="s">
@@ -18079,7 +18079,7 @@
       </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B25" s="30"/>
       <c r="C25" s="31"/>
       <c r="D25" s="12" t="s">
@@ -18093,7 +18093,7 @@
       </c>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B26" s="30"/>
       <c r="C26" s="31"/>
       <c r="D26" s="12" t="s">
@@ -18107,7 +18107,7 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B27" s="30"/>
       <c r="C27" s="31"/>
       <c r="D27" s="12" t="s">
@@ -18121,7 +18121,7 @@
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B28" s="30"/>
       <c r="C28" s="31"/>
       <c r="D28" s="12" t="s">
@@ -18135,7 +18135,7 @@
       </c>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
       <c r="D29" s="12" t="s">
@@ -18149,7 +18149,7 @@
       </c>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B30" s="30"/>
       <c r="C30" s="32"/>
       <c r="D30" s="12" t="s">
@@ -18163,7 +18163,7 @@
       </c>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B31" s="30"/>
       <c r="C31" s="31" t="s">
         <v>122</v>
@@ -18181,7 +18181,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B32" s="30"/>
       <c r="C32" s="31"/>
       <c r="D32" s="12" t="s">
@@ -18195,7 +18195,7 @@
       </c>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B33" s="30"/>
       <c r="C33" s="31"/>
       <c r="D33" s="12" t="s">
@@ -18209,7 +18209,7 @@
       </c>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B34" s="30"/>
       <c r="C34" s="31"/>
       <c r="D34" s="12" t="s">
@@ -18223,7 +18223,7 @@
       </c>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B35" s="30"/>
       <c r="C35" s="31"/>
       <c r="D35" s="12" t="s">
@@ -18237,7 +18237,7 @@
       </c>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B36" s="30"/>
       <c r="C36" s="31"/>
       <c r="D36" s="12" t="s">
@@ -18251,7 +18251,7 @@
       </c>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B37" s="30"/>
       <c r="C37" s="31"/>
       <c r="D37" s="12" t="s">
@@ -18265,7 +18265,7 @@
       </c>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B38" s="30"/>
       <c r="C38" s="31"/>
       <c r="D38" s="12" t="s">
@@ -18279,7 +18279,7 @@
       </c>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B39" s="30"/>
       <c r="C39" s="31"/>
       <c r="D39" s="12" t="s">
@@ -18293,7 +18293,7 @@
       </c>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="2:7" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B40" s="30"/>
       <c r="C40" s="31"/>
       <c r="D40" s="12" t="s">
@@ -18309,7 +18309,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B41" s="30"/>
       <c r="C41" s="31"/>
       <c r="D41" s="12" t="s">
@@ -18323,7 +18323,7 @@
       </c>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B42" s="30"/>
       <c r="C42" s="31"/>
       <c r="D42" s="12" t="s">
@@ -18337,7 +18337,7 @@
       </c>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B43" s="30"/>
       <c r="C43" s="31"/>
       <c r="D43" s="12" t="s">
@@ -18351,7 +18351,7 @@
       </c>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B44" s="30"/>
       <c r="C44" s="31"/>
       <c r="D44" s="12" t="s">
@@ -18365,7 +18365,7 @@
       </c>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B45" s="30"/>
       <c r="C45" s="31"/>
       <c r="D45" s="12" t="s">
@@ -18379,7 +18379,7 @@
       </c>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B46" s="30"/>
       <c r="C46" s="31"/>
       <c r="D46" s="12" t="s">
@@ -18395,7 +18395,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B47" s="30"/>
       <c r="C47" s="31"/>
       <c r="D47" s="12" t="s">
@@ -18409,7 +18409,7 @@
       </c>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B48" s="30"/>
       <c r="C48" s="31"/>
       <c r="D48" s="12" t="s">
@@ -18423,7 +18423,7 @@
       </c>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B49" s="116"/>
       <c r="C49" s="116"/>
       <c r="D49" s="12" t="s">
@@ -18439,7 +18439,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B50" s="33" t="s">
         <v>319</v>
       </c>
@@ -18457,7 +18457,7 @@
       </c>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="12" t="s">
@@ -18471,7 +18471,7 @@
       </c>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B52" s="30"/>
       <c r="C52" s="17"/>
       <c r="D52" s="12" t="s">
@@ -18485,7 +18485,7 @@
       </c>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="12" t="s">
@@ -18499,7 +18499,7 @@
       </c>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="12" t="s">
@@ -18513,7 +18513,7 @@
       </c>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B55" s="30"/>
       <c r="C55" s="27" t="s">
         <v>129</v>
@@ -18527,7 +18527,7 @@
       </c>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B56" s="30"/>
       <c r="C56" s="27" t="s">
         <v>123</v>
@@ -18541,7 +18541,7 @@
       </c>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B57" s="30"/>
       <c r="C57" s="27" t="s">
         <v>170</v>
@@ -18555,7 +18555,7 @@
       </c>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B58" s="115"/>
       <c r="C58" s="27" t="s">
         <v>186</v>
@@ -18569,7 +18569,7 @@
       </c>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B59" s="115"/>
       <c r="C59" s="27" t="s">
         <v>171</v>
@@ -18583,7 +18583,7 @@
       </c>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B60" s="30"/>
       <c r="C60" s="27" t="s">
         <v>172</v>
@@ -18597,7 +18597,7 @@
       </c>
       <c r="G60" s="12"/>
     </row>
-    <row r="61" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B61" s="30"/>
       <c r="C61" s="27" t="s">
         <v>231</v>
@@ -18611,7 +18611,7 @@
       </c>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B62" s="30"/>
       <c r="C62" s="27" t="s">
         <v>174</v>
@@ -18625,7 +18625,7 @@
       </c>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B63" s="30"/>
       <c r="C63" s="27" t="s">
         <v>175</v>
@@ -18639,7 +18639,7 @@
       </c>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B64" s="30"/>
       <c r="C64" s="27" t="s">
         <v>125</v>
@@ -18653,7 +18653,7 @@
       </c>
       <c r="G64" s="12"/>
     </row>
-    <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B65" s="30"/>
       <c r="C65" s="27" t="s">
         <v>176</v>
@@ -18667,7 +18667,7 @@
       </c>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B66" s="30"/>
       <c r="C66" s="27" t="s">
         <v>173</v>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="G66" s="12"/>
     </row>
-    <row r="67" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B67" s="30"/>
       <c r="C67" s="27" t="s">
         <v>124</v>
@@ -18695,7 +18695,7 @@
       </c>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B68" s="30"/>
       <c r="C68" s="27" t="s">
         <v>128</v>
@@ -18709,7 +18709,7 @@
       </c>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B69" s="30"/>
       <c r="C69" s="27" t="s">
         <v>127</v>
@@ -18723,7 +18723,7 @@
       </c>
       <c r="G69" s="12"/>
     </row>
-    <row r="70" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B70" s="30"/>
       <c r="C70" s="27" t="s">
         <v>230</v>
@@ -18737,7 +18737,7 @@
       </c>
       <c r="G70" s="12"/>
     </row>
-    <row r="71" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B71" s="30"/>
       <c r="C71" s="27" t="s">
         <v>229</v>
@@ -18751,7 +18751,7 @@
       </c>
       <c r="G71" s="12"/>
     </row>
-    <row r="72" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B72" s="30"/>
       <c r="C72" s="27" t="s">
         <v>126</v>
@@ -18765,7 +18765,7 @@
       </c>
       <c r="G72" s="12"/>
     </row>
-    <row r="73" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B73" s="30"/>
       <c r="C73" s="27" t="s">
         <v>177</v>
@@ -18779,7 +18779,7 @@
       </c>
       <c r="G73" s="12"/>
     </row>
-    <row r="74" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B74" s="30"/>
       <c r="C74" s="27" t="s">
         <v>232</v>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B75" s="30"/>
       <c r="C75" s="27" t="s">
         <v>180</v>
@@ -18807,7 +18807,7 @@
       </c>
       <c r="G75" s="12"/>
     </row>
-    <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B76" s="30"/>
       <c r="C76" s="27" t="s">
         <v>179</v>
@@ -18821,7 +18821,7 @@
       </c>
       <c r="G76" s="12"/>
     </row>
-    <row r="77" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B77" s="30"/>
       <c r="C77" s="27" t="s">
         <v>181</v>
@@ -18835,7 +18835,7 @@
       </c>
       <c r="G77" s="12"/>
     </row>
-    <row r="78" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B78" s="30"/>
       <c r="C78" s="27" t="s">
         <v>182</v>
@@ -18849,7 +18849,7 @@
       </c>
       <c r="G78" s="12"/>
     </row>
-    <row r="79" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B79" s="30"/>
       <c r="C79" s="27" t="s">
         <v>178</v>
@@ -18863,7 +18863,7 @@
       </c>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B80" s="30"/>
       <c r="C80" s="27" t="s">
         <v>183</v>
@@ -18877,7 +18877,7 @@
       </c>
       <c r="G80" s="12"/>
     </row>
-    <row r="81" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B81" s="30"/>
       <c r="C81" s="27" t="s">
         <v>203</v>
@@ -18891,7 +18891,7 @@
       </c>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B82" s="30"/>
       <c r="C82" s="27" t="s">
         <v>184</v>
@@ -18905,7 +18905,7 @@
       </c>
       <c r="G82" s="12"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B83" s="30"/>
       <c r="C83" s="27" t="s">
         <v>204</v>
@@ -18919,7 +18919,7 @@
       </c>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B84" s="30"/>
       <c r="C84" s="27" t="s">
         <v>205</v>
@@ -18933,7 +18933,7 @@
       </c>
       <c r="G84" s="12"/>
     </row>
-    <row r="85" spans="2:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" s="25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B85" s="27" t="s">
         <v>187</v>
       </c>
@@ -18958,7 +18958,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="8" scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="66" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18968,17 +18968,17 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="4.83203125" style="50" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="4.77734375" style="50" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" style="52" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46" style="52" customWidth="1"/>
     <col min="5" max="40" width="4.33203125" style="52" customWidth="1"/>
     <col min="41" max="41" width="2.6640625" style="52" customWidth="1"/>
-    <col min="42" max="16384" width="4.83203125" style="50"/>
+    <col min="42" max="16384" width="4.77734375" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
         <v>227</v>
       </c>
@@ -19023,7 +19023,7 @@
       <c r="AN1" s="25"/>
       <c r="AO1" s="50"/>
     </row>
-    <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -19066,7 +19066,7 @@
       <c r="AN2" s="25"/>
       <c r="AO2" s="50"/>
     </row>
-    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="25"/>
       <c r="B3" s="25" t="s">
         <v>98</v>
@@ -19111,7 +19111,7 @@
       <c r="AN3" s="25"/>
       <c r="AO3" s="50"/>
     </row>
-    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="25"/>
       <c r="B4" s="25" t="s">
         <v>99</v>
@@ -19156,7 +19156,7 @@
       <c r="AN4" s="25"/>
       <c r="AO4" s="50"/>
     </row>
-    <row r="5" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="51"/>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
@@ -19198,7 +19198,7 @@
       <c r="AN5" s="50"/>
       <c r="AO5" s="50"/>
     </row>
-    <row r="6" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="51"/>
       <c r="C6" s="133" t="s">
         <v>82</v>
@@ -19245,7 +19245,7 @@
       <c r="AM6" s="136"/>
       <c r="AN6" s="137"/>
     </row>
-    <row r="7" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="51"/>
       <c r="C7" s="134"/>
       <c r="D7" s="134"/>
@@ -19304,7 +19304,7 @@
       <c r="AM7" s="143"/>
       <c r="AN7" s="144"/>
     </row>
-    <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="54"/>
       <c r="C8" s="35" t="s">
         <v>83</v>
@@ -19347,7 +19347,7 @@
       <c r="AM8" s="64"/>
       <c r="AN8" s="65"/>
     </row>
-    <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="54"/>
       <c r="C9" s="36"/>
       <c r="D9" s="37" t="s">
@@ -19390,7 +19390,7 @@
       <c r="AM9" s="75"/>
       <c r="AN9" s="76"/>
     </row>
-    <row r="10" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B10" s="54"/>
       <c r="C10" s="36"/>
       <c r="D10" s="37" t="s">
@@ -19433,7 +19433,7 @@
       <c r="AM10" s="75"/>
       <c r="AN10" s="76"/>
     </row>
-    <row r="11" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B11" s="54"/>
       <c r="C11" s="38"/>
       <c r="D11" s="37" t="s">
@@ -19476,7 +19476,7 @@
       <c r="AM11" s="75"/>
       <c r="AN11" s="76"/>
     </row>
-    <row r="12" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B12" s="54"/>
       <c r="C12" s="36"/>
       <c r="D12" s="37" t="s">
@@ -19519,7 +19519,7 @@
       <c r="AM12" s="75"/>
       <c r="AN12" s="76"/>
     </row>
-    <row r="13" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B13" s="54"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37" t="s">
@@ -19562,7 +19562,7 @@
       <c r="AM13" s="75"/>
       <c r="AN13" s="76"/>
     </row>
-    <row r="14" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="54"/>
       <c r="C14" s="39"/>
       <c r="D14" s="40"/>
@@ -19603,7 +19603,7 @@
       <c r="AM14" s="84"/>
       <c r="AN14" s="85"/>
     </row>
-    <row r="15" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="54"/>
       <c r="C15" s="86" t="s">
         <v>71</v>
@@ -19646,7 +19646,7 @@
       <c r="AM15" s="64"/>
       <c r="AN15" s="65"/>
     </row>
-    <row r="16" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B16" s="54"/>
       <c r="C16" s="38"/>
       <c r="D16" s="37" t="s">
@@ -19689,7 +19689,7 @@
       <c r="AM16" s="75"/>
       <c r="AN16" s="76"/>
     </row>
-    <row r="17" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B17" s="55"/>
       <c r="C17" s="38"/>
       <c r="D17" s="42" t="s">
@@ -19734,7 +19734,7 @@
       <c r="AM17" s="75"/>
       <c r="AN17" s="76"/>
     </row>
-    <row r="18" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B18" s="54"/>
       <c r="C18" s="38"/>
       <c r="D18" s="42" t="s">
@@ -19777,7 +19777,7 @@
       <c r="AM18" s="75"/>
       <c r="AN18" s="76"/>
     </row>
-    <row r="19" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="54"/>
       <c r="C19" s="43"/>
       <c r="D19" s="44"/>
@@ -19818,7 +19818,7 @@
       <c r="AM19" s="84"/>
       <c r="AN19" s="85"/>
     </row>
-    <row r="20" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B20" s="55"/>
       <c r="C20" s="86" t="s">
         <v>84</v>
@@ -19861,7 +19861,7 @@
       <c r="AM20" s="64"/>
       <c r="AN20" s="65"/>
     </row>
-    <row r="21" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B21" s="55"/>
       <c r="C21" s="38"/>
       <c r="D21" s="42" t="s">
@@ -19903,7 +19903,7 @@
       <c r="AM21" s="75"/>
       <c r="AN21" s="76"/>
     </row>
-    <row r="22" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B22" s="54"/>
       <c r="C22" s="38"/>
       <c r="D22" s="42" t="s">
@@ -19946,7 +19946,7 @@
       <c r="AM22" s="75"/>
       <c r="AN22" s="76"/>
     </row>
-    <row r="23" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B23" s="54"/>
       <c r="C23" s="38"/>
       <c r="D23" s="42" t="s">
@@ -19989,7 +19989,7 @@
       <c r="AM23" s="75"/>
       <c r="AN23" s="76"/>
     </row>
-    <row r="24" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B24" s="54"/>
       <c r="C24" s="38"/>
       <c r="D24" s="42"/>
@@ -20030,7 +20030,7 @@
       <c r="AM24" s="75"/>
       <c r="AN24" s="76"/>
     </row>
-    <row r="25" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B25" s="55"/>
       <c r="C25" s="38"/>
       <c r="D25" s="37" t="s">
@@ -20077,7 +20077,7 @@
       <c r="AM25" s="75"/>
       <c r="AN25" s="76"/>
     </row>
-    <row r="26" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B26" s="55"/>
       <c r="C26" s="38"/>
       <c r="D26" s="42" t="s">
@@ -20120,7 +20120,7 @@
       <c r="AM26" s="75"/>
       <c r="AN26" s="76"/>
     </row>
-    <row r="27" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B27" s="55"/>
       <c r="C27" s="38"/>
       <c r="D27" s="42" t="s">
@@ -20163,7 +20163,7 @@
       <c r="AM27" s="75"/>
       <c r="AN27" s="76"/>
     </row>
-    <row r="28" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B28" s="55"/>
       <c r="C28" s="38"/>
       <c r="D28" s="42" t="s">
@@ -20206,7 +20206,7 @@
       <c r="AM28" s="75"/>
       <c r="AN28" s="76"/>
     </row>
-    <row r="29" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B29" s="55"/>
       <c r="C29" s="38"/>
       <c r="D29" s="42"/>
@@ -20247,7 +20247,7 @@
       <c r="AM29" s="75"/>
       <c r="AN29" s="76"/>
     </row>
-    <row r="30" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B30" s="55"/>
       <c r="C30" s="38"/>
       <c r="D30" s="42" t="s">
@@ -20290,7 +20290,7 @@
       <c r="AM30" s="75"/>
       <c r="AN30" s="76"/>
     </row>
-    <row r="31" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B31" s="55"/>
       <c r="C31" s="38"/>
       <c r="D31" s="42"/>
@@ -20331,7 +20331,7 @@
       <c r="AM31" s="75"/>
       <c r="AN31" s="76"/>
     </row>
-    <row r="32" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B32" s="55"/>
       <c r="C32" s="38"/>
       <c r="D32" s="42" t="s">
@@ -20378,7 +20378,7 @@
       <c r="AM32" s="67"/>
       <c r="AN32" s="90"/>
     </row>
-    <row r="33" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B33" s="55"/>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
@@ -20419,7 +20419,7 @@
       <c r="AM33" s="75"/>
       <c r="AN33" s="76"/>
     </row>
-    <row r="34" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B34" s="55"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38" t="s">
@@ -20468,7 +20468,7 @@
       <c r="AM34" s="71"/>
       <c r="AN34" s="76"/>
     </row>
-    <row r="35" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="54"/>
       <c r="C35" s="43"/>
       <c r="D35" s="43"/>
@@ -20509,7 +20509,7 @@
       <c r="AM35" s="84"/>
       <c r="AN35" s="85"/>
     </row>
-    <row r="36" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B36" s="56"/>
     </row>
   </sheetData>

--- a/docs/テスト種別&観点カタログガイド.xlsx
+++ b/docs/テスト種別&観点カタログガイド.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95951D5C-FC25-4977-A001-6C2DC1364928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B55213D-B88E-49F4-BA8B-1766D70348F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15821,7 +15821,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="8" scale="135" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -15904,6 +15904,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
